--- a/data/lat long.xlsx
+++ b/data/lat long.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandeep Yadav\Desktop\node-google-spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandeep Yadav\Desktop\MCH HACK 1.0\APPradh\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -398,2904 +398,3304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z54"/>
+  <dimension ref="A1:AC104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>2</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>2</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" t="s">
-        <v>7</v>
       </c>
       <c r="Q3" t="s">
         <v>2</v>
       </c>
       <c r="S3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" t="s">
         <v>9</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>10</v>
-      </c>
-      <c r="V3" t="s">
-        <v>1</v>
-      </c>
-      <c r="W3" t="s">
-        <v>2</v>
       </c>
       <c r="Y3" t="s">
         <v>1</v>
       </c>
       <c r="Z3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>28.555799029999999</v>
       </c>
       <c r="B5">
         <v>77.252730380000003</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>28.565527679999999</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>77.319614900000005</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>28.65722877</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>77.015543440000002</v>
       </c>
-      <c r="J5">
-        <v>28.697412809999999</v>
-      </c>
-      <c r="K5">
-        <v>77.188328690000006</v>
+      <c r="L5">
+        <v>28.669520039999998</v>
       </c>
       <c r="M5">
+        <v>77.238569130000002</v>
+      </c>
+      <c r="P5">
         <v>28.700232849999999</v>
       </c>
-      <c r="N5">
+      <c r="Q5">
         <v>77.269038440000003</v>
       </c>
-      <c r="P5">
+      <c r="S5">
         <v>28.767940070000002</v>
       </c>
-      <c r="Q5">
+      <c r="T5">
         <v>77.037236120000003</v>
       </c>
-      <c r="S5">
+      <c r="V5">
         <v>28.672958080000001</v>
       </c>
-      <c r="T5">
+      <c r="W5">
         <v>77.272074910000001</v>
       </c>
-      <c r="V5">
+      <c r="Y5">
         <v>28.669797129999999</v>
       </c>
-      <c r="W5">
+      <c r="Z5">
         <v>77.129776509999999</v>
       </c>
-      <c r="Y5">
+      <c r="AB5">
         <v>28.80913864</v>
       </c>
-      <c r="Z5">
+      <c r="AC5">
         <v>77.077557880000001</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>28.465428410000001</v>
       </c>
       <c r="B6">
         <v>77.174477289999999</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>28.569128490000001</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>77.293481600000007</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>28.65910229</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>77.066756359999999</v>
       </c>
-      <c r="J6">
-        <v>28.699281370000001</v>
-      </c>
-      <c r="K6">
-        <v>77.20216868</v>
+      <c r="L6">
+        <v>28.656668509999999</v>
       </c>
       <c r="M6">
+        <v>77.255343620000005</v>
+      </c>
+      <c r="P6">
         <v>28.667364299999999</v>
       </c>
-      <c r="N6">
+      <c r="Q6">
         <v>77.276802559999993</v>
       </c>
-      <c r="P6">
+      <c r="S6">
         <v>28.814379519999999</v>
       </c>
-      <c r="Q6">
+      <c r="T6">
         <v>77.047211709999999</v>
       </c>
-      <c r="S6">
+      <c r="V6">
         <v>28.645588109999998</v>
       </c>
-      <c r="T6">
+      <c r="W6">
         <v>77.282737249999997</v>
       </c>
-      <c r="V6">
+      <c r="Y6">
         <v>28.67289817</v>
       </c>
-      <c r="W6">
+      <c r="Z6">
         <v>77.085944089999998</v>
       </c>
-      <c r="Y6">
+      <c r="AB6">
         <v>28.843553249999999</v>
       </c>
-      <c r="Z6">
+      <c r="AC6">
         <v>77.199655179999993</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>28.542339729999998</v>
       </c>
       <c r="B7">
         <v>77.215327569999999</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>28.551598670000001</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>77.337435069999998</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>28.51005228</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>76.929979799999998</v>
       </c>
-      <c r="J7">
-        <v>28.660217530000001</v>
-      </c>
-      <c r="K7">
-        <v>77.224904469999998</v>
+      <c r="L7">
+        <v>28.626911660000001</v>
       </c>
       <c r="M7">
+        <v>77.227272209999995</v>
+      </c>
+      <c r="P7">
         <v>28.672159520000001</v>
       </c>
-      <c r="N7">
+      <c r="Q7">
         <v>77.253382680000001</v>
       </c>
-      <c r="P7">
+      <c r="S7">
         <v>28.724763930000002</v>
       </c>
-      <c r="Q7">
+      <c r="T7">
         <v>77.0378319</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>28.598104939999999</v>
       </c>
-      <c r="T7">
+      <c r="W7">
         <v>77.303353979999997</v>
       </c>
-      <c r="V7">
+      <c r="Y7">
         <v>28.685030999999999</v>
       </c>
-      <c r="W7">
+      <c r="Z7">
         <v>76.981855120000006</v>
       </c>
-      <c r="Y7">
+      <c r="AB7">
         <v>28.744697819999999</v>
       </c>
-      <c r="Z7">
+      <c r="AC7">
         <v>77.061312569999998</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>28.487941630000002</v>
       </c>
       <c r="B8">
         <v>77.185328670000004</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>28.489085530000001</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>77.249349219999999</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>28.553176199999999</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>76.891002520000001</v>
       </c>
-      <c r="J8">
-        <v>28.730612390000001</v>
-      </c>
-      <c r="K8">
-        <v>77.251753449999995</v>
+      <c r="L8">
+        <v>28.760916309999999</v>
       </c>
       <c r="M8">
+        <v>77.22509814</v>
+      </c>
+      <c r="P8">
         <v>28.682276829999999</v>
       </c>
-      <c r="N8">
+      <c r="Q8">
         <v>77.284782800000002</v>
       </c>
-      <c r="P8">
+      <c r="S8">
         <v>28.69036608</v>
       </c>
-      <c r="Q8">
+      <c r="T8">
         <v>77.076618049999993</v>
       </c>
-      <c r="S8">
+      <c r="V8">
         <v>28.6223612</v>
       </c>
-      <c r="T8">
+      <c r="W8">
         <v>77.273973319999996</v>
       </c>
-      <c r="V8">
+      <c r="Y8">
         <v>28.63783574</v>
       </c>
-      <c r="W8">
+      <c r="Z8">
         <v>76.961024570000006</v>
       </c>
-      <c r="Y8">
+      <c r="AB8">
         <v>28.75249505</v>
       </c>
-      <c r="Z8">
+      <c r="AC8">
         <v>77.060169639999998</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>28.519474710000001</v>
       </c>
       <c r="B9">
         <v>77.147927899999999</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>28.567581610000001</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>77.331492979999993</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>28.61322582</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>76.906976299999997</v>
       </c>
-      <c r="J9">
-        <v>28.745696850000002</v>
-      </c>
-      <c r="K9">
-        <v>77.213915279999995</v>
+      <c r="L9">
+        <v>28.689811750000001</v>
       </c>
       <c r="M9">
+        <v>77.246119390000004</v>
+      </c>
+      <c r="P9">
         <v>28.69949815</v>
       </c>
-      <c r="N9">
+      <c r="Q9">
         <v>77.273481989999993</v>
       </c>
-      <c r="P9">
+      <c r="S9">
         <v>28.71903146</v>
       </c>
-      <c r="Q9">
+      <c r="T9">
         <v>77.049227200000004</v>
       </c>
-      <c r="S9">
+      <c r="V9">
         <v>28.617085070000002</v>
       </c>
-      <c r="T9">
+      <c r="W9">
         <v>77.287024310000007</v>
       </c>
-      <c r="V9">
+      <c r="Y9">
         <v>28.64041873</v>
       </c>
-      <c r="W9">
+      <c r="Z9">
         <v>76.991892609999994</v>
       </c>
-      <c r="Y9">
+      <c r="AB9">
         <v>28.76392126</v>
       </c>
-      <c r="Z9">
+      <c r="AC9">
         <v>77.177496500000004</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>28.545083089999999</v>
       </c>
       <c r="B10">
         <v>77.195597390000003</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>28.50666854</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>77.32526215</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>28.50870522</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>76.868914439999998</v>
       </c>
-      <c r="J10">
-        <v>28.649696089999999</v>
-      </c>
-      <c r="K10">
-        <v>77.173522629999994</v>
+      <c r="L10">
+        <v>28.733644529999999</v>
       </c>
       <c r="M10">
+        <v>77.224453359999998</v>
+      </c>
+      <c r="P10">
         <v>28.69456933</v>
       </c>
-      <c r="N10">
+      <c r="Q10">
         <v>77.292131659999995</v>
       </c>
-      <c r="P10">
+      <c r="S10">
         <v>28.792650429999998</v>
       </c>
-      <c r="Q10">
+      <c r="T10">
         <v>77.023837310000005</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>28.615066649999999</v>
       </c>
-      <c r="T10">
+      <c r="W10">
         <v>77.270155790000004</v>
       </c>
-      <c r="V10">
+      <c r="Y10">
         <v>28.671122539999999</v>
       </c>
-      <c r="W10">
+      <c r="Z10">
         <v>77.006066970000006</v>
       </c>
-      <c r="Y10">
+      <c r="AB10">
         <v>28.879755370000002</v>
       </c>
-      <c r="Z10">
+      <c r="AC10">
         <v>77.13015729</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>28.467165649999998</v>
       </c>
       <c r="B11">
         <v>77.231207530000006</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>28.556325869999998</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>77.292163419999994</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>28.588582290000002</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>77.078875460000006</v>
       </c>
-      <c r="J11">
-        <v>28.661654259999999</v>
-      </c>
-      <c r="K11">
-        <v>77.177082029999994</v>
+      <c r="L11">
+        <v>28.62800584</v>
       </c>
       <c r="M11">
+        <v>77.17657002</v>
+      </c>
+      <c r="P11">
         <v>28.68723773</v>
       </c>
-      <c r="N11">
+      <c r="Q11">
         <v>77.293817020000006</v>
       </c>
-      <c r="P11">
+      <c r="S11">
         <v>28.789166730000002</v>
       </c>
-      <c r="Q11">
+      <c r="T11">
         <v>77.053121899999994</v>
       </c>
-      <c r="S11">
+      <c r="V11">
         <v>28.633295610000001</v>
       </c>
-      <c r="T11">
+      <c r="W11">
         <v>77.261148449999993</v>
       </c>
-      <c r="V11">
+      <c r="Y11">
         <v>28.682103779999998</v>
       </c>
-      <c r="W11">
+      <c r="Z11">
         <v>77.173692549999998</v>
       </c>
-      <c r="Y11">
+      <c r="AB11">
         <v>28.75410278</v>
       </c>
-      <c r="Z11">
+      <c r="AC11">
         <v>77.066844560000007</v>
       </c>
     </row>
-    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>28.469389759999999</v>
       </c>
       <c r="B12">
         <v>77.169875820000001</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>28.536325550000001</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>77.203923399999994</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>28.591995489999999</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>76.947895990000006</v>
       </c>
-      <c r="J12">
-        <v>28.681755079999999</v>
-      </c>
-      <c r="K12">
-        <v>77.205685279999997</v>
+      <c r="L12">
+        <v>28.635074899999999</v>
       </c>
       <c r="M12">
+        <v>77.236174559999995</v>
+      </c>
+      <c r="P12">
         <v>28.703591500000002</v>
       </c>
-      <c r="N12">
+      <c r="Q12">
         <v>77.261919109999994</v>
       </c>
-      <c r="P12">
+      <c r="S12">
         <v>28.73307316</v>
       </c>
-      <c r="Q12">
+      <c r="T12">
         <v>76.990268040000004</v>
       </c>
-      <c r="S12">
+      <c r="V12">
         <v>28.669980939999999</v>
       </c>
-      <c r="T12">
+      <c r="W12">
         <v>77.309705129999998</v>
       </c>
-      <c r="V12">
+      <c r="Y12">
         <v>28.63665554</v>
       </c>
-      <c r="W12">
+      <c r="Z12">
         <v>77.164913179999999</v>
       </c>
-      <c r="Y12">
+      <c r="AB12">
         <v>28.75953243</v>
       </c>
-      <c r="Z12">
+      <c r="AC12">
         <v>77.076656880000002</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>28.418681790000001</v>
       </c>
       <c r="B13">
         <v>77.165970229999999</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>28.58539893</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>77.218615360000001</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>28.560950550000001</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>76.86971475</v>
       </c>
-      <c r="J13">
-        <v>28.782014019999998</v>
-      </c>
-      <c r="K13">
-        <v>77.220114100000004</v>
+      <c r="L13">
+        <v>28.780130799999998</v>
       </c>
       <c r="M13">
+        <v>77.201003920000005</v>
+      </c>
+      <c r="P13">
         <v>28.696440370000001</v>
       </c>
-      <c r="N13">
+      <c r="Q13">
         <v>77.243818140000002</v>
       </c>
-      <c r="P13">
+      <c r="S13">
         <v>28.730491319999999</v>
       </c>
-      <c r="Q13">
+      <c r="T13">
         <v>76.957405350000002</v>
       </c>
-      <c r="S13">
+      <c r="V13">
         <v>28.639055070000001</v>
       </c>
-      <c r="T13">
+      <c r="W13">
         <v>77.300868710000003</v>
       </c>
-      <c r="V13">
+      <c r="Y13">
         <v>28.658028730000002</v>
       </c>
-      <c r="W13">
+      <c r="Z13">
         <v>77.066840189999994</v>
       </c>
-      <c r="Y13">
+      <c r="AB13">
         <v>28.808591150000002</v>
       </c>
-      <c r="Z13">
+      <c r="AC13">
         <v>77.123973539999994</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>28.432147069999999</v>
       </c>
       <c r="B14">
         <v>77.201294410000003</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>28.527414400000001</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>77.306385419999998</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>28.608866630000001</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>77.047911439999993</v>
       </c>
-      <c r="J14">
-        <v>28.663510980000002</v>
-      </c>
-      <c r="K14">
-        <v>77.206680399999996</v>
+      <c r="L14">
+        <v>28.65178624</v>
       </c>
       <c r="M14">
+        <v>77.209671990000004</v>
+      </c>
+      <c r="P14">
         <v>28.671268699999999</v>
       </c>
-      <c r="N14">
+      <c r="Q14">
         <v>77.259747669999996</v>
       </c>
-      <c r="P14">
+      <c r="S14">
         <v>28.696539569999999</v>
       </c>
-      <c r="Q14">
+      <c r="T14">
         <v>77.123459760000003</v>
       </c>
-      <c r="S14">
+      <c r="V14">
         <v>28.61426342</v>
       </c>
-      <c r="T14">
+      <c r="W14">
         <v>77.340735980000005</v>
       </c>
-      <c r="V14">
+      <c r="Y14">
         <v>28.66689392</v>
       </c>
-      <c r="W14">
+      <c r="Z14">
         <v>77.111237259999996</v>
       </c>
-      <c r="Y14">
+      <c r="AB14">
         <v>28.875098019999999</v>
       </c>
-      <c r="Z14">
+      <c r="AC14">
         <v>77.092180099999993</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>28.434927819999999</v>
       </c>
       <c r="B15">
         <v>77.212269120000002</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>28.549453530000001</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>77.245810469999995</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>28.556278840000001</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>76.986679240000001</v>
       </c>
-      <c r="J15">
-        <v>28.742981610000001</v>
-      </c>
-      <c r="K15">
-        <v>77.18999547</v>
+      <c r="L15">
+        <v>28.786307369999999</v>
       </c>
       <c r="M15">
+        <v>77.221249270000001</v>
+      </c>
+      <c r="P15">
         <v>28.684869580000001</v>
       </c>
-      <c r="N15">
+      <c r="Q15">
         <v>77.240909709999997</v>
       </c>
-      <c r="P15">
+      <c r="S15">
         <v>28.78356921</v>
       </c>
-      <c r="Q15">
+      <c r="T15">
         <v>77.017871580000005</v>
       </c>
-      <c r="S15">
+      <c r="V15">
         <v>28.583322639999999</v>
       </c>
-      <c r="T15">
+      <c r="W15">
         <v>77.323017849999999</v>
       </c>
-      <c r="V15">
+      <c r="Y15">
         <v>28.695195859999998</v>
       </c>
-      <c r="W15">
+      <c r="Z15">
         <v>77.028097020000004</v>
       </c>
-      <c r="Y15">
+      <c r="AB15">
         <v>28.825109770000001</v>
       </c>
-      <c r="Z15">
+      <c r="AC15">
         <v>77.027153249999998</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>28.474543059999998</v>
       </c>
       <c r="B16">
         <v>77.199939689999994</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>28.581606669999999</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>77.234651959999994</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>28.54549935</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>77.085614739999997</v>
       </c>
-      <c r="J16">
-        <v>28.742925419999999</v>
-      </c>
-      <c r="K16">
-        <v>77.223011319999998</v>
+      <c r="L16">
+        <v>28.712139950000001</v>
       </c>
       <c r="M16">
+        <v>77.257992360000003</v>
+      </c>
+      <c r="P16">
         <v>28.674387400000001</v>
       </c>
-      <c r="N16">
+      <c r="Q16">
         <v>77.260414319999995</v>
       </c>
-      <c r="P16">
+      <c r="S16">
         <v>28.805497729999999</v>
       </c>
-      <c r="Q16">
+      <c r="T16">
         <v>77.144035810000005</v>
       </c>
-      <c r="S16">
+      <c r="V16">
         <v>28.64451875</v>
       </c>
-      <c r="T16">
+      <c r="W16">
         <v>77.307153540000002</v>
       </c>
-      <c r="V16">
+      <c r="Y16">
         <v>28.63229475</v>
       </c>
-      <c r="W16">
+      <c r="Z16">
         <v>77.090356099999994</v>
       </c>
-      <c r="Y16">
+      <c r="AB16">
         <v>28.754292169999999</v>
       </c>
-      <c r="Z16">
+      <c r="AC16">
         <v>77.049623319999995</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>28.4674877</v>
       </c>
       <c r="B17">
         <v>77.228726159999994</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>28.566362210000001</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>77.234789739999997</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>28.666634349999999</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>77.052085289999994</v>
       </c>
-      <c r="J17">
-        <v>28.757157299999999</v>
-      </c>
-      <c r="K17">
-        <v>77.220952280000006</v>
+      <c r="L17">
+        <v>28.734736680000001</v>
       </c>
       <c r="M17">
+        <v>77.186207980000006</v>
+      </c>
+      <c r="P17">
         <v>28.70600786</v>
       </c>
-      <c r="N17">
+      <c r="Q17">
         <v>77.292567689999998</v>
       </c>
-      <c r="P17">
+      <c r="S17">
         <v>28.72662819</v>
       </c>
-      <c r="Q17">
+      <c r="T17">
         <v>77.143132179999995</v>
       </c>
-      <c r="S17">
+      <c r="V17">
         <v>28.646729199999999</v>
       </c>
-      <c r="T17">
+      <c r="W17">
         <v>77.281966190000006</v>
       </c>
-      <c r="V17">
+      <c r="Y17">
         <v>28.674710340000001</v>
       </c>
-      <c r="W17">
+      <c r="Z17">
         <v>76.973045540000001</v>
       </c>
-      <c r="Y17">
+      <c r="AB17">
         <v>28.83968535</v>
       </c>
-      <c r="Z17">
+      <c r="AC17">
         <v>77.158139700000007</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>28.434903160000001</v>
       </c>
       <c r="B18">
         <v>77.204169930000006</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>28.55893635</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>77.221895399999994</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>28.55783431</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>76.880745619999999</v>
       </c>
-      <c r="J18">
-        <v>28.72647156</v>
-      </c>
-      <c r="K18">
-        <v>77.182616780000004</v>
+      <c r="L18">
+        <v>28.76890092</v>
       </c>
       <c r="M18">
+        <v>77.186230739999999</v>
+      </c>
+      <c r="P18">
         <v>28.67334859</v>
       </c>
-      <c r="N18">
+      <c r="Q18">
         <v>77.257027289999996</v>
       </c>
-      <c r="P18">
+      <c r="S18">
         <v>28.688131240000001</v>
       </c>
-      <c r="Q18">
+      <c r="T18">
         <v>76.958373620000003</v>
       </c>
-      <c r="S18">
+      <c r="V18">
         <v>28.58260284</v>
       </c>
-      <c r="T18">
+      <c r="W18">
         <v>77.267900819999994</v>
       </c>
-      <c r="V18">
+      <c r="Y18">
         <v>28.673276520000002</v>
       </c>
-      <c r="W18">
+      <c r="Z18">
         <v>77.036463549999993</v>
       </c>
-      <c r="Y18">
+      <c r="AB18">
         <v>28.8438515</v>
       </c>
-      <c r="Z18">
+      <c r="AC18">
         <v>77.152172770000007</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>28.50980663</v>
       </c>
       <c r="B19">
         <v>77.120689600000006</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>28.489922279999998</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>77.230048859999997</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>28.562823699999999</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>76.856451149999998</v>
       </c>
-      <c r="J19">
-        <v>28.70136677</v>
-      </c>
-      <c r="K19">
-        <v>77.207824329999994</v>
+      <c r="L19">
+        <v>28.76564106</v>
       </c>
       <c r="M19">
+        <v>77.254871280000003</v>
+      </c>
+      <c r="P19">
         <v>28.690227889999999</v>
       </c>
-      <c r="N19">
+      <c r="Q19">
         <v>77.272561300000007</v>
       </c>
-      <c r="P19">
+      <c r="S19">
         <v>28.79278918</v>
       </c>
-      <c r="Q19">
+      <c r="T19">
         <v>77.022685609999996</v>
       </c>
-      <c r="S19">
+      <c r="V19">
         <v>28.576427039999999</v>
       </c>
-      <c r="T19">
+      <c r="W19">
         <v>77.28524333</v>
       </c>
-      <c r="V19">
+      <c r="Y19">
         <v>28.672686639999998</v>
       </c>
-      <c r="W19">
+      <c r="Z19">
         <v>77.060986819999997</v>
       </c>
-      <c r="Y19">
+      <c r="AB19">
         <v>28.865228559999998</v>
       </c>
-      <c r="Z19">
+      <c r="AC19">
         <v>77.096432719999996</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>28.53055805</v>
       </c>
       <c r="B20">
         <v>77.216104110000003</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>28.54841944</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>77.26034645</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>28.57125761</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>76.949675310000003</v>
       </c>
-      <c r="J20">
-        <v>28.693073569999999</v>
-      </c>
-      <c r="K20">
-        <v>77.236434380000006</v>
+      <c r="L20">
+        <v>28.783076950000002</v>
       </c>
       <c r="M20">
+        <v>77.233122519999995</v>
+      </c>
+      <c r="P20">
         <v>28.69616705</v>
       </c>
-      <c r="N20">
+      <c r="Q20">
         <v>77.255675030000006</v>
       </c>
-      <c r="P20">
+      <c r="S20">
         <v>28.744960809999998</v>
       </c>
-      <c r="Q20">
+      <c r="T20">
         <v>77.063765380000007</v>
       </c>
-      <c r="S20">
+      <c r="V20">
         <v>28.63521059</v>
       </c>
-      <c r="T20">
+      <c r="W20">
         <v>77.293626889999999</v>
       </c>
-      <c r="V20">
+      <c r="Y20">
         <v>28.637968959999998</v>
       </c>
-      <c r="W20">
+      <c r="Z20">
         <v>77.078894160000004</v>
       </c>
-      <c r="Y20">
+      <c r="AB20">
         <v>28.851504030000001</v>
       </c>
-      <c r="Z20">
+      <c r="AC20">
         <v>77.019884610000005</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>28.5239391</v>
       </c>
       <c r="B21">
         <v>77.159434050000002</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>28.516541400000001</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>77.210389430000006</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>28.551443859999999</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>76.953806540000002</v>
       </c>
-      <c r="J21">
-        <v>28.738647069999999</v>
-      </c>
-      <c r="K21">
-        <v>77.219809679999997</v>
+      <c r="L21">
+        <v>28.686837879999999</v>
       </c>
       <c r="M21">
+        <v>77.257655159999999</v>
+      </c>
+      <c r="P21">
         <v>28.673493870000001</v>
       </c>
-      <c r="N21">
+      <c r="Q21">
         <v>77.262669610000003</v>
       </c>
-      <c r="P21">
+      <c r="S21">
         <v>28.81039109</v>
       </c>
-      <c r="Q21">
+      <c r="T21">
         <v>77.132037330000003</v>
       </c>
-      <c r="S21">
+      <c r="V21">
         <v>28.587260929999999</v>
       </c>
-      <c r="T21">
+      <c r="W21">
         <v>77.293289110000003</v>
       </c>
-      <c r="V21">
+      <c r="Y21">
         <v>28.649180309999998</v>
       </c>
-      <c r="W21">
+      <c r="Z21">
         <v>77.169993640000001</v>
       </c>
-      <c r="Y21">
+      <c r="AB21">
         <v>28.82271961</v>
       </c>
-      <c r="Z21">
+      <c r="AC21">
         <v>77.143145020000006</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>28.436657520000001</v>
       </c>
       <c r="B22">
         <v>77.160950830000004</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>28.606736529999999</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>77.22365594</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>28.532219019999999</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>76.991176100000004</v>
       </c>
-      <c r="J22">
-        <v>28.646010400000002</v>
-      </c>
-      <c r="K22">
-        <v>77.183799489999998</v>
+      <c r="L22">
+        <v>28.64792572</v>
       </c>
       <c r="M22">
+        <v>77.213388679999994</v>
+      </c>
+      <c r="P22">
         <v>28.690213180000001</v>
       </c>
-      <c r="N22">
+      <c r="Q22">
         <v>77.28278177</v>
       </c>
-      <c r="P22">
+      <c r="S22">
         <v>28.73255794</v>
       </c>
-      <c r="Q22">
+      <c r="T22">
         <v>77.084544620000003</v>
       </c>
-      <c r="S22">
+      <c r="V22">
         <v>28.660891100000001</v>
       </c>
-      <c r="T22">
+      <c r="W22">
         <v>77.320480099999997</v>
       </c>
-      <c r="V22">
+      <c r="Y22">
         <v>28.65045697</v>
       </c>
-      <c r="W22">
+      <c r="Z22">
         <v>77.139992620000001</v>
       </c>
-      <c r="Y22">
+      <c r="AB22">
         <v>28.84401411</v>
       </c>
-      <c r="Z22">
+      <c r="AC22">
         <v>77.091987689999996</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>28.533467330000001</v>
       </c>
       <c r="B23">
         <v>77.239981130000004</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>28.599595539999999</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>77.207633049999998</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>28.615289860000001</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>77.023187440000001</v>
       </c>
-      <c r="J23">
-        <v>28.646475840000001</v>
-      </c>
-      <c r="K23">
-        <v>77.186996480000005</v>
+      <c r="L23">
+        <v>28.660961440000001</v>
       </c>
       <c r="M23">
+        <v>77.223089160000001</v>
+      </c>
+      <c r="P23">
         <v>28.702831020000001</v>
       </c>
-      <c r="N23">
+      <c r="Q23">
         <v>77.234230429999997</v>
       </c>
-      <c r="P23">
+      <c r="S23">
         <v>28.794503850000002</v>
       </c>
-      <c r="Q23">
+      <c r="T23">
         <v>77.030863920000002</v>
       </c>
-      <c r="S23">
+      <c r="V23">
         <v>28.627308419999999</v>
       </c>
-      <c r="T23">
+      <c r="W23">
         <v>77.319672049999994</v>
       </c>
-      <c r="V23">
+      <c r="Y23">
         <v>28.667059399999999</v>
       </c>
-      <c r="W23">
+      <c r="Z23">
         <v>77.125047440000003</v>
       </c>
-      <c r="Y23">
+      <c r="AB23">
         <v>28.876129819999999</v>
       </c>
-      <c r="Z23">
+      <c r="AC23">
         <v>77.063037789999996</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>28.49344417</v>
       </c>
       <c r="B24">
         <v>77.144248770000004</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>28.5452306</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>77.215543420000003</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>28.569591769999999</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>77.076932499999998</v>
       </c>
-      <c r="J24">
-        <v>28.715826010000001</v>
-      </c>
-      <c r="K24">
-        <v>77.242340100000007</v>
+      <c r="L24">
+        <v>28.634027530000001</v>
       </c>
       <c r="M24">
+        <v>77.208490019999999</v>
+      </c>
+      <c r="P24">
         <v>28.675467170000001</v>
       </c>
-      <c r="N24">
+      <c r="Q24">
         <v>77.256912470000003</v>
       </c>
-      <c r="P24">
+      <c r="S24">
         <v>28.69753944</v>
       </c>
-      <c r="Q24">
+      <c r="T24">
         <v>77.087060289999997</v>
       </c>
-      <c r="S24">
+      <c r="V24">
         <v>28.651601450000001</v>
       </c>
-      <c r="T24">
+      <c r="W24">
         <v>77.299546410000005</v>
       </c>
-      <c r="V24">
+      <c r="Y24">
         <v>28.649490010000001</v>
       </c>
-      <c r="W24">
+      <c r="Z24">
         <v>76.981903720000005</v>
       </c>
-      <c r="Y24">
+      <c r="AB24">
         <v>28.785084609999998</v>
       </c>
-      <c r="Z24">
+      <c r="AC24">
         <v>77.03589135</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>28.45087294</v>
       </c>
       <c r="B25">
         <v>77.151105779999995</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>28.527801220000001</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>77.278636340000006</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>28.58415561</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>76.867898109999999</v>
       </c>
-      <c r="J25">
-        <v>28.727851879999999</v>
-      </c>
-      <c r="K25">
-        <v>77.203834610000001</v>
+      <c r="L25">
+        <v>28.695528190000001</v>
       </c>
       <c r="M25">
+        <v>77.186813240000006</v>
+      </c>
+      <c r="P25">
         <v>28.68403902</v>
       </c>
-      <c r="N25">
+      <c r="Q25">
         <v>77.23567912</v>
       </c>
-      <c r="P25">
+      <c r="S25">
         <v>28.742865040000002</v>
       </c>
-      <c r="Q25">
+      <c r="T25">
         <v>77.139345489999997</v>
       </c>
-      <c r="S25">
+      <c r="V25">
         <v>28.618889159999998</v>
       </c>
-      <c r="T25">
+      <c r="W25">
         <v>77.297070270000006</v>
       </c>
-      <c r="V25">
+      <c r="Y25">
         <v>28.64013512</v>
       </c>
-      <c r="W25">
+      <c r="Z25">
         <v>77.011002759999997</v>
       </c>
-      <c r="Y25">
+      <c r="AB25">
         <v>28.73247602</v>
       </c>
-      <c r="Z25">
+      <c r="AC25">
         <v>77.005506260000004</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>28.448948260000002</v>
       </c>
       <c r="B26">
         <v>77.210712700000002</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>28.56750924</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>77.315523519999999</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>28.56677419</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>77.099007209999996</v>
       </c>
-      <c r="J26">
-        <v>28.652431069999999</v>
-      </c>
-      <c r="K26">
-        <v>77.208993079999999</v>
+      <c r="L26">
+        <v>28.763967709999999</v>
       </c>
       <c r="M26">
+        <v>77.200429369999995</v>
+      </c>
+      <c r="P26">
         <v>28.67904618</v>
       </c>
-      <c r="N26">
+      <c r="Q26">
         <v>77.285599649999995</v>
       </c>
-      <c r="P26">
+      <c r="S26">
         <v>28.76370283</v>
       </c>
-      <c r="Q26">
+      <c r="T26">
         <v>76.961214569999996</v>
       </c>
-      <c r="S26">
+      <c r="V26">
         <v>28.62910011</v>
       </c>
-      <c r="T26">
+      <c r="W26">
         <v>77.275943260000005</v>
       </c>
-      <c r="V26">
+      <c r="Y26">
         <v>28.687154570000001</v>
       </c>
-      <c r="W26">
+      <c r="Z26">
         <v>76.980361040000005</v>
       </c>
-      <c r="Y26">
+      <c r="AB26">
         <v>28.87318982</v>
       </c>
-      <c r="Z26">
+      <c r="AC26">
         <v>77.020255680000005</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>28.555761239999999</v>
       </c>
       <c r="B27">
         <v>77.170820500000005</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>28.548455820000001</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>77.344746209999997</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>28.61592349</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>77.054717510000003</v>
       </c>
-      <c r="J27">
-        <v>28.645223919999999</v>
-      </c>
-      <c r="K27">
-        <v>77.224206620000004</v>
+      <c r="L27">
+        <v>28.769174190000001</v>
       </c>
       <c r="M27">
+        <v>77.203045169999996</v>
+      </c>
+      <c r="P27">
         <v>28.6662845</v>
       </c>
-      <c r="N27">
+      <c r="Q27">
         <v>77.241374019999995</v>
       </c>
-      <c r="P27">
+      <c r="S27">
         <v>28.725285750000001</v>
       </c>
-      <c r="Q27">
+      <c r="T27">
         <v>77.143478909999999</v>
       </c>
-      <c r="S27">
+      <c r="V27">
         <v>28.59860325</v>
       </c>
-      <c r="T27">
+      <c r="W27">
         <v>77.315875980000001</v>
       </c>
-      <c r="V27">
+      <c r="Y27">
         <v>28.652568639999998</v>
       </c>
-      <c r="W27">
+      <c r="Z27">
         <v>77.125288819999994</v>
       </c>
-      <c r="Y27">
+      <c r="AB27">
         <v>28.804750240000001</v>
       </c>
-      <c r="Z27">
+      <c r="AC27">
         <v>77.156862529999998</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28.512142440000002</v>
       </c>
       <c r="B28">
         <v>77.137032820000002</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>28.611111619999999</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>77.321582079999999</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>28.634353239999999</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>77.034849159999993</v>
       </c>
-      <c r="J28">
-        <v>28.70994971</v>
-      </c>
-      <c r="K28">
-        <v>77.180550699999998</v>
+      <c r="L28">
+        <v>28.701106469999999</v>
       </c>
       <c r="M28">
+        <v>77.231346880000004</v>
+      </c>
+      <c r="P28">
         <v>28.70018649</v>
       </c>
-      <c r="N28">
+      <c r="Q28">
         <v>77.257561199999998</v>
       </c>
-      <c r="P28">
+      <c r="S28">
         <v>28.819969709999999</v>
       </c>
-      <c r="Q28">
+      <c r="T28">
         <v>76.985599239999999</v>
       </c>
-      <c r="S28">
+      <c r="V28">
         <v>28.577948620000001</v>
       </c>
-      <c r="T28">
+      <c r="W28">
         <v>77.288425720000006</v>
       </c>
-      <c r="V28">
+      <c r="Y28">
         <v>28.688479990000001</v>
       </c>
-      <c r="W28">
+      <c r="Z28">
         <v>77.061798409999994</v>
       </c>
-      <c r="Y28">
+      <c r="AB28">
         <v>28.76893626</v>
       </c>
-      <c r="Z28">
+      <c r="AC28">
         <v>77.197649100000007</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28.531992379999998</v>
       </c>
       <c r="B29">
         <v>77.182386579999999</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <v>28.544299389999999</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>77.222515250000001</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>28.53428826</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>76.946419050000003</v>
       </c>
-      <c r="J29">
-        <v>28.734043530000001</v>
-      </c>
-      <c r="K29">
-        <v>77.238390870000003</v>
+      <c r="L29">
+        <v>28.677032189999998</v>
       </c>
       <c r="M29">
+        <v>77.235078720000004</v>
+      </c>
+      <c r="P29">
         <v>28.689090419999999</v>
       </c>
-      <c r="N29">
+      <c r="Q29">
         <v>77.263526400000003</v>
       </c>
-      <c r="P29">
+      <c r="S29">
         <v>28.71928063</v>
       </c>
-      <c r="Q29">
+      <c r="T29">
         <v>77.018484729999997</v>
       </c>
-      <c r="S29">
+      <c r="V29">
         <v>28.60262273</v>
       </c>
-      <c r="T29">
+      <c r="W29">
         <v>77.337350979999997</v>
       </c>
-      <c r="V29">
+      <c r="Y29">
         <v>28.631365219999999</v>
       </c>
-      <c r="W29">
+      <c r="Z29">
         <v>77.075058119999994</v>
       </c>
-      <c r="Y29">
+      <c r="AB29">
         <v>28.760963230000002</v>
       </c>
-      <c r="Z29">
+      <c r="AC29">
         <v>77.024069879999999</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28.522345170000001</v>
       </c>
       <c r="B30">
         <v>77.231479699999994</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>28.566309539999999</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>77.282933970000002</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>28.59839217</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>76.898117810000002</v>
       </c>
-      <c r="J30">
-        <v>28.68176235</v>
-      </c>
-      <c r="K30">
-        <v>77.215217920000001</v>
+      <c r="L30">
+        <v>28.701020029999999</v>
       </c>
       <c r="M30">
+        <v>77.223486050000005</v>
+      </c>
+      <c r="P30">
         <v>28.66923895</v>
       </c>
-      <c r="N30">
+      <c r="Q30">
         <v>77.254197529999999</v>
       </c>
-      <c r="P30">
+      <c r="S30">
         <v>28.692093880000002</v>
       </c>
-      <c r="Q30">
+      <c r="T30">
         <v>76.964233269999994</v>
       </c>
-      <c r="S30">
+      <c r="V30">
         <v>28.60228768</v>
       </c>
-      <c r="T30">
+      <c r="W30">
         <v>77.299242079999999</v>
       </c>
-      <c r="V30">
+      <c r="Y30">
         <v>28.679716819999999</v>
       </c>
-      <c r="W30">
+      <c r="Z30">
         <v>77.040225500000005</v>
       </c>
-      <c r="Y30">
+      <c r="AB30">
         <v>28.832147689999999</v>
       </c>
-      <c r="Z30">
+      <c r="AC30">
         <v>77.023497689999999</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28.420732090000001</v>
       </c>
       <c r="B31">
         <v>77.168123370000004</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <v>28.582653149999999</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>77.304935259999993</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>28.548998439999998</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>77.001930779999995</v>
       </c>
-      <c r="J31">
-        <v>28.639297200000001</v>
-      </c>
-      <c r="K31">
-        <v>77.26069665</v>
+      <c r="L31">
+        <v>28.702851079999999</v>
       </c>
       <c r="M31">
+        <v>77.21633061</v>
+      </c>
+      <c r="P31">
         <v>28.671340749999999</v>
       </c>
-      <c r="N31">
+      <c r="Q31">
         <v>77.245485700000003</v>
       </c>
-      <c r="P31">
+      <c r="S31">
         <v>28.691487339999998</v>
       </c>
-      <c r="Q31">
+      <c r="T31">
         <v>77.121046620000001</v>
       </c>
-      <c r="S31">
+      <c r="V31">
         <v>28.66392218</v>
       </c>
-      <c r="T31">
+      <c r="W31">
         <v>77.288521540000005</v>
       </c>
-      <c r="V31">
+      <c r="Y31">
         <v>28.675327240000001</v>
       </c>
-      <c r="W31">
+      <c r="Z31">
         <v>77.095591850000005</v>
       </c>
-      <c r="Y31">
+      <c r="AB31">
         <v>28.84938987</v>
       </c>
-      <c r="Z31">
+      <c r="AC31">
         <v>76.981930750000004</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>28.532467910000001</v>
       </c>
       <c r="B32">
         <v>77.185335420000001</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <v>28.54386358</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>77.224624109999993</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>28.610319759999999</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>76.897603079999996</v>
       </c>
-      <c r="J32">
-        <v>28.77098058</v>
-      </c>
-      <c r="K32">
-        <v>77.189010150000001</v>
+      <c r="L32">
+        <v>28.76401925</v>
       </c>
       <c r="M32">
+        <v>77.249029129999997</v>
+      </c>
+      <c r="P32">
         <v>28.68065648</v>
       </c>
-      <c r="N32">
+      <c r="Q32">
         <v>77.248144670000002</v>
       </c>
-      <c r="P32">
+      <c r="S32">
         <v>28.79672489</v>
       </c>
-      <c r="Q32">
+      <c r="T32">
         <v>77.015044939999996</v>
       </c>
-      <c r="S32">
+      <c r="V32">
         <v>28.581309709999999</v>
       </c>
-      <c r="T32">
+      <c r="W32">
         <v>77.259296169999999</v>
       </c>
-      <c r="V32">
+      <c r="Y32">
         <v>28.652521050000001</v>
       </c>
-      <c r="W32">
+      <c r="Z32">
         <v>77.048826030000001</v>
       </c>
-      <c r="Y32">
+      <c r="AB32">
         <v>28.849489590000001</v>
       </c>
-      <c r="Z32">
+      <c r="AC32">
         <v>77.032557839999996</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>28.498851500000001</v>
       </c>
       <c r="B33">
         <v>77.16249449</v>
       </c>
-      <c r="D33">
+      <c r="F33">
         <v>28.524533699999999</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>77.254047830000005</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>28.65541593</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>77.055381069999996</v>
       </c>
-      <c r="J33">
-        <v>28.745725780000001</v>
-      </c>
-      <c r="K33">
-        <v>77.173428310000006</v>
+      <c r="L33">
+        <v>28.623313469999999</v>
       </c>
       <c r="M33">
+        <v>77.245283000000001</v>
+      </c>
+      <c r="P33">
         <v>28.684478169999998</v>
       </c>
-      <c r="N33">
+      <c r="Q33">
         <v>77.269292489999998</v>
       </c>
-      <c r="P33">
+      <c r="S33">
         <v>28.71614615</v>
       </c>
-      <c r="Q33">
+      <c r="T33">
         <v>77.125704909999996</v>
       </c>
-      <c r="S33">
+      <c r="V33">
         <v>28.604332930000002</v>
       </c>
-      <c r="T33">
+      <c r="W33">
         <v>77.277719289999993</v>
       </c>
-      <c r="V33">
+      <c r="Y33">
         <v>28.638371660000001</v>
       </c>
-      <c r="W33">
+      <c r="Z33">
         <v>77.001748050000003</v>
       </c>
-      <c r="Y33">
+      <c r="AB33">
         <v>28.78975273</v>
       </c>
-      <c r="Z33">
+      <c r="AC33">
         <v>77.178553399999998</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>28.419211929999999</v>
       </c>
       <c r="B34">
         <v>77.186575450000007</v>
       </c>
-      <c r="D34">
+      <c r="F34">
         <v>28.557105320000002</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>77.272175009999998</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>28.587469380000002</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>76.965066350000001</v>
       </c>
-      <c r="J34">
-        <v>28.74166821</v>
-      </c>
-      <c r="K34">
-        <v>77.261257549999996</v>
+      <c r="L34">
+        <v>28.630858190000001</v>
       </c>
       <c r="M34">
+        <v>77.247022319999999</v>
+      </c>
+      <c r="P34">
         <v>28.669290190000002</v>
       </c>
-      <c r="N34">
+      <c r="Q34">
         <v>77.240575590000006</v>
       </c>
-      <c r="P34">
+      <c r="S34">
         <v>28.768424920000001</v>
       </c>
-      <c r="Q34">
+      <c r="T34">
         <v>77.073144780000007</v>
       </c>
-      <c r="S34">
+      <c r="V34">
         <v>28.583862830000001</v>
       </c>
-      <c r="T34">
+      <c r="W34">
         <v>77.318904829999994</v>
       </c>
-      <c r="V34">
+      <c r="Y34">
         <v>28.644930339999998</v>
       </c>
-      <c r="W34">
+      <c r="Z34">
         <v>77.155971059999999</v>
       </c>
-      <c r="Y34">
+      <c r="AB34">
         <v>28.81874187</v>
       </c>
-      <c r="Z34">
+      <c r="AC34">
         <v>77.151212299999997</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>28.480818159999998</v>
       </c>
       <c r="B35">
         <v>77.217597010000006</v>
       </c>
-      <c r="D35">
+      <c r="F35">
         <v>28.487383040000001</v>
       </c>
-      <c r="E35">
+      <c r="G35">
         <v>77.225036889999998</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>28.52919163</v>
       </c>
-      <c r="H35">
+      <c r="J35">
         <v>76.938257730000004</v>
       </c>
-      <c r="J35">
-        <v>28.688402849999999</v>
-      </c>
-      <c r="K35">
-        <v>77.170736570000003</v>
+      <c r="L35">
+        <v>28.626443819999999</v>
       </c>
       <c r="M35">
+        <v>77.214360360000001</v>
+      </c>
+      <c r="P35">
         <v>28.67068815</v>
       </c>
-      <c r="N35">
+      <c r="Q35">
         <v>77.276919629999995</v>
       </c>
-      <c r="P35">
+      <c r="S35">
         <v>28.70111137</v>
       </c>
-      <c r="Q35">
+      <c r="T35">
         <v>76.983044629999995</v>
       </c>
-      <c r="S35">
+      <c r="V35">
         <v>28.635966660000001</v>
       </c>
-      <c r="T35">
+      <c r="W35">
         <v>77.295355189999995</v>
       </c>
-      <c r="V35">
+      <c r="Y35">
         <v>28.67957479</v>
       </c>
-      <c r="W35">
+      <c r="Z35">
         <v>77.067237890000001</v>
       </c>
-      <c r="Y35">
+      <c r="AB35">
         <v>28.799087759999999</v>
       </c>
-      <c r="Z35">
+      <c r="AC35">
         <v>77.154781400000005</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>28.558686219999998</v>
       </c>
       <c r="B36">
         <v>77.218607090000006</v>
       </c>
-      <c r="D36">
+      <c r="F36">
         <v>28.488736100000001</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>77.298235329999997</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>28.610911430000002</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>76.971244799999994</v>
       </c>
-      <c r="J36">
-        <v>28.667024059999999</v>
-      </c>
-      <c r="K36">
-        <v>77.24449267</v>
+      <c r="L36">
+        <v>28.68908192</v>
       </c>
       <c r="M36">
+        <v>77.200383090000003</v>
+      </c>
+      <c r="P36">
         <v>28.695703739999999</v>
       </c>
-      <c r="N36">
+      <c r="Q36">
         <v>77.269893150000001</v>
       </c>
-      <c r="P36">
+      <c r="S36">
         <v>28.755238110000001</v>
       </c>
-      <c r="Q36">
+      <c r="T36">
         <v>76.986699020000003</v>
       </c>
-      <c r="S36">
+      <c r="V36">
         <v>28.593053829999999</v>
       </c>
-      <c r="T36">
+      <c r="W36">
         <v>77.281598889999998</v>
       </c>
-      <c r="V36">
+      <c r="Y36">
         <v>28.692114920000002</v>
       </c>
-      <c r="W36">
+      <c r="Z36">
         <v>77.065522000000001</v>
       </c>
-      <c r="Y36">
+      <c r="AB36">
         <v>28.747729029999999</v>
       </c>
-      <c r="Z36">
+      <c r="AC36">
         <v>77.166911670000005</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>28.441320300000001</v>
       </c>
       <c r="B37">
         <v>77.172783150000001</v>
       </c>
-      <c r="D37">
+      <c r="F37">
         <v>28.542608520000002</v>
       </c>
-      <c r="E37">
+      <c r="G37">
         <v>77.242054749999994</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>28.586205580000001</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>76.864123989999996</v>
       </c>
-      <c r="J37">
-        <v>28.658398689999999</v>
-      </c>
-      <c r="K37">
-        <v>77.23611914</v>
+      <c r="L37">
+        <v>28.747409940000001</v>
       </c>
       <c r="M37">
+        <v>77.189630589999993</v>
+      </c>
+      <c r="P37">
         <v>28.66787416</v>
       </c>
-      <c r="N37">
+      <c r="Q37">
         <v>77.266410440000001</v>
       </c>
-      <c r="P37">
+      <c r="S37">
         <v>28.81221815</v>
       </c>
-      <c r="Q37">
+      <c r="T37">
         <v>77.049458060000006</v>
       </c>
-      <c r="S37">
+      <c r="V37">
         <v>28.621191469999999</v>
       </c>
-      <c r="T37">
+      <c r="W37">
         <v>77.328499239999999</v>
       </c>
-      <c r="V37">
+      <c r="Y37">
         <v>28.631927950000001</v>
       </c>
-      <c r="W37">
+      <c r="Z37">
         <v>77.119435010000004</v>
       </c>
-      <c r="Y37">
+      <c r="AB37">
         <v>28.755858150000002</v>
       </c>
-      <c r="Z37">
+      <c r="AC37">
         <v>77.017046550000003</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>28.459348599999998</v>
       </c>
       <c r="B38">
         <v>77.184250039999995</v>
       </c>
-      <c r="D38">
+      <c r="F38">
         <v>28.49965628</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>77.204575489999996</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>28.552816140000001</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>76.935772900000003</v>
       </c>
-      <c r="J38">
-        <v>28.63878996</v>
-      </c>
-      <c r="K38">
-        <v>77.234728700000005</v>
+      <c r="L38">
+        <v>28.658277030000001</v>
       </c>
       <c r="M38">
+        <v>77.230273260000004</v>
+      </c>
+      <c r="P38">
         <v>28.67658179</v>
       </c>
-      <c r="N38">
+      <c r="Q38">
         <v>77.254697780000001</v>
       </c>
-      <c r="P38">
+      <c r="S38">
         <v>28.740884380000001</v>
       </c>
-      <c r="Q38">
+      <c r="T38">
         <v>76.997458640000005</v>
       </c>
-      <c r="S38">
+      <c r="V38">
         <v>28.635996070000001</v>
       </c>
-      <c r="T38">
+      <c r="W38">
         <v>77.305112219999998</v>
       </c>
-      <c r="V38">
+      <c r="Y38">
         <v>28.680302900000001</v>
       </c>
-      <c r="W38">
+      <c r="Z38">
         <v>77.038389230000007</v>
       </c>
-      <c r="Y38">
+      <c r="AB38">
         <v>28.798800830000001</v>
       </c>
-      <c r="Z38">
+      <c r="AC38">
         <v>77.163005029999994</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>28.405414260000001</v>
       </c>
       <c r="B39">
         <v>77.236562059999997</v>
       </c>
-      <c r="D39">
+      <c r="F39">
         <v>28.605120849999999</v>
       </c>
-      <c r="E39">
+      <c r="G39">
         <v>77.302906410000006</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>28.572986839999999</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>77.039737939999995</v>
       </c>
-      <c r="J39">
-        <v>28.78259795</v>
-      </c>
-      <c r="K39">
-        <v>77.250086920000001</v>
+      <c r="L39">
+        <v>28.684379409999998</v>
       </c>
       <c r="M39">
+        <v>77.181205860000006</v>
+      </c>
+      <c r="P39">
         <v>28.691644740000001</v>
       </c>
-      <c r="N39">
+      <c r="Q39">
         <v>77.238420579999996</v>
       </c>
-      <c r="P39">
+      <c r="S39">
         <v>28.702438170000001</v>
       </c>
-      <c r="Q39">
+      <c r="T39">
         <v>77.108631389999999</v>
       </c>
-      <c r="S39">
+      <c r="V39">
         <v>28.623758800000001</v>
       </c>
-      <c r="T39">
+      <c r="W39">
         <v>77.257406669999995</v>
       </c>
-      <c r="V39">
+      <c r="Y39">
         <v>28.687924580000001</v>
       </c>
-      <c r="W39">
+      <c r="Z39">
         <v>77.060159400000003</v>
       </c>
-      <c r="Y39">
+      <c r="AB39">
         <v>28.85384333</v>
       </c>
-      <c r="Z39">
+      <c r="AC39">
         <v>77.057264219999993</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>28.409537329999999</v>
       </c>
       <c r="B40">
         <v>77.196640009999996</v>
       </c>
-      <c r="D40">
+      <c r="F40">
         <v>28.575411970000001</v>
       </c>
-      <c r="E40">
+      <c r="G40">
         <v>77.283796350000003</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>28.54591323</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>76.851512310000004</v>
       </c>
-      <c r="J40">
-        <v>28.765365689999999</v>
-      </c>
-      <c r="K40">
-        <v>77.248702010000002</v>
+      <c r="L40">
+        <v>28.649412760000001</v>
       </c>
       <c r="M40">
+        <v>77.242024470000004</v>
+      </c>
+      <c r="P40">
         <v>28.690419769999998</v>
       </c>
-      <c r="N40">
+      <c r="Q40">
         <v>77.294868059999999</v>
       </c>
-      <c r="P40">
+      <c r="S40">
         <v>28.71866219</v>
       </c>
-      <c r="Q40">
+      <c r="T40">
         <v>77.047268360000004</v>
       </c>
-      <c r="S40">
+      <c r="V40">
         <v>28.614713590000001</v>
       </c>
-      <c r="T40">
+      <c r="W40">
         <v>77.258762930000003</v>
       </c>
-      <c r="V40">
+      <c r="Y40">
         <v>28.654712409999998</v>
       </c>
-      <c r="W40">
+      <c r="Z40">
         <v>76.962629149999998</v>
       </c>
-      <c r="Y40">
+      <c r="AB40">
         <v>28.873716439999999</v>
       </c>
-      <c r="Z40">
+      <c r="AC40">
         <v>77.0618427</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>28.545210000000001</v>
       </c>
       <c r="B41">
         <v>77.176041769999998</v>
       </c>
-      <c r="D41">
+      <c r="F41">
         <v>28.572103550000001</v>
       </c>
-      <c r="E41">
+      <c r="G41">
         <v>77.205734280000001</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <v>28.574228519999998</v>
       </c>
-      <c r="H41">
+      <c r="J41">
         <v>76.964498980000002</v>
       </c>
-      <c r="J41">
-        <v>28.703391360000001</v>
-      </c>
-      <c r="K41">
-        <v>77.226538509999997</v>
+      <c r="L41">
+        <v>28.741342769999999</v>
       </c>
       <c r="M41">
+        <v>77.188165240000004</v>
+      </c>
+      <c r="P41">
         <v>28.665930960000001</v>
       </c>
-      <c r="N41">
+      <c r="Q41">
         <v>77.287268319999995</v>
       </c>
-      <c r="P41">
+      <c r="S41">
         <v>28.770746559999999</v>
       </c>
-      <c r="Q41">
+      <c r="T41">
         <v>76.986539059999998</v>
       </c>
-      <c r="S41">
+      <c r="V41">
         <v>28.6415544</v>
       </c>
-      <c r="T41">
+      <c r="W41">
         <v>77.301988910000006</v>
       </c>
-      <c r="V41">
+      <c r="Y41">
         <v>28.692068970000001</v>
       </c>
-      <c r="W41">
+      <c r="Z41">
         <v>76.998649900000004</v>
       </c>
-      <c r="Y41">
+      <c r="AB41">
         <v>28.755048970000001</v>
       </c>
-      <c r="Z41">
+      <c r="AC41">
         <v>77.153943150000003</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>28.460053769999998</v>
       </c>
       <c r="B42">
         <v>77.170864440000003</v>
       </c>
-      <c r="D42">
+      <c r="F42">
         <v>28.60460921</v>
       </c>
-      <c r="E42">
+      <c r="G42">
         <v>77.289920519999995</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>28.612450979999998</v>
       </c>
-      <c r="H42">
+      <c r="J42">
         <v>76.874722770000005</v>
       </c>
-      <c r="J42">
-        <v>28.757106579999999</v>
-      </c>
-      <c r="K42">
-        <v>77.21390418</v>
+      <c r="L42">
+        <v>28.658366050000001</v>
       </c>
       <c r="M42">
+        <v>77.175954320000002</v>
+      </c>
+      <c r="P42">
         <v>28.692597540000001</v>
       </c>
-      <c r="N42">
+      <c r="Q42">
         <v>77.235092859999995</v>
       </c>
-      <c r="P42">
+      <c r="S42">
         <v>28.723228200000001</v>
       </c>
-      <c r="Q42">
+      <c r="T42">
         <v>76.970987239999999</v>
       </c>
-      <c r="S42">
+      <c r="V42">
         <v>28.646147259999999</v>
       </c>
-      <c r="T42">
+      <c r="W42">
         <v>77.280661570000007</v>
       </c>
-      <c r="V42">
+      <c r="Y42">
         <v>28.636292990000001</v>
       </c>
-      <c r="W42">
+      <c r="Z42">
         <v>76.963690720000002</v>
       </c>
-      <c r="Y42">
+      <c r="AB42">
         <v>28.741235240000002</v>
       </c>
-      <c r="Z42">
+      <c r="AC42">
         <v>77.146494290000007</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>28.492824710000001</v>
       </c>
       <c r="B43">
         <v>77.258334509999997</v>
       </c>
-      <c r="D43">
+      <c r="F43">
         <v>28.540376009999999</v>
       </c>
-      <c r="E43">
+      <c r="G43">
         <v>77.232232249999996</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <v>28.663397060000001</v>
       </c>
-      <c r="H43">
+      <c r="J43">
         <v>76.937129130000002</v>
       </c>
-      <c r="J43">
-        <v>28.682322710000001</v>
-      </c>
-      <c r="K43">
-        <v>77.187261460000002</v>
+      <c r="L43">
+        <v>28.626018630000001</v>
       </c>
       <c r="M43">
+        <v>77.173802379999998</v>
+      </c>
+      <c r="P43">
         <v>28.686510859999999</v>
       </c>
-      <c r="N43">
+      <c r="Q43">
         <v>77.258119030000003</v>
       </c>
-      <c r="P43">
+      <c r="S43">
         <v>28.76043228</v>
       </c>
-      <c r="Q43">
+      <c r="T43">
         <v>76.958511540000003</v>
       </c>
-      <c r="S43">
+      <c r="V43">
         <v>28.61783801</v>
       </c>
-      <c r="T43">
+      <c r="W43">
         <v>77.279911540000001</v>
       </c>
-      <c r="V43">
+      <c r="Y43">
         <v>28.688828260000001</v>
       </c>
-      <c r="W43">
+      <c r="Z43">
         <v>77.109321249999994</v>
       </c>
-      <c r="Y43">
+      <c r="AB43">
         <v>28.856114789999999</v>
       </c>
-      <c r="Z43">
+      <c r="AC43">
         <v>77.176479520000001</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>28.448207650000001</v>
       </c>
       <c r="B44">
         <v>77.182281340000003</v>
       </c>
-      <c r="D44">
+      <c r="F44">
         <v>28.589564249999999</v>
       </c>
-      <c r="E44">
+      <c r="G44">
         <v>77.342140959999995</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>28.637901299999999</v>
       </c>
-      <c r="H44">
+      <c r="J44">
         <v>76.945087139999998</v>
       </c>
-      <c r="J44">
-        <v>28.745572110000001</v>
-      </c>
-      <c r="K44">
-        <v>77.211092070000007</v>
+      <c r="L44">
+        <v>28.74517651</v>
       </c>
       <c r="M44">
+        <v>77.217076710000001</v>
+      </c>
+      <c r="P44">
         <v>28.687405429999998</v>
       </c>
-      <c r="N44">
+      <c r="Q44">
         <v>77.284359440000003</v>
       </c>
-      <c r="P44">
+      <c r="S44">
         <v>28.73419608</v>
       </c>
-      <c r="Q44">
+      <c r="T44">
         <v>77.114241620000001</v>
       </c>
-      <c r="S44">
+      <c r="V44">
         <v>28.601096989999998</v>
       </c>
-      <c r="T44">
+      <c r="W44">
         <v>77.276229209999997</v>
       </c>
-      <c r="V44">
+      <c r="Y44">
         <v>28.673789020000001</v>
       </c>
-      <c r="W44">
+      <c r="Z44">
         <v>77.076938760000004</v>
       </c>
-      <c r="Y44">
+      <c r="AB44">
         <v>28.744538200000001</v>
       </c>
-      <c r="Z44">
+      <c r="AC44">
         <v>77.174918030000001</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>28.442189429999999</v>
       </c>
       <c r="B45">
         <v>77.16302666</v>
       </c>
-      <c r="D45">
+      <c r="F45">
         <v>28.604299109999999</v>
       </c>
-      <c r="E45">
+      <c r="G45">
         <v>77.283600960000001</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <v>28.622278349999998</v>
       </c>
-      <c r="H45">
+      <c r="J45">
         <v>77.005691260000006</v>
       </c>
-      <c r="J45">
-        <v>28.754064799999998</v>
-      </c>
-      <c r="K45">
-        <v>77.192907050000002</v>
+      <c r="L45">
+        <v>28.7308761</v>
       </c>
       <c r="M45">
+        <v>77.253261230000007</v>
+      </c>
+      <c r="P45">
         <v>28.699635990000001</v>
       </c>
-      <c r="N45">
+      <c r="Q45">
         <v>77.23655128</v>
       </c>
-      <c r="P45">
+      <c r="S45">
         <v>28.728307610000002</v>
       </c>
-      <c r="Q45">
+      <c r="T45">
         <v>76.980444309999996</v>
       </c>
-      <c r="S45">
+      <c r="V45">
         <v>28.598604850000001</v>
       </c>
-      <c r="T45">
+      <c r="W45">
         <v>77.328740699999997</v>
       </c>
-      <c r="V45">
+      <c r="Y45">
         <v>28.695922809999999</v>
       </c>
-      <c r="W45">
+      <c r="Z45">
         <v>76.990172110000003</v>
       </c>
-      <c r="Y45">
+      <c r="AB45">
         <v>28.791306850000002</v>
       </c>
-      <c r="Z45">
+      <c r="AC45">
         <v>77.102173280000002</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>28.419825299999999</v>
       </c>
       <c r="B46">
         <v>77.2118167</v>
       </c>
-      <c r="D46">
+      <c r="F46">
         <v>28.488902979999999</v>
       </c>
-      <c r="E46">
+      <c r="G46">
         <v>77.226428569999996</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>28.650168319999999</v>
       </c>
-      <c r="H46">
+      <c r="J46">
         <v>76.895235</v>
       </c>
-      <c r="J46">
-        <v>28.754643999999999</v>
-      </c>
-      <c r="K46">
-        <v>77.234505960000007</v>
+      <c r="L46">
+        <v>28.665779740000001</v>
       </c>
       <c r="M46">
+        <v>77.198628249999999</v>
+      </c>
+      <c r="P46">
         <v>28.69921824</v>
       </c>
-      <c r="N46">
+      <c r="Q46">
         <v>77.253701370000002</v>
       </c>
-      <c r="P46">
+      <c r="S46">
         <v>28.68332861</v>
       </c>
-      <c r="Q46">
+      <c r="T46">
         <v>77.07904619</v>
       </c>
-      <c r="S46">
+      <c r="V46">
         <v>28.583365919999999</v>
       </c>
-      <c r="T46">
+      <c r="W46">
         <v>77.277681369999996</v>
       </c>
-      <c r="V46">
+      <c r="Y46">
         <v>28.66628592</v>
       </c>
-      <c r="W46">
+      <c r="Z46">
         <v>77.143446780000005</v>
       </c>
-      <c r="Y46">
+      <c r="AB46">
         <v>28.862112620000001</v>
       </c>
-      <c r="Z46">
+      <c r="AC46">
         <v>77.180216040000005</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>28.525974560000002</v>
       </c>
       <c r="B47">
         <v>77.254130720000006</v>
       </c>
-      <c r="D47">
+      <c r="F47">
         <v>28.501313629999999</v>
       </c>
-      <c r="E47">
+      <c r="G47">
         <v>77.222100819999994</v>
       </c>
-      <c r="G47">
+      <c r="I47">
         <v>28.66348309</v>
       </c>
-      <c r="H47">
+      <c r="J47">
         <v>76.953546939999995</v>
       </c>
-      <c r="J47">
-        <v>28.78277632</v>
-      </c>
-      <c r="K47">
-        <v>77.229010709999997</v>
+      <c r="L47">
+        <v>28.734517270000001</v>
       </c>
       <c r="M47">
+        <v>77.249524870000002</v>
+      </c>
+      <c r="P47">
         <v>28.698860410000002</v>
       </c>
-      <c r="N47">
+      <c r="Q47">
         <v>77.254440270000003</v>
       </c>
-      <c r="P47">
+      <c r="S47">
         <v>28.74568605</v>
       </c>
-      <c r="Q47">
+      <c r="T47">
         <v>77.059838670000005</v>
       </c>
-      <c r="S47">
+      <c r="V47">
         <v>28.60432565</v>
       </c>
-      <c r="T47">
+      <c r="W47">
         <v>77.276153679999993</v>
       </c>
-      <c r="V47">
+      <c r="Y47">
         <v>28.651085519999999</v>
       </c>
-      <c r="W47">
+      <c r="Z47">
         <v>77.051550610000007</v>
       </c>
-      <c r="Y47">
+      <c r="AB47">
         <v>28.748517280000002</v>
       </c>
-      <c r="Z47">
+      <c r="AC47">
         <v>77.210973339999995</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>28.55118392</v>
       </c>
       <c r="B48">
         <v>77.132506879999994</v>
       </c>
-      <c r="D48">
+      <c r="F48">
         <v>28.54785996</v>
       </c>
-      <c r="E48">
+      <c r="G48">
         <v>77.283455680000003</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>28.50690354</v>
       </c>
-      <c r="H48">
+      <c r="J48">
         <v>76.940784750000006</v>
       </c>
-      <c r="J48">
-        <v>28.74532117</v>
-      </c>
-      <c r="K48">
-        <v>77.192103889999999</v>
+      <c r="L48">
+        <v>28.650341699999998</v>
       </c>
       <c r="M48">
+        <v>77.256494829999994</v>
+      </c>
+      <c r="P48">
         <v>28.673248470000001</v>
       </c>
-      <c r="N48">
+      <c r="Q48">
         <v>77.243943639999998</v>
       </c>
-      <c r="P48">
+      <c r="S48">
         <v>28.747894129999999</v>
       </c>
-      <c r="Q48">
+      <c r="T48">
         <v>77.067211729999997</v>
       </c>
-      <c r="S48">
+      <c r="V48">
         <v>28.634853240000002</v>
       </c>
-      <c r="T48">
+      <c r="W48">
         <v>77.333630760000005</v>
       </c>
-      <c r="V48">
+      <c r="Y48">
         <v>28.69509695</v>
       </c>
-      <c r="W48">
+      <c r="Z48">
         <v>77.122950799999998</v>
       </c>
-      <c r="Y48">
+      <c r="AB48">
         <v>28.87902665</v>
       </c>
-      <c r="Z48">
+      <c r="AC48">
         <v>77.190980830000001</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>28.407359629999998</v>
       </c>
       <c r="B49">
         <v>77.141493969999999</v>
       </c>
-      <c r="D49">
+      <c r="F49">
         <v>28.58617237</v>
       </c>
-      <c r="E49">
+      <c r="G49">
         <v>77.205740370000001</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>28.660782480000002</v>
       </c>
-      <c r="H49">
+      <c r="J49">
         <v>76.903448049999994</v>
       </c>
-      <c r="J49">
-        <v>28.647597780000002</v>
-      </c>
-      <c r="K49">
-        <v>77.22464712</v>
+      <c r="L49">
+        <v>28.628743579999998</v>
       </c>
       <c r="M49">
+        <v>77.226955919999995</v>
+      </c>
+      <c r="P49">
         <v>28.677818599999998</v>
       </c>
-      <c r="N49">
+      <c r="Q49">
         <v>77.233752670000001</v>
       </c>
-      <c r="P49">
+      <c r="S49">
         <v>28.740381169999999</v>
       </c>
-      <c r="Q49">
+      <c r="T49">
         <v>77.032083929999999</v>
       </c>
-      <c r="S49">
+      <c r="V49">
         <v>28.580981749999999</v>
       </c>
-      <c r="T49">
+      <c r="W49">
         <v>77.301405819999999</v>
       </c>
-      <c r="V49">
+      <c r="Y49">
         <v>28.68922865</v>
       </c>
-      <c r="W49">
+      <c r="Z49">
         <v>77.030713710000001</v>
       </c>
-      <c r="Y49">
+      <c r="AB49">
         <v>28.861194080000001</v>
       </c>
-      <c r="Z49">
+      <c r="AC49">
         <v>77.156340360000002</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>28.555614550000001</v>
       </c>
       <c r="B50">
         <v>77.202127189999999</v>
       </c>
-      <c r="D50">
+      <c r="F50">
         <v>28.57415722</v>
       </c>
-      <c r="E50">
+      <c r="G50">
         <v>77.322063459999995</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>28.54449254</v>
       </c>
-      <c r="H50">
+      <c r="J50">
         <v>76.989973750000004</v>
       </c>
-      <c r="J50">
-        <v>28.765178070000001</v>
-      </c>
-      <c r="K50">
-        <v>77.185626650000003</v>
+      <c r="L50">
+        <v>28.77329289</v>
       </c>
       <c r="M50">
+        <v>77.210100490000002</v>
+      </c>
+      <c r="P50">
         <v>28.701657579999999</v>
       </c>
-      <c r="N50">
+      <c r="Q50">
         <v>77.259984840000001</v>
       </c>
-      <c r="P50">
+      <c r="S50">
         <v>28.763540070000001</v>
       </c>
-      <c r="Q50">
+      <c r="T50">
         <v>76.976563369999994</v>
       </c>
-      <c r="S50">
+      <c r="V50">
         <v>28.64699778</v>
       </c>
-      <c r="T50">
+      <c r="W50">
         <v>77.293002549999997</v>
       </c>
-      <c r="V50">
+      <c r="Y50">
         <v>28.661189190000002</v>
       </c>
-      <c r="W50">
+      <c r="Z50">
         <v>76.963029180000007</v>
       </c>
-      <c r="Y50">
+      <c r="AB50">
         <v>28.829668439999999</v>
       </c>
-      <c r="Z50">
+      <c r="AC50">
         <v>77.056341419999995</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>28.543542720000001</v>
       </c>
       <c r="B51">
         <v>77.197512759999995</v>
       </c>
-      <c r="D51">
+      <c r="F51">
         <v>28.56826302</v>
       </c>
-      <c r="E51">
+      <c r="G51">
         <v>77.27852206</v>
       </c>
-      <c r="G51">
+      <c r="I51">
         <v>28.570483119999999</v>
       </c>
-      <c r="H51">
+      <c r="J51">
         <v>76.944143190000005</v>
       </c>
-      <c r="J51">
-        <v>28.643420639999999</v>
-      </c>
-      <c r="K51">
-        <v>77.208179689999994</v>
+      <c r="L51">
+        <v>28.664469589999999</v>
       </c>
       <c r="M51">
+        <v>77.188920640000006</v>
+      </c>
+      <c r="P51">
         <v>28.685937209999999</v>
       </c>
-      <c r="N51">
+      <c r="Q51">
         <v>77.276056749999995</v>
       </c>
-      <c r="P51">
+      <c r="S51">
         <v>28.803393119999999</v>
       </c>
-      <c r="Q51">
+      <c r="T51">
         <v>76.979259819999996</v>
       </c>
-      <c r="S51">
+      <c r="V51">
         <v>28.628360579999999</v>
       </c>
-      <c r="T51">
+      <c r="W51">
         <v>77.302368529999995</v>
       </c>
-      <c r="V51">
+      <c r="Y51">
         <v>28.695303039999999</v>
       </c>
-      <c r="W51">
+      <c r="Z51">
         <v>76.961068409999996</v>
       </c>
-      <c r="Y51">
+      <c r="AB51">
         <v>28.816249729999999</v>
       </c>
-      <c r="Z51">
+      <c r="AC51">
         <v>77.068742850000007</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>28.458940630000001</v>
       </c>
       <c r="B52">
         <v>77.122509919999999</v>
       </c>
-      <c r="D52">
+      <c r="F52">
         <v>28.57224012</v>
       </c>
-      <c r="E52">
+      <c r="G52">
         <v>77.218855300000001</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>28.647692979999999</v>
       </c>
-      <c r="H52">
+      <c r="J52">
         <v>76.889970309999995</v>
       </c>
-      <c r="J52">
-        <v>28.749876489999998</v>
-      </c>
-      <c r="K52">
-        <v>77.238615330000002</v>
+      <c r="L52">
+        <v>28.745990469999999</v>
       </c>
       <c r="M52">
+        <v>77.261319259999993</v>
+      </c>
+      <c r="P52">
         <v>28.693569289999999</v>
       </c>
-      <c r="N52">
+      <c r="Q52">
         <v>77.244971609999993</v>
       </c>
-      <c r="P52">
+      <c r="S52">
         <v>28.726525710000001</v>
       </c>
-      <c r="Q52">
+      <c r="T52">
         <v>76.987528170000004</v>
       </c>
-      <c r="S52">
+      <c r="V52">
         <v>28.659955629999999</v>
       </c>
-      <c r="T52">
+      <c r="W52">
         <v>77.262156270000006</v>
       </c>
-      <c r="V52">
+      <c r="Y52">
         <v>28.67904717</v>
       </c>
-      <c r="W52">
+      <c r="Z52">
         <v>77.048711240000003</v>
       </c>
-      <c r="Y52">
+      <c r="AB52">
         <v>28.861766209999999</v>
       </c>
-      <c r="Z52">
+      <c r="AC52">
         <v>77.031201269999997</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>28.53322696</v>
       </c>
       <c r="B53">
         <v>77.134481550000004</v>
       </c>
-      <c r="D53">
+      <c r="F53">
         <v>28.535922589999998</v>
       </c>
-      <c r="E53">
+      <c r="G53">
         <v>77.225073899999998</v>
       </c>
-      <c r="G53">
+      <c r="I53">
         <v>28.62889264</v>
       </c>
-      <c r="H53">
+      <c r="J53">
         <v>76.892799299999993</v>
       </c>
-      <c r="J53">
-        <v>28.64690027</v>
-      </c>
-      <c r="K53">
-        <v>77.236408460000007</v>
+      <c r="L53">
+        <v>28.673011420000002</v>
       </c>
       <c r="M53">
+        <v>77.253622100000001</v>
+      </c>
+      <c r="P53">
         <v>28.670353030000001</v>
       </c>
-      <c r="N53">
+      <c r="Q53">
         <v>77.238185099999995</v>
       </c>
-      <c r="P53">
+      <c r="S53">
         <v>28.69176843</v>
       </c>
-      <c r="Q53">
+      <c r="T53">
         <v>77.152578419999998</v>
       </c>
-      <c r="S53">
+      <c r="V53">
         <v>28.605518709999998</v>
       </c>
-      <c r="T53">
+      <c r="W53">
         <v>77.310668390000004</v>
       </c>
-      <c r="V53">
+      <c r="Y53">
         <v>28.677627600000001</v>
       </c>
-      <c r="W53">
+      <c r="Z53">
         <v>77.063770120000001</v>
       </c>
-      <c r="Y53">
+      <c r="AB53">
         <v>28.745427939999999</v>
       </c>
-      <c r="Z53">
+      <c r="AC53">
         <v>77.148608909999993</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>28.47287652</v>
       </c>
       <c r="B54">
         <v>77.165010870000003</v>
       </c>
-      <c r="D54">
+      <c r="F54">
         <v>28.488139790000002</v>
       </c>
-      <c r="E54">
+      <c r="G54">
         <v>77.210215629999993</v>
       </c>
-      <c r="G54">
+      <c r="I54">
         <v>28.66363102</v>
       </c>
-      <c r="H54">
+      <c r="J54">
         <v>77.04581915</v>
       </c>
-      <c r="J54">
-        <v>28.728731239999998</v>
-      </c>
-      <c r="K54">
-        <v>77.245930790000003</v>
+      <c r="L54">
+        <v>28.77158133</v>
       </c>
       <c r="M54">
+        <v>77.260894010000001</v>
+      </c>
+      <c r="P54">
         <v>28.677399139999999</v>
       </c>
-      <c r="N54">
+      <c r="Q54">
         <v>77.294601970000002</v>
       </c>
-      <c r="P54">
+      <c r="S54">
         <v>28.78058863</v>
       </c>
-      <c r="Q54">
+      <c r="T54">
         <v>77.029427549999994</v>
       </c>
-      <c r="S54">
+      <c r="V54">
         <v>28.649400450000002</v>
       </c>
-      <c r="T54">
+      <c r="W54">
         <v>77.303612580000006</v>
       </c>
-      <c r="V54">
+      <c r="Y54">
         <v>28.681251199999998</v>
       </c>
-      <c r="W54">
+      <c r="Z54">
         <v>77.138715790000006</v>
       </c>
-      <c r="Y54">
+      <c r="AB54">
         <v>28.770114589999999</v>
       </c>
-      <c r="Z54">
+      <c r="AC54">
         <v>77.197592110000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <v>28.702392410000002</v>
+      </c>
+      <c r="M55">
+        <v>77.212673010000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L56">
+        <v>28.64678206</v>
+      </c>
+      <c r="M56">
+        <v>77.185682</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L57">
+        <v>28.74137262</v>
+      </c>
+      <c r="M57">
+        <v>77.17911986</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L58">
+        <v>28.747151930000001</v>
+      </c>
+      <c r="M58">
+        <v>77.186336659999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <v>28.678072669999999</v>
+      </c>
+      <c r="M59">
+        <v>77.233820780000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L60">
+        <v>28.718525240000002</v>
+      </c>
+      <c r="M60">
+        <v>77.229007870000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L61">
+        <v>28.714377129999999</v>
+      </c>
+      <c r="M61">
+        <v>77.210001449999993</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L62">
+        <v>28.694809769999999</v>
+      </c>
+      <c r="M62">
+        <v>77.2155755</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L63">
+        <v>28.7174917</v>
+      </c>
+      <c r="M63">
+        <v>77.175552740000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L64">
+        <v>28.726321800000001</v>
+      </c>
+      <c r="M64">
+        <v>77.238897679999994</v>
+      </c>
+    </row>
+    <row r="65" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L65">
+        <v>28.650529330000001</v>
+      </c>
+      <c r="M65">
+        <v>77.205720600000006</v>
+      </c>
+    </row>
+    <row r="66" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L66">
+        <v>28.67538815</v>
+      </c>
+      <c r="M66">
+        <v>77.184621480000004</v>
+      </c>
+    </row>
+    <row r="67" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L67">
+        <v>28.708518290000001</v>
+      </c>
+      <c r="M67">
+        <v>77.215175130000006</v>
+      </c>
+    </row>
+    <row r="68" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L68">
+        <v>28.666183239999999</v>
+      </c>
+      <c r="M68">
+        <v>77.258565320000002</v>
+      </c>
+    </row>
+    <row r="69" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L69">
+        <v>28.625531200000001</v>
+      </c>
+      <c r="M69">
+        <v>77.252693890000003</v>
+      </c>
+    </row>
+    <row r="70" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L70">
+        <v>28.737494569999999</v>
+      </c>
+      <c r="M70">
+        <v>77.259998049999993</v>
+      </c>
+    </row>
+    <row r="71" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L71">
+        <v>28.75964265</v>
+      </c>
+      <c r="M71">
+        <v>77.191929389999999</v>
+      </c>
+    </row>
+    <row r="72" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L72">
+        <v>28.720903880000002</v>
+      </c>
+      <c r="M72">
+        <v>77.251484579999996</v>
+      </c>
+    </row>
+    <row r="73" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L73">
+        <v>28.780571389999999</v>
+      </c>
+      <c r="M73">
+        <v>77.186365730000006</v>
+      </c>
+    </row>
+    <row r="74" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L74">
+        <v>28.669561940000001</v>
+      </c>
+      <c r="M74">
+        <v>77.241400350000006</v>
+      </c>
+    </row>
+    <row r="75" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L75">
+        <v>28.71174358</v>
+      </c>
+      <c r="M75">
+        <v>77.225359800000007</v>
+      </c>
+    </row>
+    <row r="76" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L76">
+        <v>28.669888619999998</v>
+      </c>
+      <c r="M76">
+        <v>77.182389319999999</v>
+      </c>
+    </row>
+    <row r="77" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L77">
+        <v>28.767818980000001</v>
+      </c>
+      <c r="M77">
+        <v>77.231513719999995</v>
+      </c>
+    </row>
+    <row r="78" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L78">
+        <v>28.713157850000002</v>
+      </c>
+      <c r="M78">
+        <v>77.1882758</v>
+      </c>
+    </row>
+    <row r="79" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L79">
+        <v>28.664356099999999</v>
+      </c>
+      <c r="M79">
+        <v>77.207425880000002</v>
+      </c>
+    </row>
+    <row r="80" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L80">
+        <v>28.778062309999999</v>
+      </c>
+      <c r="M80">
+        <v>77.224907200000004</v>
+      </c>
+    </row>
+    <row r="81" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L81">
+        <v>28.688892599999999</v>
+      </c>
+      <c r="M81">
+        <v>77.235561680000004</v>
+      </c>
+    </row>
+    <row r="82" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L82">
+        <v>28.710260940000001</v>
+      </c>
+      <c r="M82">
+        <v>77.199577340000005</v>
+      </c>
+    </row>
+    <row r="83" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L83">
+        <v>28.699792049999999</v>
+      </c>
+      <c r="M83">
+        <v>77.208891449999996</v>
+      </c>
+    </row>
+    <row r="84" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L84">
+        <v>28.771923650000002</v>
+      </c>
+      <c r="M84">
+        <v>77.231567299999995</v>
+      </c>
+    </row>
+    <row r="85" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L85">
+        <v>28.74286425</v>
+      </c>
+      <c r="M85">
+        <v>77.185810869999997</v>
+      </c>
+    </row>
+    <row r="86" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L86">
+        <v>28.631067399999999</v>
+      </c>
+      <c r="M86">
+        <v>77.194003080000002</v>
+      </c>
+    </row>
+    <row r="87" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L87">
+        <v>28.662177119999999</v>
+      </c>
+      <c r="M87">
+        <v>77.206336339999993</v>
+      </c>
+    </row>
+    <row r="88" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L88">
+        <v>28.760333710000001</v>
+      </c>
+      <c r="M88">
+        <v>77.259795400000002</v>
+      </c>
+    </row>
+    <row r="89" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L89">
+        <v>28.627596830000002</v>
+      </c>
+      <c r="M89">
+        <v>77.229546330000005</v>
+      </c>
+    </row>
+    <row r="90" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L90">
+        <v>28.656368799999999</v>
+      </c>
+      <c r="M90">
+        <v>77.196748810000003</v>
+      </c>
+    </row>
+    <row r="91" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L91">
+        <v>28.738558739999998</v>
+      </c>
+      <c r="M91">
+        <v>77.212849669999997</v>
+      </c>
+    </row>
+    <row r="92" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L92">
+        <v>28.62490201</v>
+      </c>
+      <c r="M92">
+        <v>77.229519370000006</v>
+      </c>
+    </row>
+    <row r="93" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L93">
+        <v>28.64982736</v>
+      </c>
+      <c r="M93">
+        <v>77.254872349999999</v>
+      </c>
+    </row>
+    <row r="94" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L94">
+        <v>28.721916870000001</v>
+      </c>
+      <c r="M94">
+        <v>77.253409559999994</v>
+      </c>
+    </row>
+    <row r="95" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L95">
+        <v>28.659797019999999</v>
+      </c>
+      <c r="M95">
+        <v>77.233361410000001</v>
+      </c>
+    </row>
+    <row r="96" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L96">
+        <v>28.675187019999999</v>
+      </c>
+      <c r="M96">
+        <v>77.257737419999998</v>
+      </c>
+    </row>
+    <row r="97" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L97">
+        <v>28.701844139999999</v>
+      </c>
+      <c r="M97">
+        <v>77.234310370000003</v>
+      </c>
+    </row>
+    <row r="98" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L98">
+        <v>28.632784000000001</v>
+      </c>
+      <c r="M98">
+        <v>77.203411970000005</v>
+      </c>
+    </row>
+    <row r="99" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L99">
+        <v>28.631044580000001</v>
+      </c>
+      <c r="M99">
+        <v>77.178585060000003</v>
+      </c>
+    </row>
+    <row r="100" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L100">
+        <v>28.770211230000001</v>
+      </c>
+      <c r="M100">
+        <v>77.252705059999997</v>
+      </c>
+    </row>
+    <row r="101" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L101">
+        <v>28.659490080000001</v>
+      </c>
+      <c r="M101">
+        <v>77.176180450000004</v>
+      </c>
+    </row>
+    <row r="102" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L102">
+        <v>28.73226846</v>
+      </c>
+      <c r="M102">
+        <v>77.201469470000006</v>
+      </c>
+    </row>
+    <row r="103" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L103">
+        <v>28.73076163</v>
+      </c>
+      <c r="M103">
+        <v>77.213318630000003</v>
+      </c>
+    </row>
+    <row r="104" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L104">
+        <v>28.65050969</v>
+      </c>
+      <c r="M104">
+        <v>77.215509130000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/lat long.xlsx
+++ b/data/lat long.xlsx
@@ -398,22 +398,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC104"/>
+  <dimension ref="A1:AE104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE4" sqref="AE4:AE104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -425,34 +425,34 @@
       <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
       <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
         <v>2</v>
       </c>
       <c r="I3" t="s">
@@ -473,49 +473,49 @@
       <c r="Q3" t="s">
         <v>2</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>7</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>2</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
         <v>9</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y3" t="s">
         <v>10</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AA3" t="s">
         <v>1</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AB3" t="s">
         <v>2</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
         <v>1</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AE3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>28.555799029999999</v>
+        <v>28.554058569999999</v>
       </c>
       <c r="B5">
-        <v>77.252730380000003</v>
+        <v>77.224197169999997</v>
+      </c>
+      <c r="E5">
+        <v>28.596057120000001</v>
       </c>
       <c r="F5">
-        <v>28.565527679999999</v>
-      </c>
-      <c r="G5">
-        <v>77.319614900000005</v>
+        <v>77.283997839999998</v>
       </c>
       <c r="I5">
-        <v>28.65722877</v>
+        <v>28.610679900000001</v>
       </c>
       <c r="J5">
-        <v>77.015543440000002</v>
+        <v>76.874555670000007</v>
       </c>
       <c r="L5">
         <v>28.669520039999998</v>
@@ -524,54 +524,54 @@
         <v>77.238569130000002</v>
       </c>
       <c r="P5">
-        <v>28.700232849999999</v>
+        <v>28.738839420000001</v>
       </c>
       <c r="Q5">
-        <v>77.269038440000003</v>
-      </c>
-      <c r="S5">
-        <v>28.767940070000002</v>
+        <v>77.291005240000004</v>
       </c>
       <c r="T5">
-        <v>77.037236120000003</v>
-      </c>
-      <c r="V5">
-        <v>28.672958080000001</v>
-      </c>
-      <c r="W5">
-        <v>77.272074910000001</v>
+        <v>28.763635050000001</v>
+      </c>
+      <c r="U5">
+        <v>76.962616229999995</v>
+      </c>
+      <c r="X5">
+        <v>28.669310419999999</v>
       </c>
       <c r="Y5">
-        <v>28.669797129999999</v>
-      </c>
-      <c r="Z5">
-        <v>77.129776509999999</v>
+        <v>77.291502899999998</v>
+      </c>
+      <c r="AA5">
+        <v>28.622081170000001</v>
       </c>
       <c r="AB5">
-        <v>28.80913864</v>
-      </c>
-      <c r="AC5">
-        <v>77.077557880000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.145329239999995</v>
+      </c>
+      <c r="AD5">
+        <v>28.753129099999999</v>
+      </c>
+      <c r="AE5">
+        <v>77.198979300000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>28.465428410000001</v>
+        <v>28.520706400000002</v>
       </c>
       <c r="B6">
-        <v>77.174477289999999</v>
+        <v>77.123942220000004</v>
+      </c>
+      <c r="E6">
+        <v>28.56246123</v>
       </c>
       <c r="F6">
-        <v>28.569128490000001</v>
-      </c>
-      <c r="G6">
-        <v>77.293481600000007</v>
+        <v>77.300812769999993</v>
       </c>
       <c r="I6">
-        <v>28.65910229</v>
+        <v>28.510840909999999</v>
       </c>
       <c r="J6">
-        <v>77.066756359999999</v>
+        <v>76.882506800000002</v>
       </c>
       <c r="L6">
         <v>28.656668509999999</v>
@@ -580,54 +580,54 @@
         <v>77.255343620000005</v>
       </c>
       <c r="P6">
-        <v>28.667364299999999</v>
+        <v>28.76977398</v>
       </c>
       <c r="Q6">
-        <v>77.276802559999993</v>
-      </c>
-      <c r="S6">
-        <v>28.814379519999999</v>
+        <v>77.235193969999997</v>
       </c>
       <c r="T6">
-        <v>77.047211709999999</v>
-      </c>
-      <c r="V6">
-        <v>28.645588109999998</v>
-      </c>
-      <c r="W6">
-        <v>77.282737249999997</v>
+        <v>28.803648209999999</v>
+      </c>
+      <c r="U6">
+        <v>76.988678300000004</v>
+      </c>
+      <c r="X6">
+        <v>28.589854429999999</v>
       </c>
       <c r="Y6">
-        <v>28.67289817</v>
-      </c>
-      <c r="Z6">
-        <v>77.085944089999998</v>
+        <v>77.296938490000002</v>
+      </c>
+      <c r="AA6">
+        <v>28.635049519999999</v>
       </c>
       <c r="AB6">
-        <v>28.843553249999999</v>
-      </c>
-      <c r="AC6">
-        <v>77.199655179999993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+        <v>76.965061989999995</v>
+      </c>
+      <c r="AD6">
+        <v>28.798097510000002</v>
+      </c>
+      <c r="AE6">
+        <v>77.046029419999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>28.542339729999998</v>
+        <v>28.509469979999999</v>
       </c>
       <c r="B7">
-        <v>77.215327569999999</v>
+        <v>77.129238619999995</v>
+      </c>
+      <c r="E7">
+        <v>28.570494289999999</v>
       </c>
       <c r="F7">
-        <v>28.551598670000001</v>
-      </c>
-      <c r="G7">
-        <v>77.337435069999998</v>
+        <v>77.251397389999994</v>
       </c>
       <c r="I7">
-        <v>28.51005228</v>
+        <v>28.574159760000001</v>
       </c>
       <c r="J7">
-        <v>76.929979799999998</v>
+        <v>76.846843309999997</v>
       </c>
       <c r="L7">
         <v>28.626911660000001</v>
@@ -636,54 +636,54 @@
         <v>77.227272209999995</v>
       </c>
       <c r="P7">
-        <v>28.672159520000001</v>
+        <v>28.77919206</v>
       </c>
       <c r="Q7">
-        <v>77.253382680000001</v>
-      </c>
-      <c r="S7">
-        <v>28.724763930000002</v>
+        <v>77.278587959999996</v>
       </c>
       <c r="T7">
-        <v>77.0378319</v>
-      </c>
-      <c r="V7">
-        <v>28.598104939999999</v>
-      </c>
-      <c r="W7">
-        <v>77.303353979999997</v>
+        <v>28.80285379</v>
+      </c>
+      <c r="U7">
+        <v>77.030989099999999</v>
+      </c>
+      <c r="X7">
+        <v>28.583731199999999</v>
       </c>
       <c r="Y7">
-        <v>28.685030999999999</v>
-      </c>
-      <c r="Z7">
-        <v>76.981855120000006</v>
+        <v>77.326939510000003</v>
+      </c>
+      <c r="AA7">
+        <v>28.652869580000001</v>
       </c>
       <c r="AB7">
-        <v>28.744697819999999</v>
-      </c>
-      <c r="AC7">
-        <v>77.061312569999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.01211696</v>
+      </c>
+      <c r="AD7">
+        <v>28.78694269</v>
+      </c>
+      <c r="AE7">
+        <v>76.987289709999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>28.487941630000002</v>
+        <v>28.448789359999999</v>
       </c>
       <c r="B8">
-        <v>77.185328670000004</v>
+        <v>77.165972440000004</v>
+      </c>
+      <c r="E8">
+        <v>28.59495416</v>
       </c>
       <c r="F8">
-        <v>28.489085530000001</v>
-      </c>
-      <c r="G8">
-        <v>77.249349219999999</v>
+        <v>77.259055439999997</v>
       </c>
       <c r="I8">
-        <v>28.553176199999999</v>
+        <v>28.564212550000001</v>
       </c>
       <c r="J8">
-        <v>76.891002520000001</v>
+        <v>76.896320639999999</v>
       </c>
       <c r="L8">
         <v>28.760916309999999</v>
@@ -692,54 +692,54 @@
         <v>77.22509814</v>
       </c>
       <c r="P8">
-        <v>28.682276829999999</v>
+        <v>28.767130120000001</v>
       </c>
       <c r="Q8">
-        <v>77.284782800000002</v>
-      </c>
-      <c r="S8">
-        <v>28.69036608</v>
+        <v>77.250731470000005</v>
       </c>
       <c r="T8">
-        <v>77.076618049999993</v>
-      </c>
-      <c r="V8">
-        <v>28.6223612</v>
-      </c>
-      <c r="W8">
-        <v>77.273973319999996</v>
+        <v>28.773532660000001</v>
+      </c>
+      <c r="U8">
+        <v>77.162083190000004</v>
+      </c>
+      <c r="X8">
+        <v>28.635871900000001</v>
       </c>
       <c r="Y8">
-        <v>28.63783574</v>
-      </c>
-      <c r="Z8">
-        <v>76.961024570000006</v>
+        <v>77.341884019999995</v>
+      </c>
+      <c r="AA8">
+        <v>28.644879929999998</v>
       </c>
       <c r="AB8">
-        <v>28.75249505</v>
-      </c>
-      <c r="AC8">
-        <v>77.060169639999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.044200579999995</v>
+      </c>
+      <c r="AD8">
+        <v>28.807817400000001</v>
+      </c>
+      <c r="AE8">
+        <v>77.194034930000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>28.519474710000001</v>
+        <v>28.469225510000001</v>
       </c>
       <c r="B9">
-        <v>77.147927899999999</v>
+        <v>77.156360199999995</v>
+      </c>
+      <c r="E9">
+        <v>28.51554024</v>
       </c>
       <c r="F9">
-        <v>28.567581610000001</v>
-      </c>
-      <c r="G9">
-        <v>77.331492979999993</v>
+        <v>77.254117769999993</v>
       </c>
       <c r="I9">
-        <v>28.61322582</v>
+        <v>28.525906670000001</v>
       </c>
       <c r="J9">
-        <v>76.906976299999997</v>
+        <v>76.982178680000004</v>
       </c>
       <c r="L9">
         <v>28.689811750000001</v>
@@ -748,54 +748,54 @@
         <v>77.246119390000004</v>
       </c>
       <c r="P9">
-        <v>28.69949815</v>
+        <v>28.69045878</v>
       </c>
       <c r="Q9">
-        <v>77.273481989999993</v>
-      </c>
-      <c r="S9">
-        <v>28.71903146</v>
+        <v>77.288488540000003</v>
       </c>
       <c r="T9">
-        <v>77.049227200000004</v>
-      </c>
-      <c r="V9">
-        <v>28.617085070000002</v>
-      </c>
-      <c r="W9">
-        <v>77.287024310000007</v>
+        <v>28.77682643</v>
+      </c>
+      <c r="U9">
+        <v>76.953726380000006</v>
+      </c>
+      <c r="X9">
+        <v>28.593641139999999</v>
       </c>
       <c r="Y9">
-        <v>28.64041873</v>
-      </c>
-      <c r="Z9">
-        <v>76.991892609999994</v>
+        <v>77.326046890000001</v>
+      </c>
+      <c r="AA9">
+        <v>28.647479709999999</v>
       </c>
       <c r="AB9">
-        <v>28.76392126</v>
-      </c>
-      <c r="AC9">
-        <v>77.177496500000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.04874058</v>
+      </c>
+      <c r="AD9">
+        <v>28.844893639999999</v>
+      </c>
+      <c r="AE9">
+        <v>77.175777220000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>28.545083089999999</v>
+        <v>28.453974259999999</v>
       </c>
       <c r="B10">
-        <v>77.195597390000003</v>
+        <v>77.148733329999999</v>
+      </c>
+      <c r="E10">
+        <v>28.559111290000001</v>
       </c>
       <c r="F10">
-        <v>28.50666854</v>
-      </c>
-      <c r="G10">
-        <v>77.32526215</v>
+        <v>77.208574729999995</v>
       </c>
       <c r="I10">
-        <v>28.50870522</v>
+        <v>28.60432913</v>
       </c>
       <c r="J10">
-        <v>76.868914439999998</v>
+        <v>77.018758500000004</v>
       </c>
       <c r="L10">
         <v>28.733644529999999</v>
@@ -804,54 +804,54 @@
         <v>77.224453359999998</v>
       </c>
       <c r="P10">
-        <v>28.69456933</v>
+        <v>28.746490250000001</v>
       </c>
       <c r="Q10">
-        <v>77.292131659999995</v>
-      </c>
-      <c r="S10">
-        <v>28.792650429999998</v>
+        <v>77.240314280000007</v>
       </c>
       <c r="T10">
-        <v>77.023837310000005</v>
-      </c>
-      <c r="V10">
-        <v>28.615066649999999</v>
-      </c>
-      <c r="W10">
-        <v>77.270155790000004</v>
+        <v>28.691578759999999</v>
+      </c>
+      <c r="U10">
+        <v>77.105512390000001</v>
+      </c>
+      <c r="X10">
+        <v>28.635896519999999</v>
       </c>
       <c r="Y10">
-        <v>28.671122539999999</v>
-      </c>
-      <c r="Z10">
-        <v>77.006066970000006</v>
+        <v>77.331772349999994</v>
+      </c>
+      <c r="AA10">
+        <v>28.680324989999999</v>
       </c>
       <c r="AB10">
-        <v>28.879755370000002</v>
-      </c>
-      <c r="AC10">
-        <v>77.13015729</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77.160748499999997</v>
+      </c>
+      <c r="AD10">
+        <v>28.78353534</v>
+      </c>
+      <c r="AE10">
+        <v>77.056456409999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>28.467165649999998</v>
+        <v>28.43641431</v>
       </c>
       <c r="B11">
-        <v>77.231207530000006</v>
+        <v>77.152413800000005</v>
+      </c>
+      <c r="E11">
+        <v>28.548811820000001</v>
       </c>
       <c r="F11">
-        <v>28.556325869999998</v>
-      </c>
-      <c r="G11">
-        <v>77.292163419999994</v>
+        <v>77.263499620000005</v>
       </c>
       <c r="I11">
-        <v>28.588582290000002</v>
+        <v>28.588696819999999</v>
       </c>
       <c r="J11">
-        <v>77.078875460000006</v>
+        <v>77.079654809999994</v>
       </c>
       <c r="L11">
         <v>28.62800584</v>
@@ -860,54 +860,54 @@
         <v>77.17657002</v>
       </c>
       <c r="P11">
-        <v>28.68723773</v>
+        <v>28.73986493</v>
       </c>
       <c r="Q11">
-        <v>77.293817020000006</v>
-      </c>
-      <c r="S11">
-        <v>28.789166730000002</v>
+        <v>77.254480729999997</v>
       </c>
       <c r="T11">
-        <v>77.053121899999994</v>
-      </c>
-      <c r="V11">
-        <v>28.633295610000001</v>
-      </c>
-      <c r="W11">
-        <v>77.261148449999993</v>
+        <v>28.668821789999999</v>
+      </c>
+      <c r="U11">
+        <v>77.082528300000007</v>
+      </c>
+      <c r="X11">
+        <v>28.593756110000001</v>
       </c>
       <c r="Y11">
-        <v>28.682103779999998</v>
-      </c>
-      <c r="Z11">
-        <v>77.173692549999998</v>
+        <v>77.304329870000004</v>
+      </c>
+      <c r="AA11">
+        <v>28.62662607</v>
       </c>
       <c r="AB11">
-        <v>28.75410278</v>
-      </c>
-      <c r="AC11">
-        <v>77.066844560000007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+        <v>77.147747339999995</v>
+      </c>
+      <c r="AD11">
+        <v>28.69441217</v>
+      </c>
+      <c r="AE11">
+        <v>77.024858170000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>28.469389759999999</v>
+        <v>28.470703010000001</v>
       </c>
       <c r="B12">
-        <v>77.169875820000001</v>
+        <v>77.198235229999995</v>
+      </c>
+      <c r="E12">
+        <v>28.58916305</v>
       </c>
       <c r="F12">
-        <v>28.536325550000001</v>
-      </c>
-      <c r="G12">
-        <v>77.203923399999994</v>
+        <v>77.293055240000001</v>
       </c>
       <c r="I12">
-        <v>28.591995489999999</v>
+        <v>28.6289905</v>
       </c>
       <c r="J12">
-        <v>76.947895990000006</v>
+        <v>76.961043329999995</v>
       </c>
       <c r="L12">
         <v>28.635074899999999</v>
@@ -916,54 +916,54 @@
         <v>77.236174559999995</v>
       </c>
       <c r="P12">
-        <v>28.703591500000002</v>
+        <v>28.77362136</v>
       </c>
       <c r="Q12">
-        <v>77.261919109999994</v>
-      </c>
-      <c r="S12">
-        <v>28.73307316</v>
+        <v>77.266074959999997</v>
       </c>
       <c r="T12">
-        <v>76.990268040000004</v>
-      </c>
-      <c r="V12">
-        <v>28.669980939999999</v>
-      </c>
-      <c r="W12">
-        <v>77.309705129999998</v>
+        <v>28.711067589999999</v>
+      </c>
+      <c r="U12">
+        <v>77.132158369999999</v>
+      </c>
+      <c r="X12">
+        <v>28.58615288</v>
       </c>
       <c r="Y12">
-        <v>28.63665554</v>
-      </c>
-      <c r="Z12">
-        <v>77.164913179999999</v>
+        <v>77.262007589999996</v>
+      </c>
+      <c r="AA12">
+        <v>28.644940470000002</v>
       </c>
       <c r="AB12">
-        <v>28.75953243</v>
-      </c>
-      <c r="AC12">
-        <v>77.076656880000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.090108430000001</v>
+      </c>
+      <c r="AD12">
+        <v>28.80134017</v>
+      </c>
+      <c r="AE12">
+        <v>77.040724069999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>28.418681790000001</v>
+        <v>28.514746290000001</v>
       </c>
       <c r="B13">
-        <v>77.165970229999999</v>
+        <v>77.199388839999997</v>
+      </c>
+      <c r="E13">
+        <v>28.595130640000001</v>
       </c>
       <c r="F13">
-        <v>28.58539893</v>
-      </c>
-      <c r="G13">
-        <v>77.218615360000001</v>
+        <v>77.237012930000006</v>
       </c>
       <c r="I13">
-        <v>28.560950550000001</v>
+        <v>28.576950759999999</v>
       </c>
       <c r="J13">
-        <v>76.86971475</v>
+        <v>76.881221659999994</v>
       </c>
       <c r="L13">
         <v>28.780130799999998</v>
@@ -972,54 +972,54 @@
         <v>77.201003920000005</v>
       </c>
       <c r="P13">
-        <v>28.696440370000001</v>
+        <v>28.769699589999998</v>
       </c>
       <c r="Q13">
-        <v>77.243818140000002</v>
-      </c>
-      <c r="S13">
-        <v>28.730491319999999</v>
+        <v>77.273760850000002</v>
       </c>
       <c r="T13">
-        <v>76.957405350000002</v>
-      </c>
-      <c r="V13">
-        <v>28.639055070000001</v>
-      </c>
-      <c r="W13">
-        <v>77.300868710000003</v>
+        <v>28.76594094</v>
+      </c>
+      <c r="U13">
+        <v>76.972507980000003</v>
+      </c>
+      <c r="X13">
+        <v>28.632387059999999</v>
       </c>
       <c r="Y13">
-        <v>28.658028730000002</v>
-      </c>
-      <c r="Z13">
-        <v>77.066840189999994</v>
+        <v>77.328085389999998</v>
+      </c>
+      <c r="AA13">
+        <v>28.637241459999998</v>
       </c>
       <c r="AB13">
-        <v>28.808591150000002</v>
-      </c>
-      <c r="AC13">
-        <v>77.123973539999994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+        <v>76.994337920000007</v>
+      </c>
+      <c r="AD13">
+        <v>28.750340749999999</v>
+      </c>
+      <c r="AE13">
+        <v>77.133078589999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>28.432147069999999</v>
+        <v>28.479806499999999</v>
       </c>
       <c r="B14">
-        <v>77.201294410000003</v>
+        <v>77.238213389999999</v>
+      </c>
+      <c r="E14">
+        <v>28.564837539999999</v>
       </c>
       <c r="F14">
-        <v>28.527414400000001</v>
-      </c>
-      <c r="G14">
-        <v>77.306385419999998</v>
+        <v>77.333646079999994</v>
       </c>
       <c r="I14">
-        <v>28.608866630000001</v>
+        <v>28.59061784</v>
       </c>
       <c r="J14">
-        <v>77.047911439999993</v>
+        <v>77.027189509999999</v>
       </c>
       <c r="L14">
         <v>28.65178624</v>
@@ -1028,54 +1028,54 @@
         <v>77.209671990000004</v>
       </c>
       <c r="P14">
-        <v>28.671268699999999</v>
+        <v>28.71281621</v>
       </c>
       <c r="Q14">
-        <v>77.259747669999996</v>
-      </c>
-      <c r="S14">
-        <v>28.696539569999999</v>
+        <v>77.269138720000001</v>
       </c>
       <c r="T14">
-        <v>77.123459760000003</v>
-      </c>
-      <c r="V14">
-        <v>28.61426342</v>
-      </c>
-      <c r="W14">
-        <v>77.340735980000005</v>
+        <v>28.790637350000001</v>
+      </c>
+      <c r="U14">
+        <v>77.014151130000002</v>
+      </c>
+      <c r="X14">
+        <v>28.653403480000001</v>
       </c>
       <c r="Y14">
-        <v>28.66689392</v>
-      </c>
-      <c r="Z14">
-        <v>77.111237259999996</v>
+        <v>77.259296800000001</v>
+      </c>
+      <c r="AA14">
+        <v>28.673833859999998</v>
       </c>
       <c r="AB14">
-        <v>28.875098019999999</v>
-      </c>
-      <c r="AC14">
-        <v>77.092180099999993</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+        <v>76.995619669999996</v>
+      </c>
+      <c r="AD14">
+        <v>28.848927199999999</v>
+      </c>
+      <c r="AE14">
+        <v>77.029714159999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>28.434927819999999</v>
+        <v>28.457627550000002</v>
       </c>
       <c r="B15">
-        <v>77.212269120000002</v>
+        <v>77.196369840000003</v>
+      </c>
+      <c r="E15">
+        <v>28.51507243</v>
       </c>
       <c r="F15">
-        <v>28.549453530000001</v>
-      </c>
-      <c r="G15">
-        <v>77.245810469999995</v>
+        <v>77.297872499999997</v>
       </c>
       <c r="I15">
-        <v>28.556278840000001</v>
+        <v>28.524840990000001</v>
       </c>
       <c r="J15">
-        <v>76.986679240000001</v>
+        <v>76.905205190000004</v>
       </c>
       <c r="L15">
         <v>28.786307369999999</v>
@@ -1084,54 +1084,54 @@
         <v>77.221249270000001</v>
       </c>
       <c r="P15">
-        <v>28.684869580000001</v>
+        <v>28.718906310000001</v>
       </c>
       <c r="Q15">
-        <v>77.240909709999997</v>
-      </c>
-      <c r="S15">
-        <v>28.78356921</v>
+        <v>77.255977529999996</v>
       </c>
       <c r="T15">
-        <v>77.017871580000005</v>
-      </c>
-      <c r="V15">
-        <v>28.583322639999999</v>
-      </c>
-      <c r="W15">
-        <v>77.323017849999999</v>
+        <v>28.72660831</v>
+      </c>
+      <c r="U15">
+        <v>77.122615789999998</v>
+      </c>
+      <c r="X15">
+        <v>28.608172</v>
       </c>
       <c r="Y15">
-        <v>28.695195859999998</v>
-      </c>
-      <c r="Z15">
-        <v>77.028097020000004</v>
+        <v>77.33770054</v>
+      </c>
+      <c r="AA15">
+        <v>28.649808790000002</v>
       </c>
       <c r="AB15">
-        <v>28.825109770000001</v>
-      </c>
-      <c r="AC15">
-        <v>77.027153249999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+        <v>76.971093510000003</v>
+      </c>
+      <c r="AD15">
+        <v>28.706172559999999</v>
+      </c>
+      <c r="AE15">
+        <v>77.120218129999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>28.474543059999998</v>
+        <v>28.534882400000001</v>
       </c>
       <c r="B16">
-        <v>77.199939689999994</v>
+        <v>77.240124789999996</v>
+      </c>
+      <c r="E16">
+        <v>28.567184749999999</v>
       </c>
       <c r="F16">
-        <v>28.581606669999999</v>
-      </c>
-      <c r="G16">
-        <v>77.234651959999994</v>
+        <v>77.243325960000007</v>
       </c>
       <c r="I16">
-        <v>28.54549935</v>
+        <v>28.647478599999999</v>
       </c>
       <c r="J16">
-        <v>77.085614739999997</v>
+        <v>76.886717649999994</v>
       </c>
       <c r="L16">
         <v>28.712139950000001</v>
@@ -1140,54 +1140,54 @@
         <v>77.257992360000003</v>
       </c>
       <c r="P16">
-        <v>28.674387400000001</v>
+        <v>28.678854650000002</v>
       </c>
       <c r="Q16">
-        <v>77.260414319999995</v>
-      </c>
-      <c r="S16">
-        <v>28.805497729999999</v>
+        <v>77.241330700000006</v>
       </c>
       <c r="T16">
-        <v>77.144035810000005</v>
-      </c>
-      <c r="V16">
-        <v>28.64451875</v>
-      </c>
-      <c r="W16">
-        <v>77.307153540000002</v>
+        <v>28.69011751</v>
+      </c>
+      <c r="U16">
+        <v>76.959891240000005</v>
+      </c>
+      <c r="X16">
+        <v>28.632638700000001</v>
       </c>
       <c r="Y16">
-        <v>28.63229475</v>
-      </c>
-      <c r="Z16">
-        <v>77.090356099999994</v>
+        <v>77.292317499999996</v>
+      </c>
+      <c r="AA16">
+        <v>28.670286999999998</v>
       </c>
       <c r="AB16">
-        <v>28.754292169999999</v>
-      </c>
-      <c r="AC16">
-        <v>77.049623319999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.081025969999999</v>
+      </c>
+      <c r="AD16">
+        <v>28.728200959999999</v>
+      </c>
+      <c r="AE16">
+        <v>77.212566769999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>28.4674877</v>
+        <v>28.547678940000001</v>
       </c>
       <c r="B17">
-        <v>77.228726159999994</v>
+        <v>77.141072149999999</v>
+      </c>
+      <c r="E17">
+        <v>28.58542023</v>
       </c>
       <c r="F17">
-        <v>28.566362210000001</v>
-      </c>
-      <c r="G17">
-        <v>77.234789739999997</v>
+        <v>77.269469049999998</v>
       </c>
       <c r="I17">
-        <v>28.666634349999999</v>
+        <v>28.61696006</v>
       </c>
       <c r="J17">
-        <v>77.052085289999994</v>
+        <v>77.052943159999998</v>
       </c>
       <c r="L17">
         <v>28.734736680000001</v>
@@ -1196,54 +1196,54 @@
         <v>77.186207980000006</v>
       </c>
       <c r="P17">
-        <v>28.70600786</v>
+        <v>28.6677371</v>
       </c>
       <c r="Q17">
-        <v>77.292567689999998</v>
-      </c>
-      <c r="S17">
-        <v>28.72662819</v>
+        <v>77.267521149999993</v>
       </c>
       <c r="T17">
-        <v>77.143132179999995</v>
-      </c>
-      <c r="V17">
-        <v>28.646729199999999</v>
-      </c>
-      <c r="W17">
-        <v>77.281966190000006</v>
+        <v>28.770483800000001</v>
+      </c>
+      <c r="U17">
+        <v>77.077968240000004</v>
+      </c>
+      <c r="X17">
+        <v>28.599536149999999</v>
       </c>
       <c r="Y17">
-        <v>28.674710340000001</v>
-      </c>
-      <c r="Z17">
-        <v>76.973045540000001</v>
+        <v>77.262617050000003</v>
+      </c>
+      <c r="AA17">
+        <v>28.622604320000001</v>
       </c>
       <c r="AB17">
-        <v>28.83968535</v>
-      </c>
-      <c r="AC17">
-        <v>77.158139700000007</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.156836229999996</v>
+      </c>
+      <c r="AD17">
+        <v>28.772349330000001</v>
+      </c>
+      <c r="AE17">
+        <v>77.049244770000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>28.434903160000001</v>
+        <v>28.42908207</v>
       </c>
       <c r="B18">
-        <v>77.204169930000006</v>
+        <v>77.220591369999994</v>
+      </c>
+      <c r="E18">
+        <v>28.50405932</v>
       </c>
       <c r="F18">
-        <v>28.55893635</v>
-      </c>
-      <c r="G18">
-        <v>77.221895399999994</v>
+        <v>77.20891958</v>
       </c>
       <c r="I18">
-        <v>28.55783431</v>
+        <v>28.54766472</v>
       </c>
       <c r="J18">
-        <v>76.880745619999999</v>
+        <v>76.959909350000004</v>
       </c>
       <c r="L18">
         <v>28.76890092</v>
@@ -1252,54 +1252,54 @@
         <v>77.186230739999999</v>
       </c>
       <c r="P18">
-        <v>28.67334859</v>
+        <v>28.673356510000001</v>
       </c>
       <c r="Q18">
-        <v>77.257027289999996</v>
-      </c>
-      <c r="S18">
-        <v>28.688131240000001</v>
+        <v>77.273130820000006</v>
       </c>
       <c r="T18">
-        <v>76.958373620000003</v>
-      </c>
-      <c r="V18">
-        <v>28.58260284</v>
-      </c>
-      <c r="W18">
-        <v>77.267900819999994</v>
+        <v>28.715728030000001</v>
+      </c>
+      <c r="U18">
+        <v>77.010149600000005</v>
+      </c>
+      <c r="X18">
+        <v>28.637394919999998</v>
       </c>
       <c r="Y18">
-        <v>28.673276520000002</v>
-      </c>
-      <c r="Z18">
-        <v>77.036463549999993</v>
+        <v>77.312718050000001</v>
+      </c>
+      <c r="AA18">
+        <v>28.662597890000001</v>
       </c>
       <c r="AB18">
-        <v>28.8438515</v>
-      </c>
-      <c r="AC18">
-        <v>77.152172770000007</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.013401040000005</v>
+      </c>
+      <c r="AD18">
+        <v>28.832808480000001</v>
+      </c>
+      <c r="AE18">
+        <v>77.128434639999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>28.50980663</v>
+        <v>28.46845691</v>
       </c>
       <c r="B19">
-        <v>77.120689600000006</v>
+        <v>77.187467760000004</v>
+      </c>
+      <c r="E19">
+        <v>28.596649330000002</v>
       </c>
       <c r="F19">
-        <v>28.489922279999998</v>
-      </c>
-      <c r="G19">
-        <v>77.230048859999997</v>
+        <v>77.335422809999997</v>
       </c>
       <c r="I19">
-        <v>28.562823699999999</v>
+        <v>28.653767389999999</v>
       </c>
       <c r="J19">
-        <v>76.856451149999998</v>
+        <v>77.070169419999999</v>
       </c>
       <c r="L19">
         <v>28.76564106</v>
@@ -1308,54 +1308,54 @@
         <v>77.254871280000003</v>
       </c>
       <c r="P19">
-        <v>28.690227889999999</v>
+        <v>28.678000449999999</v>
       </c>
       <c r="Q19">
-        <v>77.272561300000007</v>
-      </c>
-      <c r="S19">
-        <v>28.79278918</v>
+        <v>77.24520751</v>
       </c>
       <c r="T19">
-        <v>77.022685609999996</v>
-      </c>
-      <c r="V19">
-        <v>28.576427039999999</v>
-      </c>
-      <c r="W19">
-        <v>77.28524333</v>
+        <v>28.804492029999999</v>
+      </c>
+      <c r="U19">
+        <v>77.175135530000006</v>
+      </c>
+      <c r="X19">
+        <v>28.591840860000001</v>
       </c>
       <c r="Y19">
-        <v>28.672686639999998</v>
-      </c>
-      <c r="Z19">
-        <v>77.060986819999997</v>
+        <v>77.28617534</v>
+      </c>
+      <c r="AA19">
+        <v>28.632949329999999</v>
       </c>
       <c r="AB19">
-        <v>28.865228559999998</v>
-      </c>
-      <c r="AC19">
-        <v>77.096432719999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.082926209999997</v>
+      </c>
+      <c r="AD19">
+        <v>28.878988490000001</v>
+      </c>
+      <c r="AE19">
+        <v>76.978717149999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>28.53055805</v>
+        <v>28.545159479999999</v>
       </c>
       <c r="B20">
-        <v>77.216104110000003</v>
+        <v>77.235588309999997</v>
+      </c>
+      <c r="E20">
+        <v>28.541966739999999</v>
       </c>
       <c r="F20">
-        <v>28.54841944</v>
-      </c>
-      <c r="G20">
-        <v>77.26034645</v>
+        <v>77.317460920000002</v>
       </c>
       <c r="I20">
-        <v>28.57125761</v>
+        <v>28.619087489999998</v>
       </c>
       <c r="J20">
-        <v>76.949675310000003</v>
+        <v>76.911015610000007</v>
       </c>
       <c r="L20">
         <v>28.783076950000002</v>
@@ -1364,54 +1364,54 @@
         <v>77.233122519999995</v>
       </c>
       <c r="P20">
-        <v>28.69616705</v>
+        <v>28.7075672</v>
       </c>
       <c r="Q20">
-        <v>77.255675030000006</v>
-      </c>
-      <c r="S20">
-        <v>28.744960809999998</v>
+        <v>77.281159840000001</v>
       </c>
       <c r="T20">
-        <v>77.063765380000007</v>
-      </c>
-      <c r="V20">
-        <v>28.63521059</v>
-      </c>
-      <c r="W20">
-        <v>77.293626889999999</v>
+        <v>28.769206539999999</v>
+      </c>
+      <c r="U20">
+        <v>77.087051650000006</v>
+      </c>
+      <c r="X20">
+        <v>28.582702919999999</v>
       </c>
       <c r="Y20">
-        <v>28.637968959999998</v>
-      </c>
-      <c r="Z20">
-        <v>77.078894160000004</v>
+        <v>77.311580629999995</v>
+      </c>
+      <c r="AA20">
+        <v>28.673375960000001</v>
       </c>
       <c r="AB20">
-        <v>28.851504030000001</v>
-      </c>
-      <c r="AC20">
-        <v>77.019884610000005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.096255720000002</v>
+      </c>
+      <c r="AD20">
+        <v>28.761937159999999</v>
+      </c>
+      <c r="AE20">
+        <v>77.008224859999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>28.5239391</v>
+        <v>28.505833890000002</v>
       </c>
       <c r="B21">
-        <v>77.159434050000002</v>
+        <v>77.189284459999996</v>
+      </c>
+      <c r="E21">
+        <v>28.592752440000002</v>
       </c>
       <c r="F21">
-        <v>28.516541400000001</v>
-      </c>
-      <c r="G21">
-        <v>77.210389430000006</v>
+        <v>77.213075849999996</v>
       </c>
       <c r="I21">
-        <v>28.551443859999999</v>
+        <v>28.535111659999998</v>
       </c>
       <c r="J21">
-        <v>76.953806540000002</v>
+        <v>76.888026949999997</v>
       </c>
       <c r="L21">
         <v>28.686837879999999</v>
@@ -1420,54 +1420,54 @@
         <v>77.257655159999999</v>
       </c>
       <c r="P21">
-        <v>28.673493870000001</v>
+        <v>28.693406410000001</v>
       </c>
       <c r="Q21">
-        <v>77.262669610000003</v>
-      </c>
-      <c r="S21">
-        <v>28.81039109</v>
+        <v>77.264687940000002</v>
       </c>
       <c r="T21">
-        <v>77.132037330000003</v>
-      </c>
-      <c r="V21">
-        <v>28.587260929999999</v>
-      </c>
-      <c r="W21">
-        <v>77.293289110000003</v>
+        <v>28.80257838</v>
+      </c>
+      <c r="U21">
+        <v>77.055105699999999</v>
+      </c>
+      <c r="X21">
+        <v>28.620358320000001</v>
       </c>
       <c r="Y21">
-        <v>28.649180309999998</v>
-      </c>
-      <c r="Z21">
-        <v>77.169993640000001</v>
+        <v>77.267864639999999</v>
+      </c>
+      <c r="AA21">
+        <v>28.634386729999999</v>
       </c>
       <c r="AB21">
-        <v>28.82271961</v>
-      </c>
-      <c r="AC21">
-        <v>77.143145020000006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.07661847</v>
+      </c>
+      <c r="AD21">
+        <v>28.813975240000001</v>
+      </c>
+      <c r="AE21">
+        <v>76.997237200000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>28.436657520000001</v>
+        <v>28.466612810000001</v>
       </c>
       <c r="B22">
-        <v>77.160950830000004</v>
+        <v>77.243472879999999</v>
+      </c>
+      <c r="E22">
+        <v>28.53322064</v>
       </c>
       <c r="F22">
-        <v>28.606736529999999</v>
-      </c>
-      <c r="G22">
-        <v>77.22365594</v>
+        <v>77.337183069999995</v>
       </c>
       <c r="I22">
-        <v>28.532219019999999</v>
+        <v>28.532895419999999</v>
       </c>
       <c r="J22">
-        <v>76.991176100000004</v>
+        <v>76.885615529999995</v>
       </c>
       <c r="L22">
         <v>28.64792572</v>
@@ -1476,54 +1476,54 @@
         <v>77.213388679999994</v>
       </c>
       <c r="P22">
-        <v>28.690213180000001</v>
+        <v>28.687923649999998</v>
       </c>
       <c r="Q22">
-        <v>77.28278177</v>
-      </c>
-      <c r="S22">
-        <v>28.73255794</v>
+        <v>77.266012459999999</v>
       </c>
       <c r="T22">
-        <v>77.084544620000003</v>
-      </c>
-      <c r="V22">
-        <v>28.660891100000001</v>
-      </c>
-      <c r="W22">
-        <v>77.320480099999997</v>
+        <v>28.726471060000002</v>
+      </c>
+      <c r="U22">
+        <v>77.009386730000003</v>
+      </c>
+      <c r="X22">
+        <v>28.58586094</v>
       </c>
       <c r="Y22">
-        <v>28.65045697</v>
-      </c>
-      <c r="Z22">
-        <v>77.139992620000001</v>
+        <v>77.343041909999997</v>
+      </c>
+      <c r="AA22">
+        <v>28.67273939</v>
       </c>
       <c r="AB22">
-        <v>28.84401411</v>
-      </c>
-      <c r="AC22">
-        <v>77.091987689999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.078818440000006</v>
+      </c>
+      <c r="AD22">
+        <v>28.690019029999998</v>
+      </c>
+      <c r="AE22">
+        <v>77.072969880000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>28.533467330000001</v>
+        <v>28.42708889</v>
       </c>
       <c r="B23">
-        <v>77.239981130000004</v>
+        <v>77.237097050000003</v>
+      </c>
+      <c r="E23">
+        <v>28.52009155</v>
       </c>
       <c r="F23">
-        <v>28.599595539999999</v>
-      </c>
-      <c r="G23">
-        <v>77.207633049999998</v>
+        <v>77.321132640000002</v>
       </c>
       <c r="I23">
-        <v>28.615289860000001</v>
+        <v>28.510650089999999</v>
       </c>
       <c r="J23">
-        <v>77.023187440000001</v>
+        <v>76.882218890000004</v>
       </c>
       <c r="L23">
         <v>28.660961440000001</v>
@@ -1532,54 +1532,54 @@
         <v>77.223089160000001</v>
       </c>
       <c r="P23">
-        <v>28.702831020000001</v>
+        <v>28.71050627</v>
       </c>
       <c r="Q23">
-        <v>77.234230429999997</v>
-      </c>
-      <c r="S23">
-        <v>28.794503850000002</v>
+        <v>77.275019009999994</v>
       </c>
       <c r="T23">
-        <v>77.030863920000002</v>
-      </c>
-      <c r="V23">
-        <v>28.627308419999999</v>
-      </c>
-      <c r="W23">
-        <v>77.319672049999994</v>
+        <v>28.780194120000001</v>
+      </c>
+      <c r="U23">
+        <v>77.141257490000001</v>
+      </c>
+      <c r="X23">
+        <v>28.615624199999999</v>
       </c>
       <c r="Y23">
-        <v>28.667059399999999</v>
-      </c>
-      <c r="Z23">
-        <v>77.125047440000003</v>
+        <v>77.336519420000002</v>
+      </c>
+      <c r="AA23">
+        <v>28.682054229999999</v>
       </c>
       <c r="AB23">
-        <v>28.876129819999999</v>
-      </c>
-      <c r="AC23">
-        <v>77.063037789999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.005656259999995</v>
+      </c>
+      <c r="AD23">
+        <v>28.781452139999999</v>
+      </c>
+      <c r="AE23">
+        <v>77.139235110000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>28.49344417</v>
+        <v>28.554070400000001</v>
       </c>
       <c r="B24">
-        <v>77.144248770000004</v>
+        <v>77.250280439999997</v>
+      </c>
+      <c r="E24">
+        <v>28.55343109</v>
       </c>
       <c r="F24">
-        <v>28.5452306</v>
-      </c>
-      <c r="G24">
-        <v>77.215543420000003</v>
+        <v>77.268677609999997</v>
       </c>
       <c r="I24">
-        <v>28.569591769999999</v>
+        <v>28.51027187</v>
       </c>
       <c r="J24">
-        <v>77.076932499999998</v>
+        <v>77.050644160000004</v>
       </c>
       <c r="L24">
         <v>28.634027530000001</v>
@@ -1588,54 +1588,54 @@
         <v>77.208490019999999</v>
       </c>
       <c r="P24">
-        <v>28.675467170000001</v>
+        <v>28.728800490000001</v>
       </c>
       <c r="Q24">
-        <v>77.256912470000003</v>
-      </c>
-      <c r="S24">
-        <v>28.69753944</v>
+        <v>77.266821340000007</v>
       </c>
       <c r="T24">
-        <v>77.087060289999997</v>
-      </c>
-      <c r="V24">
-        <v>28.651601450000001</v>
-      </c>
-      <c r="W24">
-        <v>77.299546410000005</v>
+        <v>28.74206564</v>
+      </c>
+      <c r="U24">
+        <v>77.089276310000002</v>
+      </c>
+      <c r="X24">
+        <v>28.595688630000001</v>
       </c>
       <c r="Y24">
-        <v>28.649490010000001</v>
-      </c>
-      <c r="Z24">
-        <v>76.981903720000005</v>
+        <v>77.271775689999998</v>
+      </c>
+      <c r="AA24">
+        <v>28.689387700000001</v>
       </c>
       <c r="AB24">
-        <v>28.785084609999998</v>
-      </c>
-      <c r="AC24">
-        <v>77.03589135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+        <v>76.979051249999998</v>
+      </c>
+      <c r="AD24">
+        <v>28.834358519999999</v>
+      </c>
+      <c r="AE24">
+        <v>77.168334799999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>28.45087294</v>
+        <v>28.45027254</v>
       </c>
       <c r="B25">
-        <v>77.151105779999995</v>
+        <v>77.202184540000005</v>
+      </c>
+      <c r="E25">
+        <v>28.52739201</v>
       </c>
       <c r="F25">
-        <v>28.527801220000001</v>
-      </c>
-      <c r="G25">
-        <v>77.278636340000006</v>
+        <v>77.336663160000001</v>
       </c>
       <c r="I25">
-        <v>28.58415561</v>
+        <v>28.621459040000001</v>
       </c>
       <c r="J25">
-        <v>76.867898109999999</v>
+        <v>76.935286860000005</v>
       </c>
       <c r="L25">
         <v>28.695528190000001</v>
@@ -1644,54 +1644,54 @@
         <v>77.186813240000006</v>
       </c>
       <c r="P25">
-        <v>28.68403902</v>
+        <v>28.681628719999999</v>
       </c>
       <c r="Q25">
-        <v>77.23567912</v>
-      </c>
-      <c r="S25">
-        <v>28.742865040000002</v>
+        <v>77.286575540000001</v>
       </c>
       <c r="T25">
-        <v>77.139345489999997</v>
-      </c>
-      <c r="V25">
-        <v>28.618889159999998</v>
-      </c>
-      <c r="W25">
-        <v>77.297070270000006</v>
+        <v>28.723916750000001</v>
+      </c>
+      <c r="U25">
+        <v>77.102150429999995</v>
+      </c>
+      <c r="X25">
+        <v>28.671927629999999</v>
       </c>
       <c r="Y25">
-        <v>28.64013512</v>
-      </c>
-      <c r="Z25">
-        <v>77.011002759999997</v>
+        <v>77.277805580000006</v>
+      </c>
+      <c r="AA25">
+        <v>28.63607532</v>
       </c>
       <c r="AB25">
-        <v>28.73247602</v>
-      </c>
-      <c r="AC25">
-        <v>77.005506260000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.051685059999997</v>
+      </c>
+      <c r="AD25">
+        <v>28.866391719999999</v>
+      </c>
+      <c r="AE25">
+        <v>77.196149489999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>28.448948260000002</v>
+        <v>28.420871980000001</v>
       </c>
       <c r="B26">
-        <v>77.210712700000002</v>
+        <v>77.257839439999998</v>
+      </c>
+      <c r="E26">
+        <v>28.57109603</v>
       </c>
       <c r="F26">
-        <v>28.56750924</v>
-      </c>
-      <c r="G26">
-        <v>77.315523519999999</v>
+        <v>77.241566719999994</v>
       </c>
       <c r="I26">
-        <v>28.56677419</v>
+        <v>28.60033322</v>
       </c>
       <c r="J26">
-        <v>77.099007209999996</v>
+        <v>77.007138119999993</v>
       </c>
       <c r="L26">
         <v>28.763967709999999</v>
@@ -1700,54 +1700,54 @@
         <v>77.200429369999995</v>
       </c>
       <c r="P26">
-        <v>28.67904618</v>
+        <v>28.73915118</v>
       </c>
       <c r="Q26">
-        <v>77.285599649999995</v>
-      </c>
-      <c r="S26">
-        <v>28.76370283</v>
+        <v>77.259786899999995</v>
       </c>
       <c r="T26">
-        <v>76.961214569999996</v>
-      </c>
-      <c r="V26">
-        <v>28.62910011</v>
-      </c>
-      <c r="W26">
-        <v>77.275943260000005</v>
+        <v>28.744937589999999</v>
+      </c>
+      <c r="U26">
+        <v>76.966998450000006</v>
+      </c>
+      <c r="X26">
+        <v>28.612403180000001</v>
       </c>
       <c r="Y26">
-        <v>28.687154570000001</v>
-      </c>
-      <c r="Z26">
-        <v>76.980361040000005</v>
+        <v>77.291521160000002</v>
+      </c>
+      <c r="AA26">
+        <v>28.667946130000001</v>
       </c>
       <c r="AB26">
-        <v>28.87318982</v>
-      </c>
-      <c r="AC26">
-        <v>77.020255680000005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.129895320000003</v>
+      </c>
+      <c r="AD26">
+        <v>28.881474539999999</v>
+      </c>
+      <c r="AE26">
+        <v>77.014568969999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>28.555761239999999</v>
+        <v>28.547220079999999</v>
       </c>
       <c r="B27">
-        <v>77.170820500000005</v>
+        <v>77.123915330000003</v>
+      </c>
+      <c r="E27">
+        <v>28.610823310000001</v>
       </c>
       <c r="F27">
-        <v>28.548455820000001</v>
-      </c>
-      <c r="G27">
-        <v>77.344746209999997</v>
+        <v>77.244846420000002</v>
       </c>
       <c r="I27">
-        <v>28.61592349</v>
+        <v>28.661893240000001</v>
       </c>
       <c r="J27">
-        <v>77.054717510000003</v>
+        <v>76.95886788</v>
       </c>
       <c r="L27">
         <v>28.769174190000001</v>
@@ -1756,54 +1756,54 @@
         <v>77.203045169999996</v>
       </c>
       <c r="P27">
-        <v>28.6662845</v>
+        <v>28.668890529999999</v>
       </c>
       <c r="Q27">
-        <v>77.241374019999995</v>
-      </c>
-      <c r="S27">
-        <v>28.725285750000001</v>
+        <v>77.290566380000001</v>
       </c>
       <c r="T27">
-        <v>77.143478909999999</v>
-      </c>
-      <c r="V27">
-        <v>28.59860325</v>
-      </c>
-      <c r="W27">
-        <v>77.315875980000001</v>
+        <v>28.674349289999999</v>
+      </c>
+      <c r="U27">
+        <v>76.97602843</v>
+      </c>
+      <c r="X27">
+        <v>28.657883380000001</v>
       </c>
       <c r="Y27">
-        <v>28.652568639999998</v>
-      </c>
-      <c r="Z27">
-        <v>77.125288819999994</v>
+        <v>77.338470720000004</v>
+      </c>
+      <c r="AA27">
+        <v>28.635214340000001</v>
       </c>
       <c r="AB27">
-        <v>28.804750240000001</v>
-      </c>
-      <c r="AC27">
-        <v>77.156862529999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.143392980000002</v>
+      </c>
+      <c r="AD27">
+        <v>28.760671089999999</v>
+      </c>
+      <c r="AE27">
+        <v>77.073424309999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>28.512142440000002</v>
+        <v>28.471132069999999</v>
       </c>
       <c r="B28">
-        <v>77.137032820000002</v>
+        <v>77.239354750000004</v>
+      </c>
+      <c r="E28">
+        <v>28.552445339999998</v>
       </c>
       <c r="F28">
-        <v>28.611111619999999</v>
-      </c>
-      <c r="G28">
-        <v>77.321582079999999</v>
+        <v>77.28122947</v>
       </c>
       <c r="I28">
-        <v>28.634353239999999</v>
+        <v>28.617446430000001</v>
       </c>
       <c r="J28">
-        <v>77.034849159999993</v>
+        <v>77.025411610000006</v>
       </c>
       <c r="L28">
         <v>28.701106469999999</v>
@@ -1812,54 +1812,54 @@
         <v>77.231346880000004</v>
       </c>
       <c r="P28">
-        <v>28.70018649</v>
+        <v>28.783208120000001</v>
       </c>
       <c r="Q28">
-        <v>77.257561199999998</v>
-      </c>
-      <c r="S28">
-        <v>28.819969709999999</v>
+        <v>77.260477010000002</v>
       </c>
       <c r="T28">
-        <v>76.985599239999999</v>
-      </c>
-      <c r="V28">
-        <v>28.577948620000001</v>
-      </c>
-      <c r="W28">
-        <v>77.288425720000006</v>
+        <v>28.693751540000001</v>
+      </c>
+      <c r="U28">
+        <v>76.977432930000006</v>
+      </c>
+      <c r="X28">
+        <v>28.663033970000001</v>
       </c>
       <c r="Y28">
-        <v>28.688479990000001</v>
-      </c>
-      <c r="Z28">
-        <v>77.061798409999994</v>
+        <v>77.316249659999997</v>
+      </c>
+      <c r="AA28">
+        <v>28.683049449999999</v>
       </c>
       <c r="AB28">
-        <v>28.76893626</v>
-      </c>
-      <c r="AC28">
-        <v>77.197649100000007</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.084584849999999</v>
+      </c>
+      <c r="AD28">
+        <v>28.8231799</v>
+      </c>
+      <c r="AE28">
+        <v>76.995440430000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28.531992379999998</v>
+        <v>28.46730067</v>
       </c>
       <c r="B29">
-        <v>77.182386579999999</v>
+        <v>77.220702270000004</v>
+      </c>
+      <c r="E29">
+        <v>28.608916369999999</v>
       </c>
       <c r="F29">
-        <v>28.544299389999999</v>
-      </c>
-      <c r="G29">
-        <v>77.222515250000001</v>
+        <v>77.216912679999993</v>
       </c>
       <c r="I29">
-        <v>28.53428826</v>
+        <v>28.58021432</v>
       </c>
       <c r="J29">
-        <v>76.946419050000003</v>
+        <v>76.969459069999999</v>
       </c>
       <c r="L29">
         <v>28.677032189999998</v>
@@ -1868,54 +1868,54 @@
         <v>77.235078720000004</v>
       </c>
       <c r="P29">
-        <v>28.689090419999999</v>
+        <v>28.667473860000001</v>
       </c>
       <c r="Q29">
-        <v>77.263526400000003</v>
-      </c>
-      <c r="S29">
-        <v>28.71928063</v>
+        <v>77.266477230000007</v>
       </c>
       <c r="T29">
-        <v>77.018484729999997</v>
-      </c>
-      <c r="V29">
-        <v>28.60262273</v>
-      </c>
-      <c r="W29">
-        <v>77.337350979999997</v>
+        <v>28.75670071</v>
+      </c>
+      <c r="U29">
+        <v>77.083104599999999</v>
+      </c>
+      <c r="X29">
+        <v>28.62546588</v>
       </c>
       <c r="Y29">
-        <v>28.631365219999999</v>
-      </c>
-      <c r="Z29">
-        <v>77.075058119999994</v>
+        <v>77.259201349999998</v>
+      </c>
+      <c r="AA29">
+        <v>28.66018906</v>
       </c>
       <c r="AB29">
-        <v>28.760963230000002</v>
-      </c>
-      <c r="AC29">
-        <v>77.024069879999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.017643340000006</v>
+      </c>
+      <c r="AD29">
+        <v>28.742666199999999</v>
+      </c>
+      <c r="AE29">
+        <v>77.151655030000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>28.522345170000001</v>
+        <v>28.462171600000001</v>
       </c>
       <c r="B30">
-        <v>77.231479699999994</v>
+        <v>77.144649639999997</v>
+      </c>
+      <c r="E30">
+        <v>28.543571109999998</v>
       </c>
       <c r="F30">
-        <v>28.566309539999999</v>
-      </c>
-      <c r="G30">
-        <v>77.282933970000002</v>
+        <v>77.251067570000004</v>
       </c>
       <c r="I30">
-        <v>28.59839217</v>
+        <v>28.66986284</v>
       </c>
       <c r="J30">
-        <v>76.898117810000002</v>
+        <v>77.056640049999999</v>
       </c>
       <c r="L30">
         <v>28.701020029999999</v>
@@ -1924,54 +1924,54 @@
         <v>77.223486050000005</v>
       </c>
       <c r="P30">
-        <v>28.66923895</v>
+        <v>28.719983379999999</v>
       </c>
       <c r="Q30">
-        <v>77.254197529999999</v>
-      </c>
-      <c r="S30">
-        <v>28.692093880000002</v>
+        <v>77.253554050000005</v>
       </c>
       <c r="T30">
-        <v>76.964233269999994</v>
-      </c>
-      <c r="V30">
-        <v>28.60228768</v>
-      </c>
-      <c r="W30">
-        <v>77.299242079999999</v>
+        <v>28.80868693</v>
+      </c>
+      <c r="U30">
+        <v>76.979135790000001</v>
+      </c>
+      <c r="X30">
+        <v>28.65247123</v>
       </c>
       <c r="Y30">
-        <v>28.679716819999999</v>
-      </c>
-      <c r="Z30">
-        <v>77.040225500000005</v>
+        <v>77.33310668</v>
+      </c>
+      <c r="AA30">
+        <v>28.653203860000001</v>
       </c>
       <c r="AB30">
-        <v>28.832147689999999</v>
-      </c>
-      <c r="AC30">
-        <v>77.023497689999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.133320010000006</v>
+      </c>
+      <c r="AD30">
+        <v>28.8417393</v>
+      </c>
+      <c r="AE30">
+        <v>76.97827513</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>28.420732090000001</v>
+        <v>28.546492300000001</v>
       </c>
       <c r="B31">
-        <v>77.168123370000004</v>
+        <v>77.160223700000003</v>
+      </c>
+      <c r="E31">
+        <v>28.555687880000001</v>
       </c>
       <c r="F31">
-        <v>28.582653149999999</v>
-      </c>
-      <c r="G31">
-        <v>77.304935259999993</v>
+        <v>77.257822540000006</v>
       </c>
       <c r="I31">
-        <v>28.548998439999998</v>
+        <v>28.532486429999999</v>
       </c>
       <c r="J31">
-        <v>77.001930779999995</v>
+        <v>76.972280510000004</v>
       </c>
       <c r="L31">
         <v>28.702851079999999</v>
@@ -1980,54 +1980,54 @@
         <v>77.21633061</v>
       </c>
       <c r="P31">
-        <v>28.671340749999999</v>
+        <v>28.66565692</v>
       </c>
       <c r="Q31">
-        <v>77.245485700000003</v>
-      </c>
-      <c r="S31">
-        <v>28.691487339999998</v>
+        <v>77.243742069999996</v>
       </c>
       <c r="T31">
-        <v>77.121046620000001</v>
-      </c>
-      <c r="V31">
-        <v>28.66392218</v>
-      </c>
-      <c r="W31">
-        <v>77.288521540000005</v>
+        <v>28.812485800000001</v>
+      </c>
+      <c r="U31">
+        <v>77.084934169999997</v>
+      </c>
+      <c r="X31">
+        <v>28.662279210000001</v>
       </c>
       <c r="Y31">
-        <v>28.675327240000001</v>
-      </c>
-      <c r="Z31">
-        <v>77.095591850000005</v>
+        <v>77.315865959999996</v>
+      </c>
+      <c r="AA31">
+        <v>28.650093210000001</v>
       </c>
       <c r="AB31">
-        <v>28.84938987</v>
-      </c>
-      <c r="AC31">
-        <v>76.981930750000004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.084216830000003</v>
+      </c>
+      <c r="AD31">
+        <v>28.78617242</v>
+      </c>
+      <c r="AE31">
+        <v>77.214230709999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>28.532467910000001</v>
+        <v>28.456703999999998</v>
       </c>
       <c r="B32">
-        <v>77.185335420000001</v>
+        <v>77.180097149999995</v>
+      </c>
+      <c r="E32">
+        <v>28.600246250000001</v>
       </c>
       <c r="F32">
-        <v>28.54386358</v>
-      </c>
-      <c r="G32">
-        <v>77.224624109999993</v>
+        <v>77.217011889999995</v>
       </c>
       <c r="I32">
-        <v>28.610319759999999</v>
+        <v>28.52797266</v>
       </c>
       <c r="J32">
-        <v>76.897603079999996</v>
+        <v>76.896594899999997</v>
       </c>
       <c r="L32">
         <v>28.76401925</v>
@@ -2036,54 +2036,54 @@
         <v>77.249029129999997</v>
       </c>
       <c r="P32">
-        <v>28.68065648</v>
+        <v>28.72808509</v>
       </c>
       <c r="Q32">
-        <v>77.248144670000002</v>
-      </c>
-      <c r="S32">
-        <v>28.79672489</v>
+        <v>77.284311369999998</v>
       </c>
       <c r="T32">
-        <v>77.015044939999996</v>
-      </c>
-      <c r="V32">
-        <v>28.581309709999999</v>
-      </c>
-      <c r="W32">
-        <v>77.259296169999999</v>
+        <v>28.74209038</v>
+      </c>
+      <c r="U32">
+        <v>77.116957979999995</v>
+      </c>
+      <c r="X32">
+        <v>28.614647730000002</v>
       </c>
       <c r="Y32">
-        <v>28.652521050000001</v>
-      </c>
-      <c r="Z32">
-        <v>77.048826030000001</v>
+        <v>77.300351269999993</v>
+      </c>
+      <c r="AA32">
+        <v>28.633780250000001</v>
       </c>
       <c r="AB32">
-        <v>28.849489590000001</v>
-      </c>
-      <c r="AC32">
-        <v>77.032557839999996</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.097554099999996</v>
+      </c>
+      <c r="AD32">
+        <v>28.846107069999999</v>
+      </c>
+      <c r="AE32">
+        <v>77.179408409999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>28.498851500000001</v>
+        <v>28.508012780000001</v>
       </c>
       <c r="B33">
-        <v>77.16249449</v>
+        <v>77.158120080000003</v>
+      </c>
+      <c r="E33">
+        <v>28.569014289999998</v>
       </c>
       <c r="F33">
-        <v>28.524533699999999</v>
-      </c>
-      <c r="G33">
-        <v>77.254047830000005</v>
+        <v>77.301951419999995</v>
       </c>
       <c r="I33">
-        <v>28.65541593</v>
+        <v>28.53302073</v>
       </c>
       <c r="J33">
-        <v>77.055381069999996</v>
+        <v>77.035512530000005</v>
       </c>
       <c r="L33">
         <v>28.623313469999999</v>
@@ -2092,54 +2092,54 @@
         <v>77.245283000000001</v>
       </c>
       <c r="P33">
-        <v>28.684478169999998</v>
+        <v>28.750865050000002</v>
       </c>
       <c r="Q33">
-        <v>77.269292489999998</v>
-      </c>
-      <c r="S33">
-        <v>28.71614615</v>
+        <v>77.239992970000003</v>
       </c>
       <c r="T33">
-        <v>77.125704909999996</v>
-      </c>
-      <c r="V33">
-        <v>28.604332930000002</v>
-      </c>
-      <c r="W33">
-        <v>77.277719289999993</v>
+        <v>28.788765130000002</v>
+      </c>
+      <c r="U33">
+        <v>76.952298389999996</v>
+      </c>
+      <c r="X33">
+        <v>28.586813880000001</v>
       </c>
       <c r="Y33">
-        <v>28.638371660000001</v>
-      </c>
-      <c r="Z33">
-        <v>77.001748050000003</v>
+        <v>77.320703019999996</v>
+      </c>
+      <c r="AA33">
+        <v>28.665609119999999</v>
       </c>
       <c r="AB33">
-        <v>28.78975273</v>
-      </c>
-      <c r="AC33">
-        <v>77.178553399999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.067427570000007</v>
+      </c>
+      <c r="AD33">
+        <v>28.87805548</v>
+      </c>
+      <c r="AE33">
+        <v>77.160751210000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>28.419211929999999</v>
+        <v>28.464154369999999</v>
       </c>
       <c r="B34">
-        <v>77.186575450000007</v>
+        <v>77.190155450000006</v>
+      </c>
+      <c r="E34">
+        <v>28.594298940000002</v>
       </c>
       <c r="F34">
-        <v>28.557105320000002</v>
-      </c>
-      <c r="G34">
-        <v>77.272175009999998</v>
+        <v>77.267441259999998</v>
       </c>
       <c r="I34">
-        <v>28.587469380000002</v>
+        <v>28.657058320000001</v>
       </c>
       <c r="J34">
-        <v>76.965066350000001</v>
+        <v>76.867345220000004</v>
       </c>
       <c r="L34">
         <v>28.630858190000001</v>
@@ -2148,54 +2148,54 @@
         <v>77.247022319999999</v>
       </c>
       <c r="P34">
-        <v>28.669290190000002</v>
+        <v>28.665471570000001</v>
       </c>
       <c r="Q34">
-        <v>77.240575590000006</v>
-      </c>
-      <c r="S34">
-        <v>28.768424920000001</v>
+        <v>77.286595030000001</v>
       </c>
       <c r="T34">
-        <v>77.073144780000007</v>
-      </c>
-      <c r="V34">
-        <v>28.583862830000001</v>
-      </c>
-      <c r="W34">
-        <v>77.318904829999994</v>
+        <v>28.67033619</v>
+      </c>
+      <c r="U34">
+        <v>77.025546550000001</v>
+      </c>
+      <c r="X34">
+        <v>28.65684242</v>
       </c>
       <c r="Y34">
-        <v>28.644930339999998</v>
-      </c>
-      <c r="Z34">
-        <v>77.155971059999999</v>
+        <v>77.27858741</v>
+      </c>
+      <c r="AA34">
+        <v>28.657326269999999</v>
       </c>
       <c r="AB34">
-        <v>28.81874187</v>
-      </c>
-      <c r="AC34">
-        <v>77.151212299999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+        <v>76.965751310000002</v>
+      </c>
+      <c r="AD34">
+        <v>28.70906471</v>
+      </c>
+      <c r="AE34">
+        <v>77.133461310000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>28.480818159999998</v>
+        <v>28.425335100000002</v>
       </c>
       <c r="B35">
-        <v>77.217597010000006</v>
+        <v>77.160773750000004</v>
+      </c>
+      <c r="E35">
+        <v>28.496587139999999</v>
       </c>
       <c r="F35">
-        <v>28.487383040000001</v>
-      </c>
-      <c r="G35">
-        <v>77.225036889999998</v>
+        <v>77.269929989999994</v>
       </c>
       <c r="I35">
-        <v>28.52919163</v>
+        <v>28.542547039999999</v>
       </c>
       <c r="J35">
-        <v>76.938257730000004</v>
+        <v>77.047388859999998</v>
       </c>
       <c r="L35">
         <v>28.626443819999999</v>
@@ -2204,54 +2204,54 @@
         <v>77.214360360000001</v>
       </c>
       <c r="P35">
-        <v>28.67068815</v>
+        <v>28.687453430000001</v>
       </c>
       <c r="Q35">
-        <v>77.276919629999995</v>
-      </c>
-      <c r="S35">
-        <v>28.70111137</v>
+        <v>77.274851580000004</v>
       </c>
       <c r="T35">
-        <v>76.983044629999995</v>
-      </c>
-      <c r="V35">
-        <v>28.635966660000001</v>
-      </c>
-      <c r="W35">
-        <v>77.295355189999995</v>
+        <v>28.678840390000001</v>
+      </c>
+      <c r="U35">
+        <v>76.961457909999993</v>
+      </c>
+      <c r="X35">
+        <v>28.664107749999999</v>
       </c>
       <c r="Y35">
-        <v>28.67957479</v>
-      </c>
-      <c r="Z35">
-        <v>77.067237890000001</v>
+        <v>77.315511200000003</v>
+      </c>
+      <c r="AA35">
+        <v>28.654552549999998</v>
       </c>
       <c r="AB35">
-        <v>28.799087759999999</v>
-      </c>
-      <c r="AC35">
-        <v>77.154781400000005</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.003835409999994</v>
+      </c>
+      <c r="AD35">
+        <v>28.825999450000001</v>
+      </c>
+      <c r="AE35">
+        <v>77.040706520000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>28.558686219999998</v>
+        <v>28.463945599999999</v>
       </c>
       <c r="B36">
-        <v>77.218607090000006</v>
+        <v>77.210011699999995</v>
+      </c>
+      <c r="E36">
+        <v>28.52347911</v>
       </c>
       <c r="F36">
-        <v>28.488736100000001</v>
-      </c>
-      <c r="G36">
-        <v>77.298235329999997</v>
+        <v>77.232435429999995</v>
       </c>
       <c r="I36">
-        <v>28.610911430000002</v>
+        <v>28.64297307</v>
       </c>
       <c r="J36">
-        <v>76.971244799999994</v>
+        <v>76.988393029999997</v>
       </c>
       <c r="L36">
         <v>28.68908192</v>
@@ -2260,54 +2260,54 @@
         <v>77.200383090000003</v>
       </c>
       <c r="P36">
-        <v>28.695703739999999</v>
+        <v>28.742400780000001</v>
       </c>
       <c r="Q36">
-        <v>77.269893150000001</v>
-      </c>
-      <c r="S36">
-        <v>28.755238110000001</v>
+        <v>77.261582899999993</v>
       </c>
       <c r="T36">
-        <v>76.986699020000003</v>
-      </c>
-      <c r="V36">
-        <v>28.593053829999999</v>
-      </c>
-      <c r="W36">
-        <v>77.281598889999998</v>
+        <v>28.789924670000001</v>
+      </c>
+      <c r="U36">
+        <v>77.130227259999998</v>
+      </c>
+      <c r="X36">
+        <v>28.668742999999999</v>
       </c>
       <c r="Y36">
-        <v>28.692114920000002</v>
-      </c>
-      <c r="Z36">
-        <v>77.065522000000001</v>
+        <v>77.300395760000001</v>
+      </c>
+      <c r="AA36">
+        <v>28.695663410000002</v>
       </c>
       <c r="AB36">
-        <v>28.747729029999999</v>
-      </c>
-      <c r="AC36">
-        <v>77.166911670000005</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.010539030000004</v>
+      </c>
+      <c r="AD36">
+        <v>28.725786020000001</v>
+      </c>
+      <c r="AE36">
+        <v>77.204445939999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>28.441320300000001</v>
+        <v>28.50065055</v>
       </c>
       <c r="B37">
-        <v>77.172783150000001</v>
+        <v>77.264442720000005</v>
+      </c>
+      <c r="E37">
+        <v>28.49648564</v>
       </c>
       <c r="F37">
-        <v>28.542608520000002</v>
-      </c>
-      <c r="G37">
-        <v>77.242054749999994</v>
+        <v>77.338829279999999</v>
       </c>
       <c r="I37">
-        <v>28.586205580000001</v>
+        <v>28.603604520000001</v>
       </c>
       <c r="J37">
-        <v>76.864123989999996</v>
+        <v>77.084182299999995</v>
       </c>
       <c r="L37">
         <v>28.747409940000001</v>
@@ -2316,54 +2316,54 @@
         <v>77.189630589999993</v>
       </c>
       <c r="P37">
-        <v>28.66787416</v>
+        <v>28.69564811</v>
       </c>
       <c r="Q37">
-        <v>77.266410440000001</v>
-      </c>
-      <c r="S37">
-        <v>28.81221815</v>
+        <v>77.278031069999997</v>
       </c>
       <c r="T37">
-        <v>77.049458060000006</v>
-      </c>
-      <c r="V37">
-        <v>28.621191469999999</v>
-      </c>
-      <c r="W37">
-        <v>77.328499239999999</v>
+        <v>28.678600719999999</v>
+      </c>
+      <c r="U37">
+        <v>77.139880340000005</v>
+      </c>
+      <c r="X37">
+        <v>28.582080040000001</v>
       </c>
       <c r="Y37">
-        <v>28.631927950000001</v>
-      </c>
-      <c r="Z37">
-        <v>77.119435010000004</v>
+        <v>77.271911119999999</v>
+      </c>
+      <c r="AA37">
+        <v>28.690478939999998</v>
       </c>
       <c r="AB37">
-        <v>28.755858150000002</v>
-      </c>
-      <c r="AC37">
-        <v>77.017046550000003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.015302629999994</v>
+      </c>
+      <c r="AD37">
+        <v>28.819772830000002</v>
+      </c>
+      <c r="AE37">
+        <v>77.093684789999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>28.459348599999998</v>
+        <v>28.514244850000001</v>
       </c>
       <c r="B38">
-        <v>77.184250039999995</v>
+        <v>77.176708809999994</v>
+      </c>
+      <c r="E38">
+        <v>28.536417749999998</v>
       </c>
       <c r="F38">
-        <v>28.49965628</v>
-      </c>
-      <c r="G38">
-        <v>77.204575489999996</v>
+        <v>77.333138509999998</v>
       </c>
       <c r="I38">
-        <v>28.552816140000001</v>
+        <v>28.5919487</v>
       </c>
       <c r="J38">
-        <v>76.935772900000003</v>
+        <v>77.057647099999997</v>
       </c>
       <c r="L38">
         <v>28.658277030000001</v>
@@ -2372,54 +2372,54 @@
         <v>77.230273260000004</v>
       </c>
       <c r="P38">
-        <v>28.67658179</v>
+        <v>28.73556799</v>
       </c>
       <c r="Q38">
-        <v>77.254697780000001</v>
-      </c>
-      <c r="S38">
-        <v>28.740884380000001</v>
+        <v>77.277430280000004</v>
       </c>
       <c r="T38">
-        <v>76.997458640000005</v>
-      </c>
-      <c r="V38">
-        <v>28.635996070000001</v>
-      </c>
-      <c r="W38">
-        <v>77.305112219999998</v>
+        <v>28.681171259999999</v>
+      </c>
+      <c r="U38">
+        <v>77.056055020000002</v>
+      </c>
+      <c r="X38">
+        <v>28.61357452</v>
       </c>
       <c r="Y38">
-        <v>28.680302900000001</v>
-      </c>
-      <c r="Z38">
-        <v>77.038389230000007</v>
+        <v>77.319991459999997</v>
+      </c>
+      <c r="AA38">
+        <v>28.67422023</v>
       </c>
       <c r="AB38">
-        <v>28.798800830000001</v>
-      </c>
-      <c r="AC38">
-        <v>77.163005029999994</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.107855310000005</v>
+      </c>
+      <c r="AD38">
+        <v>28.880720889999999</v>
+      </c>
+      <c r="AE38">
+        <v>77.057021230000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>28.405414260000001</v>
+        <v>28.412259850000002</v>
       </c>
       <c r="B39">
-        <v>77.236562059999997</v>
+        <v>77.235402039999997</v>
+      </c>
+      <c r="E39">
+        <v>28.55321666</v>
       </c>
       <c r="F39">
-        <v>28.605120849999999</v>
-      </c>
-      <c r="G39">
-        <v>77.302906410000006</v>
+        <v>77.339369989999994</v>
       </c>
       <c r="I39">
-        <v>28.572986839999999</v>
+        <v>28.526156740000001</v>
       </c>
       <c r="J39">
-        <v>77.039737939999995</v>
+        <v>76.955848790000005</v>
       </c>
       <c r="L39">
         <v>28.684379409999998</v>
@@ -2428,54 +2428,54 @@
         <v>77.181205860000006</v>
       </c>
       <c r="P39">
-        <v>28.691644740000001</v>
+        <v>28.69614163</v>
       </c>
       <c r="Q39">
-        <v>77.238420579999996</v>
-      </c>
-      <c r="S39">
-        <v>28.702438170000001</v>
+        <v>77.257543780000006</v>
       </c>
       <c r="T39">
-        <v>77.108631389999999</v>
-      </c>
-      <c r="V39">
-        <v>28.623758800000001</v>
-      </c>
-      <c r="W39">
-        <v>77.257406669999995</v>
+        <v>28.8014355</v>
+      </c>
+      <c r="U39">
+        <v>77.042558400000004</v>
+      </c>
+      <c r="X39">
+        <v>28.646126939999998</v>
       </c>
       <c r="Y39">
-        <v>28.687924580000001</v>
-      </c>
-      <c r="Z39">
-        <v>77.060159400000003</v>
+        <v>77.299841799999996</v>
+      </c>
+      <c r="AA39">
+        <v>28.62846236</v>
       </c>
       <c r="AB39">
-        <v>28.85384333</v>
-      </c>
-      <c r="AC39">
-        <v>77.057264219999993</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.121637890000002</v>
+      </c>
+      <c r="AD39">
+        <v>28.729319050000001</v>
+      </c>
+      <c r="AE39">
+        <v>77.008631980000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>28.409537329999999</v>
+        <v>28.487239550000002</v>
       </c>
       <c r="B40">
-        <v>77.196640009999996</v>
+        <v>77.211577700000007</v>
+      </c>
+      <c r="E40">
+        <v>28.528533700000001</v>
       </c>
       <c r="F40">
-        <v>28.575411970000001</v>
-      </c>
-      <c r="G40">
-        <v>77.283796350000003</v>
+        <v>77.234415560000002</v>
       </c>
       <c r="I40">
-        <v>28.54591323</v>
+        <v>28.609778840000001</v>
       </c>
       <c r="J40">
-        <v>76.851512310000004</v>
+        <v>76.933118050000004</v>
       </c>
       <c r="L40">
         <v>28.649412760000001</v>
@@ -2484,54 +2484,54 @@
         <v>77.242024470000004</v>
       </c>
       <c r="P40">
-        <v>28.690419769999998</v>
+        <v>28.66331018</v>
       </c>
       <c r="Q40">
-        <v>77.294868059999999</v>
-      </c>
-      <c r="S40">
-        <v>28.71866219</v>
+        <v>77.268507</v>
       </c>
       <c r="T40">
-        <v>77.047268360000004</v>
-      </c>
-      <c r="V40">
-        <v>28.614713590000001</v>
-      </c>
-      <c r="W40">
-        <v>77.258762930000003</v>
+        <v>28.719349680000001</v>
+      </c>
+      <c r="U40">
+        <v>77.119112970000003</v>
+      </c>
+      <c r="X40">
+        <v>28.615179600000001</v>
       </c>
       <c r="Y40">
-        <v>28.654712409999998</v>
-      </c>
-      <c r="Z40">
-        <v>76.962629149999998</v>
+        <v>77.337174770000004</v>
+      </c>
+      <c r="AA40">
+        <v>28.624166209999999</v>
       </c>
       <c r="AB40">
-        <v>28.873716439999999</v>
-      </c>
-      <c r="AC40">
-        <v>77.0618427</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.004811099999998</v>
+      </c>
+      <c r="AD40">
+        <v>28.713560609999998</v>
+      </c>
+      <c r="AE40">
+        <v>77.217003759999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>28.545210000000001</v>
+        <v>28.422025659999999</v>
       </c>
       <c r="B41">
-        <v>77.176041769999998</v>
+        <v>77.18132043</v>
+      </c>
+      <c r="E41">
+        <v>28.600629999999999</v>
       </c>
       <c r="F41">
-        <v>28.572103550000001</v>
-      </c>
-      <c r="G41">
-        <v>77.205734280000001</v>
+        <v>77.236101750000003</v>
       </c>
       <c r="I41">
-        <v>28.574228519999998</v>
+        <v>28.50661152</v>
       </c>
       <c r="J41">
-        <v>76.964498980000002</v>
+        <v>77.004978660000006</v>
       </c>
       <c r="L41">
         <v>28.741342769999999</v>
@@ -2540,54 +2540,54 @@
         <v>77.188165240000004</v>
       </c>
       <c r="P41">
-        <v>28.665930960000001</v>
+        <v>28.765955699999999</v>
       </c>
       <c r="Q41">
-        <v>77.287268319999995</v>
-      </c>
-      <c r="S41">
-        <v>28.770746559999999</v>
+        <v>77.249605950000003</v>
       </c>
       <c r="T41">
-        <v>76.986539059999998</v>
-      </c>
-      <c r="V41">
-        <v>28.6415544</v>
-      </c>
-      <c r="W41">
-        <v>77.301988910000006</v>
+        <v>28.726539760000001</v>
+      </c>
+      <c r="U41">
+        <v>76.99657852</v>
+      </c>
+      <c r="X41">
+        <v>28.581834700000002</v>
       </c>
       <c r="Y41">
-        <v>28.692068970000001</v>
-      </c>
-      <c r="Z41">
-        <v>76.998649900000004</v>
+        <v>77.28184933</v>
+      </c>
+      <c r="AA41">
+        <v>28.64626346</v>
       </c>
       <c r="AB41">
-        <v>28.755048970000001</v>
-      </c>
-      <c r="AC41">
-        <v>77.153943150000003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.020070039999993</v>
+      </c>
+      <c r="AD41">
+        <v>28.85449865</v>
+      </c>
+      <c r="AE41">
+        <v>76.989823090000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>28.460053769999998</v>
+        <v>28.434388800000001</v>
       </c>
       <c r="B42">
-        <v>77.170864440000003</v>
+        <v>77.263219660000004</v>
+      </c>
+      <c r="E42">
+        <v>28.53657183</v>
       </c>
       <c r="F42">
-        <v>28.60460921</v>
-      </c>
-      <c r="G42">
-        <v>77.289920519999995</v>
+        <v>77.271227190000005</v>
       </c>
       <c r="I42">
-        <v>28.612450979999998</v>
+        <v>28.523558269999999</v>
       </c>
       <c r="J42">
-        <v>76.874722770000005</v>
+        <v>76.958730529999997</v>
       </c>
       <c r="L42">
         <v>28.658366050000001</v>
@@ -2596,54 +2596,54 @@
         <v>77.175954320000002</v>
       </c>
       <c r="P42">
-        <v>28.692597540000001</v>
+        <v>28.698733350000001</v>
       </c>
       <c r="Q42">
-        <v>77.235092859999995</v>
-      </c>
-      <c r="S42">
-        <v>28.723228200000001</v>
+        <v>77.285631660000007</v>
       </c>
       <c r="T42">
-        <v>76.970987239999999</v>
-      </c>
-      <c r="V42">
-        <v>28.646147259999999</v>
-      </c>
-      <c r="W42">
-        <v>77.280661570000007</v>
+        <v>28.684803680000002</v>
+      </c>
+      <c r="U42">
+        <v>77.172115759999997</v>
+      </c>
+      <c r="X42">
+        <v>28.582853570000001</v>
       </c>
       <c r="Y42">
-        <v>28.636292990000001</v>
-      </c>
-      <c r="Z42">
-        <v>76.963690720000002</v>
+        <v>77.307700589999996</v>
+      </c>
+      <c r="AA42">
+        <v>28.672416869999999</v>
       </c>
       <c r="AB42">
-        <v>28.741235240000002</v>
-      </c>
-      <c r="AC42">
-        <v>77.146494290000007</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+        <v>76.970771679999999</v>
+      </c>
+      <c r="AD42">
+        <v>28.826099689999999</v>
+      </c>
+      <c r="AE42">
+        <v>77.11449777</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>28.492824710000001</v>
+        <v>28.429950250000001</v>
       </c>
       <c r="B43">
-        <v>77.258334509999997</v>
+        <v>77.218736140000004</v>
+      </c>
+      <c r="E43">
+        <v>28.591460959999999</v>
       </c>
       <c r="F43">
-        <v>28.540376009999999</v>
-      </c>
-      <c r="G43">
-        <v>77.232232249999996</v>
+        <v>77.229985279999994</v>
       </c>
       <c r="I43">
-        <v>28.663397060000001</v>
+        <v>28.550146489999999</v>
       </c>
       <c r="J43">
-        <v>76.937129130000002</v>
+        <v>77.045194429999995</v>
       </c>
       <c r="L43">
         <v>28.626018630000001</v>
@@ -2652,54 +2652,54 @@
         <v>77.173802379999998</v>
       </c>
       <c r="P43">
-        <v>28.686510859999999</v>
+        <v>28.756319560000001</v>
       </c>
       <c r="Q43">
-        <v>77.258119030000003</v>
-      </c>
-      <c r="S43">
-        <v>28.76043228</v>
+        <v>77.289549089999994</v>
       </c>
       <c r="T43">
-        <v>76.958511540000003</v>
-      </c>
-      <c r="V43">
-        <v>28.61783801</v>
-      </c>
-      <c r="W43">
-        <v>77.279911540000001</v>
+        <v>28.707719619999999</v>
+      </c>
+      <c r="U43">
+        <v>77.123242599999998</v>
+      </c>
+      <c r="X43">
+        <v>28.595521420000001</v>
       </c>
       <c r="Y43">
-        <v>28.688828260000001</v>
-      </c>
-      <c r="Z43">
-        <v>77.109321249999994</v>
+        <v>77.334157910000002</v>
+      </c>
+      <c r="AA43">
+        <v>28.676702460000001</v>
       </c>
       <c r="AB43">
-        <v>28.856114789999999</v>
-      </c>
-      <c r="AC43">
-        <v>77.176479520000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.017304640000006</v>
+      </c>
+      <c r="AD43">
+        <v>28.765910309999999</v>
+      </c>
+      <c r="AE43">
+        <v>76.972245959999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>28.448207650000001</v>
+        <v>28.485957320000001</v>
       </c>
       <c r="B44">
-        <v>77.182281340000003</v>
+        <v>77.189355129999996</v>
+      </c>
+      <c r="E44">
+        <v>28.608081259999999</v>
       </c>
       <c r="F44">
-        <v>28.589564249999999</v>
-      </c>
-      <c r="G44">
-        <v>77.342140959999995</v>
+        <v>77.30967742</v>
       </c>
       <c r="I44">
-        <v>28.637901299999999</v>
+        <v>28.580784210000001</v>
       </c>
       <c r="J44">
-        <v>76.945087139999998</v>
+        <v>77.028633450000001</v>
       </c>
       <c r="L44">
         <v>28.74517651</v>
@@ -2708,54 +2708,54 @@
         <v>77.217076710000001</v>
       </c>
       <c r="P44">
-        <v>28.687405429999998</v>
+        <v>28.710787459999999</v>
       </c>
       <c r="Q44">
-        <v>77.284359440000003</v>
-      </c>
-      <c r="S44">
-        <v>28.73419608</v>
+        <v>77.249394100000004</v>
       </c>
       <c r="T44">
-        <v>77.114241620000001</v>
-      </c>
-      <c r="V44">
-        <v>28.601096989999998</v>
-      </c>
-      <c r="W44">
-        <v>77.276229209999997</v>
+        <v>28.7890181</v>
+      </c>
+      <c r="U44">
+        <v>77.126621490000005</v>
+      </c>
+      <c r="X44">
+        <v>28.580154619999998</v>
       </c>
       <c r="Y44">
-        <v>28.673789020000001</v>
-      </c>
-      <c r="Z44">
-        <v>77.076938760000004</v>
+        <v>77.25660748</v>
+      </c>
+      <c r="AA44">
+        <v>28.629453829999999</v>
       </c>
       <c r="AB44">
-        <v>28.744538200000001</v>
-      </c>
-      <c r="AC44">
-        <v>77.174918030000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.120838390000003</v>
+      </c>
+      <c r="AD44">
+        <v>28.718121839999998</v>
+      </c>
+      <c r="AE44">
+        <v>77.216461640000006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>28.442189429999999</v>
+        <v>28.508163629999999</v>
       </c>
       <c r="B45">
-        <v>77.16302666</v>
+        <v>77.169079310000001</v>
+      </c>
+      <c r="E45">
+        <v>28.510250339999999</v>
       </c>
       <c r="F45">
-        <v>28.604299109999999</v>
-      </c>
-      <c r="G45">
-        <v>77.283600960000001</v>
+        <v>77.279680880000001</v>
       </c>
       <c r="I45">
-        <v>28.622278349999998</v>
+        <v>28.640595340000001</v>
       </c>
       <c r="J45">
-        <v>77.005691260000006</v>
+        <v>76.958854180000003</v>
       </c>
       <c r="L45">
         <v>28.7308761</v>
@@ -2764,54 +2764,54 @@
         <v>77.253261230000007</v>
       </c>
       <c r="P45">
-        <v>28.699635990000001</v>
+        <v>28.695362769999999</v>
       </c>
       <c r="Q45">
-        <v>77.23655128</v>
-      </c>
-      <c r="S45">
-        <v>28.728307610000002</v>
+        <v>77.237172470000004</v>
       </c>
       <c r="T45">
-        <v>76.980444309999996</v>
-      </c>
-      <c r="V45">
-        <v>28.598604850000001</v>
-      </c>
-      <c r="W45">
-        <v>77.328740699999997</v>
+        <v>28.758482740000002</v>
+      </c>
+      <c r="U45">
+        <v>76.97295622</v>
+      </c>
+      <c r="X45">
+        <v>28.67159818</v>
       </c>
       <c r="Y45">
-        <v>28.695922809999999</v>
-      </c>
-      <c r="Z45">
-        <v>76.990172110000003</v>
+        <v>77.308351400000006</v>
+      </c>
+      <c r="AA45">
+        <v>28.697321219999999</v>
       </c>
       <c r="AB45">
-        <v>28.791306850000002</v>
-      </c>
-      <c r="AC45">
-        <v>77.102173280000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.014752340000001</v>
+      </c>
+      <c r="AD45">
+        <v>28.721632960000001</v>
+      </c>
+      <c r="AE45">
+        <v>77.204927440000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>28.419825299999999</v>
+        <v>28.557068999999998</v>
       </c>
       <c r="B46">
-        <v>77.2118167</v>
+        <v>77.205804290000003</v>
+      </c>
+      <c r="E46">
+        <v>28.552591629999998</v>
       </c>
       <c r="F46">
-        <v>28.488902979999999</v>
-      </c>
-      <c r="G46">
-        <v>77.226428569999996</v>
+        <v>77.304725390000002</v>
       </c>
       <c r="I46">
-        <v>28.650168319999999</v>
+        <v>28.634302340000001</v>
       </c>
       <c r="J46">
-        <v>76.895235</v>
+        <v>76.931095279999994</v>
       </c>
       <c r="L46">
         <v>28.665779740000001</v>
@@ -2820,54 +2820,54 @@
         <v>77.198628249999999</v>
       </c>
       <c r="P46">
-        <v>28.69921824</v>
+        <v>28.70343072</v>
       </c>
       <c r="Q46">
-        <v>77.253701370000002</v>
-      </c>
-      <c r="S46">
-        <v>28.68332861</v>
+        <v>77.247054649999995</v>
       </c>
       <c r="T46">
-        <v>77.07904619</v>
-      </c>
-      <c r="V46">
-        <v>28.583365919999999</v>
-      </c>
-      <c r="W46">
-        <v>77.277681369999996</v>
+        <v>28.718655649999999</v>
+      </c>
+      <c r="U46">
+        <v>76.974506079999998</v>
+      </c>
+      <c r="X46">
+        <v>28.635506800000002</v>
       </c>
       <c r="Y46">
-        <v>28.66628592</v>
-      </c>
-      <c r="Z46">
-        <v>77.143446780000005</v>
+        <v>77.282870549999998</v>
+      </c>
+      <c r="AA46">
+        <v>28.681578680000001</v>
       </c>
       <c r="AB46">
-        <v>28.862112620000001</v>
-      </c>
-      <c r="AC46">
-        <v>77.180216040000005</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.083220010000005</v>
+      </c>
+      <c r="AD46">
+        <v>28.735318339999999</v>
+      </c>
+      <c r="AE46">
+        <v>77.154382949999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>28.525974560000002</v>
+        <v>28.53872758</v>
       </c>
       <c r="B47">
-        <v>77.254130720000006</v>
+        <v>77.245342809999997</v>
+      </c>
+      <c r="E47">
+        <v>28.600611270000002</v>
       </c>
       <c r="F47">
-        <v>28.501313629999999</v>
-      </c>
-      <c r="G47">
-        <v>77.222100819999994</v>
+        <v>77.306362849999999</v>
       </c>
       <c r="I47">
-        <v>28.66348309</v>
+        <v>28.517303080000001</v>
       </c>
       <c r="J47">
-        <v>76.953546939999995</v>
+        <v>76.978046239999998</v>
       </c>
       <c r="L47">
         <v>28.734517270000001</v>
@@ -2876,54 +2876,54 @@
         <v>77.249524870000002</v>
       </c>
       <c r="P47">
-        <v>28.698860410000002</v>
+        <v>28.680126390000002</v>
       </c>
       <c r="Q47">
-        <v>77.254440270000003</v>
-      </c>
-      <c r="S47">
-        <v>28.74568605</v>
+        <v>77.265430870000003</v>
       </c>
       <c r="T47">
-        <v>77.059838670000005</v>
-      </c>
-      <c r="V47">
-        <v>28.60432565</v>
-      </c>
-      <c r="W47">
-        <v>77.276153679999993</v>
+        <v>28.715663360000001</v>
+      </c>
+      <c r="U47">
+        <v>77.165412189999998</v>
+      </c>
+      <c r="X47">
+        <v>28.59059689</v>
       </c>
       <c r="Y47">
-        <v>28.651085519999999</v>
-      </c>
-      <c r="Z47">
-        <v>77.051550610000007</v>
+        <v>77.292639500000007</v>
+      </c>
+      <c r="AA47">
+        <v>28.676762029999999</v>
       </c>
       <c r="AB47">
-        <v>28.748517280000002</v>
-      </c>
-      <c r="AC47">
-        <v>77.210973339999995</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.011133900000004</v>
+      </c>
+      <c r="AD47">
+        <v>28.763137530000002</v>
+      </c>
+      <c r="AE47">
+        <v>77.144306209999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>28.55118392</v>
+        <v>28.48476479</v>
       </c>
       <c r="B48">
-        <v>77.132506879999994</v>
+        <v>77.12250435</v>
+      </c>
+      <c r="E48">
+        <v>28.50167562</v>
       </c>
       <c r="F48">
-        <v>28.54785996</v>
-      </c>
-      <c r="G48">
-        <v>77.283455680000003</v>
+        <v>77.21213075</v>
       </c>
       <c r="I48">
-        <v>28.50690354</v>
+        <v>28.629662669999998</v>
       </c>
       <c r="J48">
-        <v>76.940784750000006</v>
+        <v>76.876662139999993</v>
       </c>
       <c r="L48">
         <v>28.650341699999998</v>
@@ -2932,54 +2932,54 @@
         <v>77.256494829999994</v>
       </c>
       <c r="P48">
-        <v>28.673248470000001</v>
+        <v>28.680705469999999</v>
       </c>
       <c r="Q48">
-        <v>77.243943639999998</v>
-      </c>
-      <c r="S48">
-        <v>28.747894129999999</v>
+        <v>77.284496959999998</v>
       </c>
       <c r="T48">
-        <v>77.067211729999997</v>
-      </c>
-      <c r="V48">
-        <v>28.634853240000002</v>
-      </c>
-      <c r="W48">
-        <v>77.333630760000005</v>
+        <v>28.750763620000001</v>
+      </c>
+      <c r="U48">
+        <v>76.976497179999996</v>
+      </c>
+      <c r="X48">
+        <v>28.62822899</v>
       </c>
       <c r="Y48">
-        <v>28.69509695</v>
-      </c>
-      <c r="Z48">
-        <v>77.122950799999998</v>
+        <v>77.26872899</v>
+      </c>
+      <c r="AA48">
+        <v>28.65300307</v>
       </c>
       <c r="AB48">
-        <v>28.87902665</v>
-      </c>
-      <c r="AC48">
-        <v>77.190980830000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.142244450000007</v>
+      </c>
+      <c r="AD48">
+        <v>28.817654619999999</v>
+      </c>
+      <c r="AE48">
+        <v>77.077696290000006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>28.407359629999998</v>
+        <v>28.447195440000002</v>
       </c>
       <c r="B49">
-        <v>77.141493969999999</v>
+        <v>77.179196160000004</v>
+      </c>
+      <c r="E49">
+        <v>28.526170390000001</v>
       </c>
       <c r="F49">
-        <v>28.58617237</v>
-      </c>
-      <c r="G49">
-        <v>77.205740370000001</v>
+        <v>77.331603090000002</v>
       </c>
       <c r="I49">
-        <v>28.660782480000002</v>
+        <v>28.662949489999999</v>
       </c>
       <c r="J49">
-        <v>76.903448049999994</v>
+        <v>76.874827960000005</v>
       </c>
       <c r="L49">
         <v>28.628743579999998</v>
@@ -2988,54 +2988,54 @@
         <v>77.226955919999995</v>
       </c>
       <c r="P49">
-        <v>28.677818599999998</v>
+        <v>28.666071899999999</v>
       </c>
       <c r="Q49">
-        <v>77.233752670000001</v>
-      </c>
-      <c r="S49">
-        <v>28.740381169999999</v>
+        <v>77.274122890000001</v>
       </c>
       <c r="T49">
-        <v>77.032083929999999</v>
-      </c>
-      <c r="V49">
-        <v>28.580981749999999</v>
-      </c>
-      <c r="W49">
-        <v>77.301405819999999</v>
+        <v>28.684362010000001</v>
+      </c>
+      <c r="U49">
+        <v>76.976680369999997</v>
+      </c>
+      <c r="X49">
+        <v>28.60684517</v>
       </c>
       <c r="Y49">
-        <v>28.68922865</v>
-      </c>
-      <c r="Z49">
-        <v>77.030713710000001</v>
+        <v>77.312527189999997</v>
+      </c>
+      <c r="AA49">
+        <v>28.633881890000001</v>
       </c>
       <c r="AB49">
-        <v>28.861194080000001</v>
-      </c>
-      <c r="AC49">
-        <v>77.156340360000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.094039660000007</v>
+      </c>
+      <c r="AD49">
+        <v>28.701684409999999</v>
+      </c>
+      <c r="AE49">
+        <v>77.206325410000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>28.555614550000001</v>
+        <v>28.47426548</v>
       </c>
       <c r="B50">
-        <v>77.202127189999999</v>
+        <v>77.14338205</v>
+      </c>
+      <c r="E50">
+        <v>28.495496660000001</v>
       </c>
       <c r="F50">
-        <v>28.57415722</v>
-      </c>
-      <c r="G50">
-        <v>77.322063459999995</v>
+        <v>77.324674180000002</v>
       </c>
       <c r="I50">
-        <v>28.54449254</v>
+        <v>28.67159784</v>
       </c>
       <c r="J50">
-        <v>76.989973750000004</v>
+        <v>77.058510830000003</v>
       </c>
       <c r="L50">
         <v>28.77329289</v>
@@ -3044,54 +3044,54 @@
         <v>77.210100490000002</v>
       </c>
       <c r="P50">
-        <v>28.701657579999999</v>
+        <v>28.687119819999999</v>
       </c>
       <c r="Q50">
-        <v>77.259984840000001</v>
-      </c>
-      <c r="S50">
-        <v>28.763540070000001</v>
+        <v>77.261389750000006</v>
       </c>
       <c r="T50">
-        <v>76.976563369999994</v>
-      </c>
-      <c r="V50">
-        <v>28.64699778</v>
-      </c>
-      <c r="W50">
-        <v>77.293002549999997</v>
+        <v>28.759260260000001</v>
+      </c>
+      <c r="U50">
+        <v>76.979265710000007</v>
+      </c>
+      <c r="X50">
+        <v>28.621080729999999</v>
       </c>
       <c r="Y50">
-        <v>28.661189190000002</v>
-      </c>
-      <c r="Z50">
-        <v>76.963029180000007</v>
+        <v>77.339799580000005</v>
+      </c>
+      <c r="AA50">
+        <v>28.696314350000002</v>
       </c>
       <c r="AB50">
-        <v>28.829668439999999</v>
-      </c>
-      <c r="AC50">
-        <v>77.056341419999995</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.126090570000002</v>
+      </c>
+      <c r="AD50">
+        <v>28.860351390000002</v>
+      </c>
+      <c r="AE50">
+        <v>76.991424219999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>28.543542720000001</v>
+        <v>28.457123299999999</v>
       </c>
       <c r="B51">
-        <v>77.197512759999995</v>
+        <v>77.189084309999998</v>
+      </c>
+      <c r="E51">
+        <v>28.536525090000001</v>
       </c>
       <c r="F51">
-        <v>28.56826302</v>
-      </c>
-      <c r="G51">
-        <v>77.27852206</v>
+        <v>77.285208280000006</v>
       </c>
       <c r="I51">
-        <v>28.570483119999999</v>
+        <v>28.61489401</v>
       </c>
       <c r="J51">
-        <v>76.944143190000005</v>
+        <v>76.984615480000002</v>
       </c>
       <c r="L51">
         <v>28.664469589999999</v>
@@ -3100,54 +3100,54 @@
         <v>77.188920640000006</v>
       </c>
       <c r="P51">
-        <v>28.685937209999999</v>
+        <v>28.66971998</v>
       </c>
       <c r="Q51">
-        <v>77.276056749999995</v>
-      </c>
-      <c r="S51">
-        <v>28.803393119999999</v>
+        <v>77.2840135</v>
       </c>
       <c r="T51">
-        <v>76.979259819999996</v>
-      </c>
-      <c r="V51">
-        <v>28.628360579999999</v>
-      </c>
-      <c r="W51">
-        <v>77.302368529999995</v>
+        <v>28.813565100000002</v>
+      </c>
+      <c r="U51">
+        <v>76.965122930000007</v>
+      </c>
+      <c r="X51">
+        <v>28.60830305</v>
       </c>
       <c r="Y51">
-        <v>28.695303039999999</v>
-      </c>
-      <c r="Z51">
-        <v>76.961068409999996</v>
+        <v>77.322677639999995</v>
+      </c>
+      <c r="AA51">
+        <v>28.636202319999999</v>
       </c>
       <c r="AB51">
-        <v>28.816249729999999</v>
-      </c>
-      <c r="AC51">
-        <v>77.068742850000007</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.042827439999996</v>
+      </c>
+      <c r="AD51">
+        <v>28.777657420000001</v>
+      </c>
+      <c r="AE51">
+        <v>77.085432530000006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>28.458940630000001</v>
+        <v>28.51938432</v>
       </c>
       <c r="B52">
-        <v>77.122509919999999</v>
+        <v>77.134747439999998</v>
+      </c>
+      <c r="E52">
+        <v>28.531150060000002</v>
       </c>
       <c r="F52">
-        <v>28.57224012</v>
-      </c>
-      <c r="G52">
-        <v>77.218855300000001</v>
+        <v>77.218092459999994</v>
       </c>
       <c r="I52">
-        <v>28.647692979999999</v>
+        <v>28.633471700000001</v>
       </c>
       <c r="J52">
-        <v>76.889970309999995</v>
+        <v>76.925951249999997</v>
       </c>
       <c r="L52">
         <v>28.745990469999999</v>
@@ -3156,54 +3156,54 @@
         <v>77.261319259999993</v>
       </c>
       <c r="P52">
-        <v>28.693569289999999</v>
+        <v>28.712722880000001</v>
       </c>
       <c r="Q52">
-        <v>77.244971609999993</v>
-      </c>
-      <c r="S52">
-        <v>28.726525710000001</v>
+        <v>77.254958759999994</v>
       </c>
       <c r="T52">
-        <v>76.987528170000004</v>
-      </c>
-      <c r="V52">
-        <v>28.659955629999999</v>
-      </c>
-      <c r="W52">
-        <v>77.262156270000006</v>
+        <v>28.78540447</v>
+      </c>
+      <c r="U52">
+        <v>77.142182230000003</v>
+      </c>
+      <c r="X52">
+        <v>28.59877346</v>
       </c>
       <c r="Y52">
-        <v>28.67904717</v>
-      </c>
-      <c r="Z52">
-        <v>77.048711240000003</v>
+        <v>77.290290159999998</v>
+      </c>
+      <c r="AA52">
+        <v>28.644944630000001</v>
       </c>
       <c r="AB52">
-        <v>28.861766209999999</v>
-      </c>
-      <c r="AC52">
-        <v>77.031201269999997</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+        <v>76.984009510000007</v>
+      </c>
+      <c r="AD52">
+        <v>28.786726940000001</v>
+      </c>
+      <c r="AE52">
+        <v>77.043374479999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>28.53322696</v>
+        <v>28.465185210000001</v>
       </c>
       <c r="B53">
-        <v>77.134481550000004</v>
+        <v>77.159700409999999</v>
+      </c>
+      <c r="E53">
+        <v>28.499588800000001</v>
       </c>
       <c r="F53">
-        <v>28.535922589999998</v>
-      </c>
-      <c r="G53">
-        <v>77.225073899999998</v>
+        <v>77.323438969999998</v>
       </c>
       <c r="I53">
-        <v>28.62889264</v>
+        <v>28.55747835</v>
       </c>
       <c r="J53">
-        <v>76.892799299999993</v>
+        <v>77.039415610000006</v>
       </c>
       <c r="L53">
         <v>28.673011420000002</v>
@@ -3212,54 +3212,54 @@
         <v>77.253622100000001</v>
       </c>
       <c r="P53">
-        <v>28.670353030000001</v>
+        <v>28.783627989999999</v>
       </c>
       <c r="Q53">
-        <v>77.238185099999995</v>
-      </c>
-      <c r="S53">
-        <v>28.69176843</v>
+        <v>77.279623560000005</v>
       </c>
       <c r="T53">
-        <v>77.152578419999998</v>
-      </c>
-      <c r="V53">
-        <v>28.605518709999998</v>
-      </c>
-      <c r="W53">
-        <v>77.310668390000004</v>
+        <v>28.723588920000001</v>
+      </c>
+      <c r="U53">
+        <v>76.967466349999995</v>
+      </c>
+      <c r="X53">
+        <v>28.611114700000002</v>
       </c>
       <c r="Y53">
-        <v>28.677627600000001</v>
-      </c>
-      <c r="Z53">
-        <v>77.063770120000001</v>
+        <v>77.282713779999995</v>
+      </c>
+      <c r="AA53">
+        <v>28.698622329999999</v>
       </c>
       <c r="AB53">
-        <v>28.745427939999999</v>
-      </c>
-      <c r="AC53">
-        <v>77.148608909999993</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.153929000000005</v>
+      </c>
+      <c r="AD53">
+        <v>28.70620787</v>
+      </c>
+      <c r="AE53">
+        <v>77.191787579999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>28.47287652</v>
+        <v>28.42770586</v>
       </c>
       <c r="B54">
-        <v>77.165010870000003</v>
+        <v>77.128273699999994</v>
+      </c>
+      <c r="E54">
+        <v>28.549332339999999</v>
       </c>
       <c r="F54">
-        <v>28.488139790000002</v>
-      </c>
-      <c r="G54">
-        <v>77.210215629999993</v>
+        <v>77.208044659999999</v>
       </c>
       <c r="I54">
-        <v>28.66363102</v>
+        <v>28.531847119999998</v>
       </c>
       <c r="J54">
-        <v>77.04581915</v>
+        <v>77.052246350000004</v>
       </c>
       <c r="L54">
         <v>28.77158133</v>
@@ -3268,434 +3268,2834 @@
         <v>77.260894010000001</v>
       </c>
       <c r="P54">
-        <v>28.677399139999999</v>
+        <v>28.683879600000001</v>
       </c>
       <c r="Q54">
-        <v>77.294601970000002</v>
-      </c>
-      <c r="S54">
-        <v>28.78058863</v>
+        <v>77.278206429999997</v>
       </c>
       <c r="T54">
-        <v>77.029427549999994</v>
-      </c>
-      <c r="V54">
-        <v>28.649400450000002</v>
-      </c>
-      <c r="W54">
-        <v>77.303612580000006</v>
+        <v>28.674094839999999</v>
+      </c>
+      <c r="U54">
+        <v>76.98399637</v>
+      </c>
+      <c r="X54">
+        <v>28.646000050000001</v>
       </c>
       <c r="Y54">
-        <v>28.681251199999998</v>
-      </c>
-      <c r="Z54">
-        <v>77.138715790000006</v>
+        <v>77.33619702</v>
+      </c>
+      <c r="AA54">
+        <v>28.670330570000001</v>
       </c>
       <c r="AB54">
-        <v>28.770114589999999</v>
-      </c>
-      <c r="AC54">
-        <v>77.197592110000002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77.173391640000006</v>
+      </c>
+      <c r="AD54">
+        <v>28.798018800000001</v>
+      </c>
+      <c r="AE54">
+        <v>77.126687669999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>28.469015089999999</v>
+      </c>
+      <c r="B55">
+        <v>77.185723060000001</v>
+      </c>
+      <c r="E55">
+        <v>28.56628491</v>
+      </c>
+      <c r="F55">
+        <v>77.297077459999997</v>
+      </c>
+      <c r="I55">
+        <v>28.661427440000001</v>
+      </c>
+      <c r="J55">
+        <v>76.999587460000001</v>
+      </c>
       <c r="L55">
         <v>28.702392410000002</v>
       </c>
       <c r="M55">
         <v>77.212673010000003</v>
       </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="P55">
+        <v>28.695991880000001</v>
+      </c>
+      <c r="Q55">
+        <v>77.273306730000002</v>
+      </c>
+      <c r="T55">
+        <v>28.766700530000001</v>
+      </c>
+      <c r="U55">
+        <v>77.084296069999994</v>
+      </c>
+      <c r="X55">
+        <v>28.576194780000002</v>
+      </c>
+      <c r="Y55">
+        <v>77.292009590000006</v>
+      </c>
+      <c r="AA55">
+        <v>28.684502699999999</v>
+      </c>
+      <c r="AB55">
+        <v>76.994422689999993</v>
+      </c>
+      <c r="AD55">
+        <v>28.850007519999998</v>
+      </c>
+      <c r="AE55">
+        <v>77.170412709999994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>28.425947560000001</v>
+      </c>
+      <c r="B56">
+        <v>77.213180949999995</v>
+      </c>
+      <c r="E56">
+        <v>28.535109160000001</v>
+      </c>
+      <c r="F56">
+        <v>77.338198509999998</v>
+      </c>
+      <c r="I56">
+        <v>28.514427300000001</v>
+      </c>
+      <c r="J56">
+        <v>76.959950129999996</v>
+      </c>
       <c r="L56">
         <v>28.64678206</v>
       </c>
       <c r="M56">
         <v>77.185682</v>
       </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="P56">
+        <v>28.722902260000001</v>
+      </c>
+      <c r="Q56">
+        <v>77.259468569999996</v>
+      </c>
+      <c r="T56">
+        <v>28.784269859999998</v>
+      </c>
+      <c r="U56">
+        <v>77.033697309999994</v>
+      </c>
+      <c r="X56">
+        <v>28.596443520000001</v>
+      </c>
+      <c r="Y56">
+        <v>77.317235699999998</v>
+      </c>
+      <c r="AA56">
+        <v>28.632369279999999</v>
+      </c>
+      <c r="AB56">
+        <v>77.084404969999994</v>
+      </c>
+      <c r="AD56">
+        <v>28.76145605</v>
+      </c>
+      <c r="AE56">
+        <v>77.213397580000006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>28.539521520000001</v>
+      </c>
+      <c r="B57">
+        <v>77.199150189999997</v>
+      </c>
+      <c r="E57">
+        <v>28.531855920000002</v>
+      </c>
+      <c r="F57">
+        <v>77.236895469999993</v>
+      </c>
+      <c r="I57">
+        <v>28.584247829999999</v>
+      </c>
+      <c r="J57">
+        <v>76.865199270000005</v>
+      </c>
       <c r="L57">
         <v>28.74137262</v>
       </c>
       <c r="M57">
         <v>77.17911986</v>
       </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="P57">
+        <v>28.696597109999999</v>
+      </c>
+      <c r="Q57">
+        <v>77.278340540000002</v>
+      </c>
+      <c r="T57">
+        <v>28.781320869999998</v>
+      </c>
+      <c r="U57">
+        <v>76.990507539999996</v>
+      </c>
+      <c r="X57">
+        <v>28.646581770000001</v>
+      </c>
+      <c r="Y57">
+        <v>77.27517967</v>
+      </c>
+      <c r="AA57">
+        <v>28.63818272</v>
+      </c>
+      <c r="AB57">
+        <v>77.160823609999994</v>
+      </c>
+      <c r="AD57">
+        <v>28.728905480000002</v>
+      </c>
+      <c r="AE57">
+        <v>77.034685499999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>28.49318792</v>
+      </c>
+      <c r="B58">
+        <v>77.204200929999999</v>
+      </c>
+      <c r="E58">
+        <v>28.504632279999999</v>
+      </c>
+      <c r="F58">
+        <v>77.207978909999994</v>
+      </c>
+      <c r="I58">
+        <v>28.52368895</v>
+      </c>
+      <c r="J58">
+        <v>77.088538540000002</v>
+      </c>
       <c r="L58">
         <v>28.747151930000001</v>
       </c>
       <c r="M58">
         <v>77.186336659999995</v>
       </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="P58">
+        <v>28.763590059999999</v>
+      </c>
+      <c r="Q58">
+        <v>77.238660870000004</v>
+      </c>
+      <c r="T58">
+        <v>28.802809830000001</v>
+      </c>
+      <c r="U58">
+        <v>77.012503409999994</v>
+      </c>
+      <c r="X58">
+        <v>28.672218229999999</v>
+      </c>
+      <c r="Y58">
+        <v>77.313848489999998</v>
+      </c>
+      <c r="AA58">
+        <v>28.662331479999999</v>
+      </c>
+      <c r="AB58">
+        <v>77.058367259999997</v>
+      </c>
+      <c r="AD58">
+        <v>28.767819670000002</v>
+      </c>
+      <c r="AE58">
+        <v>76.976010869999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>28.434193</v>
+      </c>
+      <c r="B59">
+        <v>77.231215849999998</v>
+      </c>
+      <c r="E59">
+        <v>28.600760180000002</v>
+      </c>
+      <c r="F59">
+        <v>77.253183930000006</v>
+      </c>
+      <c r="I59">
+        <v>28.658526500000001</v>
+      </c>
+      <c r="J59">
+        <v>77.037707979999993</v>
+      </c>
       <c r="L59">
         <v>28.678072669999999</v>
       </c>
       <c r="M59">
         <v>77.233820780000002</v>
       </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="P59">
+        <v>28.67859241</v>
+      </c>
+      <c r="Q59">
+        <v>77.259481370000003</v>
+      </c>
+      <c r="T59">
+        <v>28.77356447</v>
+      </c>
+      <c r="U59">
+        <v>77.019218640000005</v>
+      </c>
+      <c r="X59">
+        <v>28.62888113</v>
+      </c>
+      <c r="Y59">
+        <v>77.275170610000004</v>
+      </c>
+      <c r="AA59">
+        <v>28.64289668</v>
+      </c>
+      <c r="AB59">
+        <v>77.114831370000005</v>
+      </c>
+      <c r="AD59">
+        <v>28.784880269999999</v>
+      </c>
+      <c r="AE59">
+        <v>77.152072270000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>28.534076590000002</v>
+      </c>
+      <c r="B60">
+        <v>77.245430319999997</v>
+      </c>
+      <c r="E60">
+        <v>28.594408569999999</v>
+      </c>
+      <c r="F60">
+        <v>77.257755259999996</v>
+      </c>
+      <c r="I60">
+        <v>28.519731709999999</v>
+      </c>
+      <c r="J60">
+        <v>76.956565760000004</v>
+      </c>
       <c r="L60">
         <v>28.718525240000002</v>
       </c>
       <c r="M60">
         <v>77.229007870000004</v>
       </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="P60">
+        <v>28.742767749999999</v>
+      </c>
+      <c r="Q60">
+        <v>77.272807029999996</v>
+      </c>
+      <c r="T60">
+        <v>28.679563330000001</v>
+      </c>
+      <c r="U60">
+        <v>77.089525530000003</v>
+      </c>
+      <c r="X60">
+        <v>28.586518999999999</v>
+      </c>
+      <c r="Y60">
+        <v>77.332787929999995</v>
+      </c>
+      <c r="AA60">
+        <v>28.67969519</v>
+      </c>
+      <c r="AB60">
+        <v>77.067959439999996</v>
+      </c>
+      <c r="AD60">
+        <v>28.85128662</v>
+      </c>
+      <c r="AE60">
+        <v>76.978654939999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>28.515316299999999</v>
+      </c>
+      <c r="B61">
+        <v>77.199741070000002</v>
+      </c>
+      <c r="E61">
+        <v>28.560165359999999</v>
+      </c>
+      <c r="F61">
+        <v>77.243199809999993</v>
+      </c>
+      <c r="I61">
+        <v>28.6017443</v>
+      </c>
+      <c r="J61">
+        <v>77.006803050000002</v>
+      </c>
       <c r="L61">
         <v>28.714377129999999</v>
       </c>
       <c r="M61">
         <v>77.210001449999993</v>
       </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="P61">
+        <v>28.712689919999999</v>
+      </c>
+      <c r="Q61">
+        <v>77.275552450000006</v>
+      </c>
+      <c r="T61">
+        <v>28.723869149999999</v>
+      </c>
+      <c r="U61">
+        <v>77.141534559999997</v>
+      </c>
+      <c r="X61">
+        <v>28.58674753</v>
+      </c>
+      <c r="Y61">
+        <v>77.331036999999995</v>
+      </c>
+      <c r="AA61">
+        <v>28.687620800000001</v>
+      </c>
+      <c r="AB61">
+        <v>77.059327429999996</v>
+      </c>
+      <c r="AD61">
+        <v>28.814918819999999</v>
+      </c>
+      <c r="AE61">
+        <v>77.040367639999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>28.419393320000001</v>
+      </c>
+      <c r="B62">
+        <v>77.143610659999993</v>
+      </c>
+      <c r="E62">
+        <v>28.577157199999998</v>
+      </c>
+      <c r="F62">
+        <v>77.211439119999994</v>
+      </c>
+      <c r="I62">
+        <v>28.624388289999999</v>
+      </c>
+      <c r="J62">
+        <v>77.062817699999997</v>
+      </c>
       <c r="L62">
         <v>28.694809769999999</v>
       </c>
       <c r="M62">
         <v>77.2155755</v>
       </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="P62">
+        <v>28.694911869999999</v>
+      </c>
+      <c r="Q62">
+        <v>77.254044559999997</v>
+      </c>
+      <c r="T62">
+        <v>28.690375270000001</v>
+      </c>
+      <c r="U62">
+        <v>77.107915230000003</v>
+      </c>
+      <c r="X62">
+        <v>28.63571572</v>
+      </c>
+      <c r="Y62">
+        <v>77.304977120000004</v>
+      </c>
+      <c r="AA62">
+        <v>28.641078530000001</v>
+      </c>
+      <c r="AB62">
+        <v>77.032860560000003</v>
+      </c>
+      <c r="AD62">
+        <v>28.82416344</v>
+      </c>
+      <c r="AE62">
+        <v>77.175400749999994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>28.489324450000002</v>
+      </c>
+      <c r="B63">
+        <v>77.14120964</v>
+      </c>
+      <c r="E63">
+        <v>28.52108574</v>
+      </c>
+      <c r="F63">
+        <v>77.331799989999993</v>
+      </c>
+      <c r="I63">
+        <v>28.632886639999999</v>
+      </c>
+      <c r="J63">
+        <v>76.890192630000001</v>
+      </c>
       <c r="L63">
         <v>28.7174917</v>
       </c>
       <c r="M63">
         <v>77.175552740000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="P63">
+        <v>28.723333050000001</v>
+      </c>
+      <c r="Q63">
+        <v>77.283724809999995</v>
+      </c>
+      <c r="T63">
+        <v>28.763649619999999</v>
+      </c>
+      <c r="U63">
+        <v>77.163353810000004</v>
+      </c>
+      <c r="X63">
+        <v>28.666425579999999</v>
+      </c>
+      <c r="Y63">
+        <v>77.292971600000001</v>
+      </c>
+      <c r="AA63">
+        <v>28.648296590000001</v>
+      </c>
+      <c r="AB63">
+        <v>77.072183510000002</v>
+      </c>
+      <c r="AD63">
+        <v>28.80389194</v>
+      </c>
+      <c r="AE63">
+        <v>77.210988549999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>28.548579270000001</v>
+      </c>
+      <c r="B64">
+        <v>77.132633709999993</v>
+      </c>
+      <c r="E64">
+        <v>28.54155695</v>
+      </c>
+      <c r="F64">
+        <v>77.300680220000004</v>
+      </c>
+      <c r="I64">
+        <v>28.516224609999998</v>
+      </c>
+      <c r="J64">
+        <v>77.005024700000007</v>
+      </c>
       <c r="L64">
         <v>28.726321800000001</v>
       </c>
       <c r="M64">
         <v>77.238897679999994</v>
       </c>
-    </row>
-    <row r="65" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P64">
+        <v>28.766071100000001</v>
+      </c>
+      <c r="Q64">
+        <v>77.237474370000001</v>
+      </c>
+      <c r="T64">
+        <v>28.69668566</v>
+      </c>
+      <c r="U64">
+        <v>77.149496780000007</v>
+      </c>
+      <c r="X64">
+        <v>28.650052209999998</v>
+      </c>
+      <c r="Y64">
+        <v>77.311752420000005</v>
+      </c>
+      <c r="AA64">
+        <v>28.66655914</v>
+      </c>
+      <c r="AB64">
+        <v>77.052762630000004</v>
+      </c>
+      <c r="AD64">
+        <v>28.807821560000001</v>
+      </c>
+      <c r="AE64">
+        <v>77.013958979999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>28.547193490000002</v>
+      </c>
+      <c r="B65">
+        <v>77.172852710000001</v>
+      </c>
+      <c r="E65">
+        <v>28.567200140000001</v>
+      </c>
+      <c r="F65">
+        <v>77.215547340000001</v>
+      </c>
+      <c r="I65">
+        <v>28.628243090000002</v>
+      </c>
+      <c r="J65">
+        <v>76.918891209999998</v>
+      </c>
       <c r="L65">
         <v>28.650529330000001</v>
       </c>
       <c r="M65">
         <v>77.205720600000006</v>
       </c>
-    </row>
-    <row r="66" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P65">
+        <v>28.747675300000001</v>
+      </c>
+      <c r="Q65">
+        <v>77.284179660000007</v>
+      </c>
+      <c r="T65">
+        <v>28.671340470000001</v>
+      </c>
+      <c r="U65">
+        <v>77.070459999999997</v>
+      </c>
+      <c r="X65">
+        <v>28.657618830000001</v>
+      </c>
+      <c r="Y65">
+        <v>77.267106100000007</v>
+      </c>
+      <c r="AA65">
+        <v>28.646568500000001</v>
+      </c>
+      <c r="AB65">
+        <v>77.121150009999994</v>
+      </c>
+      <c r="AD65">
+        <v>28.714518460000001</v>
+      </c>
+      <c r="AE65">
+        <v>77.003310619999993</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>28.466674099999999</v>
+      </c>
+      <c r="B66">
+        <v>77.264323790000006</v>
+      </c>
+      <c r="E66">
+        <v>28.55913975</v>
+      </c>
+      <c r="F66">
+        <v>77.239832079999999</v>
+      </c>
+      <c r="I66">
+        <v>28.6116606</v>
+      </c>
+      <c r="J66">
+        <v>76.919115189999999</v>
+      </c>
       <c r="L66">
         <v>28.67538815</v>
       </c>
       <c r="M66">
         <v>77.184621480000004</v>
       </c>
-    </row>
-    <row r="67" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P66">
+        <v>28.66312039</v>
+      </c>
+      <c r="Q66">
+        <v>77.281254079999997</v>
+      </c>
+      <c r="T66">
+        <v>28.71199395</v>
+      </c>
+      <c r="U66">
+        <v>76.995690780000004</v>
+      </c>
+      <c r="X66">
+        <v>28.67280994</v>
+      </c>
+      <c r="Y66">
+        <v>77.331291969999995</v>
+      </c>
+      <c r="AA66">
+        <v>28.64505569</v>
+      </c>
+      <c r="AB66">
+        <v>77.088090719999997</v>
+      </c>
+      <c r="AD66">
+        <v>28.78621695</v>
+      </c>
+      <c r="AE66">
+        <v>76.968501720000006</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>28.532598830000001</v>
+      </c>
+      <c r="B67">
+        <v>77.168026420000004</v>
+      </c>
+      <c r="E67">
+        <v>28.56162973</v>
+      </c>
+      <c r="F67">
+        <v>77.213187989999994</v>
+      </c>
+      <c r="I67">
+        <v>28.589902290000001</v>
+      </c>
+      <c r="J67">
+        <v>76.853456510000001</v>
+      </c>
       <c r="L67">
         <v>28.708518290000001</v>
       </c>
       <c r="M67">
         <v>77.215175130000006</v>
       </c>
-    </row>
-    <row r="68" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P67">
+        <v>28.668783550000001</v>
+      </c>
+      <c r="Q67">
+        <v>77.286406940000006</v>
+      </c>
+      <c r="T67">
+        <v>28.765536869999998</v>
+      </c>
+      <c r="U67">
+        <v>77.002188020000006</v>
+      </c>
+      <c r="X67">
+        <v>28.586063020000001</v>
+      </c>
+      <c r="Y67">
+        <v>77.325086189999993</v>
+      </c>
+      <c r="AA67">
+        <v>28.626220750000002</v>
+      </c>
+      <c r="AB67">
+        <v>77.17296383</v>
+      </c>
+      <c r="AD67">
+        <v>28.877270759999998</v>
+      </c>
+      <c r="AE67">
+        <v>77.138563649999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>28.428470529999998</v>
+      </c>
+      <c r="B68">
+        <v>77.209222850000003</v>
+      </c>
+      <c r="E68">
+        <v>28.555558019999999</v>
+      </c>
+      <c r="F68">
+        <v>77.214020480000002</v>
+      </c>
+      <c r="I68">
+        <v>28.589019700000001</v>
+      </c>
+      <c r="J68">
+        <v>76.932395889999995</v>
+      </c>
       <c r="L68">
         <v>28.666183239999999</v>
       </c>
       <c r="M68">
         <v>77.258565320000002</v>
       </c>
-    </row>
-    <row r="69" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P68">
+        <v>28.768269419999999</v>
+      </c>
+      <c r="Q68">
+        <v>77.275379400000006</v>
+      </c>
+      <c r="T68">
+        <v>28.678433989999998</v>
+      </c>
+      <c r="U68">
+        <v>77.156391369999994</v>
+      </c>
+      <c r="X68">
+        <v>28.58064809</v>
+      </c>
+      <c r="Y68">
+        <v>77.307533070000005</v>
+      </c>
+      <c r="AA68">
+        <v>28.622213389999999</v>
+      </c>
+      <c r="AB68">
+        <v>77.038052719999996</v>
+      </c>
+      <c r="AD68">
+        <v>28.74397768</v>
+      </c>
+      <c r="AE68">
+        <v>76.983259140000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>28.55558929</v>
+      </c>
+      <c r="B69">
+        <v>77.246580359999996</v>
+      </c>
+      <c r="E69">
+        <v>28.530484879999999</v>
+      </c>
+      <c r="F69">
+        <v>77.30005294</v>
+      </c>
+      <c r="I69">
+        <v>28.526184400000002</v>
+      </c>
+      <c r="J69">
+        <v>77.028894379999997</v>
+      </c>
       <c r="L69">
         <v>28.625531200000001</v>
       </c>
       <c r="M69">
         <v>77.252693890000003</v>
       </c>
-    </row>
-    <row r="70" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P69">
+        <v>28.755736729999999</v>
+      </c>
+      <c r="Q69">
+        <v>77.264691130000003</v>
+      </c>
+      <c r="T69">
+        <v>28.807572220000001</v>
+      </c>
+      <c r="U69">
+        <v>77.171798899999999</v>
+      </c>
+      <c r="X69">
+        <v>28.600105419999998</v>
+      </c>
+      <c r="Y69">
+        <v>77.303704640000007</v>
+      </c>
+      <c r="AA69">
+        <v>28.650302270000001</v>
+      </c>
+      <c r="AB69">
+        <v>77.041775959999995</v>
+      </c>
+      <c r="AD69">
+        <v>28.806196509999999</v>
+      </c>
+      <c r="AE69">
+        <v>77.041387650000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>28.462538089999999</v>
+      </c>
+      <c r="B70">
+        <v>77.129915170000004</v>
+      </c>
+      <c r="E70">
+        <v>28.560467719999998</v>
+      </c>
+      <c r="F70">
+        <v>77.245033239999998</v>
+      </c>
+      <c r="I70">
+        <v>28.637529199999999</v>
+      </c>
+      <c r="J70">
+        <v>77.053082209999999</v>
+      </c>
       <c r="L70">
         <v>28.737494569999999</v>
       </c>
       <c r="M70">
         <v>77.259998049999993</v>
       </c>
-    </row>
-    <row r="71" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P70">
+        <v>28.702464769999999</v>
+      </c>
+      <c r="Q70">
+        <v>77.285432970000002</v>
+      </c>
+      <c r="T70">
+        <v>28.740236899999999</v>
+      </c>
+      <c r="U70">
+        <v>77.040382109999996</v>
+      </c>
+      <c r="X70">
+        <v>28.597929109999999</v>
+      </c>
+      <c r="Y70">
+        <v>77.334909199999998</v>
+      </c>
+      <c r="AA70">
+        <v>28.68514523</v>
+      </c>
+      <c r="AB70">
+        <v>76.958449299999998</v>
+      </c>
+      <c r="AD70">
+        <v>28.768209980000002</v>
+      </c>
+      <c r="AE70">
+        <v>77.068353270000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>28.449799559999999</v>
+      </c>
+      <c r="B71">
+        <v>77.208081919999998</v>
+      </c>
+      <c r="E71">
+        <v>28.488898290000002</v>
+      </c>
+      <c r="F71">
+        <v>77.221501219999993</v>
+      </c>
+      <c r="I71">
+        <v>28.614743090000001</v>
+      </c>
+      <c r="J71">
+        <v>76.851488329999995</v>
+      </c>
       <c r="L71">
         <v>28.75964265</v>
       </c>
       <c r="M71">
         <v>77.191929389999999</v>
       </c>
-    </row>
-    <row r="72" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P71">
+        <v>28.689143309999999</v>
+      </c>
+      <c r="Q71">
+        <v>77.287800399999995</v>
+      </c>
+      <c r="T71">
+        <v>28.668227779999999</v>
+      </c>
+      <c r="U71">
+        <v>77.09541806</v>
+      </c>
+      <c r="X71">
+        <v>28.58278408</v>
+      </c>
+      <c r="Y71">
+        <v>77.267802849999995</v>
+      </c>
+      <c r="AA71">
+        <v>28.665605450000001</v>
+      </c>
+      <c r="AB71">
+        <v>76.971872669999996</v>
+      </c>
+      <c r="AD71">
+        <v>28.699069489999999</v>
+      </c>
+      <c r="AE71">
+        <v>77.150911089999994</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>28.542835140000001</v>
+      </c>
+      <c r="B72">
+        <v>77.137780000000006</v>
+      </c>
+      <c r="E72">
+        <v>28.565679630000002</v>
+      </c>
+      <c r="F72">
+        <v>77.269269789999996</v>
+      </c>
+      <c r="I72">
+        <v>28.55136268</v>
+      </c>
+      <c r="J72">
+        <v>76.957596749999993</v>
+      </c>
       <c r="L72">
         <v>28.720903880000002</v>
       </c>
       <c r="M72">
         <v>77.251484579999996</v>
       </c>
-    </row>
-    <row r="73" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P72">
+        <v>28.783050129999999</v>
+      </c>
+      <c r="Q72">
+        <v>77.255620120000003</v>
+      </c>
+      <c r="T72">
+        <v>28.687061</v>
+      </c>
+      <c r="U72">
+        <v>77.178394080000004</v>
+      </c>
+      <c r="X72">
+        <v>28.60054409</v>
+      </c>
+      <c r="Y72">
+        <v>77.256987420000002</v>
+      </c>
+      <c r="AA72">
+        <v>28.68094155</v>
+      </c>
+      <c r="AB72">
+        <v>77.065385660000004</v>
+      </c>
+      <c r="AD72">
+        <v>28.706569510000001</v>
+      </c>
+      <c r="AE72">
+        <v>77.078162660000004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>28.417340840000001</v>
+      </c>
+      <c r="B73">
+        <v>77.255422789999997</v>
+      </c>
+      <c r="E73">
+        <v>28.601923190000001</v>
+      </c>
+      <c r="F73">
+        <v>77.306731439999993</v>
+      </c>
+      <c r="I73">
+        <v>28.575192149999999</v>
+      </c>
+      <c r="J73">
+        <v>76.906107129999995</v>
+      </c>
       <c r="L73">
         <v>28.780571389999999</v>
       </c>
       <c r="M73">
         <v>77.186365730000006</v>
       </c>
-    </row>
-    <row r="74" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P73">
+        <v>28.687529210000001</v>
+      </c>
+      <c r="Q73">
+        <v>77.290710439999998</v>
+      </c>
+      <c r="T73">
+        <v>28.778210949999998</v>
+      </c>
+      <c r="U73">
+        <v>77.034002540000003</v>
+      </c>
+      <c r="X73">
+        <v>28.617193589999999</v>
+      </c>
+      <c r="Y73">
+        <v>77.264908379999994</v>
+      </c>
+      <c r="AA73">
+        <v>28.66291455</v>
+      </c>
+      <c r="AB73">
+        <v>77.040810309999998</v>
+      </c>
+      <c r="AD73">
+        <v>28.772543679999998</v>
+      </c>
+      <c r="AE73">
+        <v>76.998913810000005</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>28.55268118</v>
+      </c>
+      <c r="B74">
+        <v>77.24527148</v>
+      </c>
+      <c r="E74">
+        <v>28.545354459999999</v>
+      </c>
+      <c r="F74">
+        <v>77.280382579999994</v>
+      </c>
+      <c r="I74">
+        <v>28.593223089999999</v>
+      </c>
+      <c r="J74">
+        <v>76.869474109999999</v>
+      </c>
       <c r="L74">
         <v>28.669561940000001</v>
       </c>
       <c r="M74">
         <v>77.241400350000006</v>
       </c>
-    </row>
-    <row r="75" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P74">
+        <v>28.711704579999999</v>
+      </c>
+      <c r="Q74">
+        <v>77.278005879999995</v>
+      </c>
+      <c r="T74">
+        <v>28.784139190000001</v>
+      </c>
+      <c r="U74">
+        <v>77.041861139999995</v>
+      </c>
+      <c r="X74">
+        <v>28.636654620000002</v>
+      </c>
+      <c r="Y74">
+        <v>77.304965510000002</v>
+      </c>
+      <c r="AA74">
+        <v>28.632841599999999</v>
+      </c>
+      <c r="AB74">
+        <v>77.037192250000004</v>
+      </c>
+      <c r="AD74">
+        <v>28.790218769999999</v>
+      </c>
+      <c r="AE74">
+        <v>77.001934910000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>28.499147430000001</v>
+      </c>
+      <c r="B75">
+        <v>77.212834950000001</v>
+      </c>
+      <c r="E75">
+        <v>28.60280886</v>
+      </c>
+      <c r="F75">
+        <v>77.245876280000004</v>
+      </c>
+      <c r="I75">
+        <v>28.634699049999998</v>
+      </c>
+      <c r="J75">
+        <v>76.918538249999997</v>
+      </c>
       <c r="L75">
         <v>28.71174358</v>
       </c>
       <c r="M75">
         <v>77.225359800000007</v>
       </c>
-    </row>
-    <row r="76" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P75">
+        <v>28.695926180000001</v>
+      </c>
+      <c r="Q75">
+        <v>77.244141150000004</v>
+      </c>
+      <c r="T75">
+        <v>28.760123350000001</v>
+      </c>
+      <c r="U75">
+        <v>77.141839959999999</v>
+      </c>
+      <c r="X75">
+        <v>28.659604439999999</v>
+      </c>
+      <c r="Y75">
+        <v>77.331585919999995</v>
+      </c>
+      <c r="AA75">
+        <v>28.67050965</v>
+      </c>
+      <c r="AB75">
+        <v>77.096452360000001</v>
+      </c>
+      <c r="AD75">
+        <v>28.824006990000001</v>
+      </c>
+      <c r="AE75">
+        <v>77.134356100000005</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>28.443322980000001</v>
+      </c>
+      <c r="B76">
+        <v>77.178905659999998</v>
+      </c>
+      <c r="E76">
+        <v>28.48826876</v>
+      </c>
+      <c r="F76">
+        <v>77.317555729999995</v>
+      </c>
+      <c r="I76">
+        <v>28.534725989999998</v>
+      </c>
+      <c r="J76">
+        <v>77.028395860000003</v>
+      </c>
       <c r="L76">
         <v>28.669888619999998</v>
       </c>
       <c r="M76">
         <v>77.182389319999999</v>
       </c>
-    </row>
-    <row r="77" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P76">
+        <v>28.709266880000001</v>
+      </c>
+      <c r="Q76">
+        <v>77.290095440000002</v>
+      </c>
+      <c r="T76">
+        <v>28.790562139999999</v>
+      </c>
+      <c r="U76">
+        <v>77.150135410000004</v>
+      </c>
+      <c r="X76">
+        <v>28.60184053</v>
+      </c>
+      <c r="Y76">
+        <v>77.339446499999994</v>
+      </c>
+      <c r="AA76">
+        <v>28.640509260000002</v>
+      </c>
+      <c r="AB76">
+        <v>77.100265329999999</v>
+      </c>
+      <c r="AD76">
+        <v>28.753623099999999</v>
+      </c>
+      <c r="AE76">
+        <v>77.165813040000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>28.44175379</v>
+      </c>
+      <c r="B77">
+        <v>77.20575427</v>
+      </c>
+      <c r="E77">
+        <v>28.553392330000001</v>
+      </c>
+      <c r="F77">
+        <v>77.290018570000001</v>
+      </c>
+      <c r="I77">
+        <v>28.524926619999999</v>
+      </c>
+      <c r="J77">
+        <v>77.002758</v>
+      </c>
       <c r="L77">
         <v>28.767818980000001</v>
       </c>
       <c r="M77">
         <v>77.231513719999995</v>
       </c>
-    </row>
-    <row r="78" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P77">
+        <v>28.66482349</v>
+      </c>
+      <c r="Q77">
+        <v>77.25507494</v>
+      </c>
+      <c r="T77">
+        <v>28.67715531</v>
+      </c>
+      <c r="U77">
+        <v>77.004011109999993</v>
+      </c>
+      <c r="X77">
+        <v>28.66149871</v>
+      </c>
+      <c r="Y77">
+        <v>77.305306259999995</v>
+      </c>
+      <c r="AA77">
+        <v>28.686198130000001</v>
+      </c>
+      <c r="AB77">
+        <v>76.993210300000001</v>
+      </c>
+      <c r="AD77">
+        <v>28.72374301</v>
+      </c>
+      <c r="AE77">
+        <v>77.038773090000007</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>28.423187819999999</v>
+      </c>
+      <c r="B78">
+        <v>77.263983150000001</v>
+      </c>
+      <c r="E78">
+        <v>28.585654850000001</v>
+      </c>
+      <c r="F78">
+        <v>77.329307600000007</v>
+      </c>
+      <c r="I78">
+        <v>28.560390330000001</v>
+      </c>
+      <c r="J78">
+        <v>77.034070139999997</v>
+      </c>
       <c r="L78">
         <v>28.713157850000002</v>
       </c>
       <c r="M78">
         <v>77.1882758</v>
       </c>
-    </row>
-    <row r="79" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P78">
+        <v>28.699276730000001</v>
+      </c>
+      <c r="Q78">
+        <v>77.254782710000001</v>
+      </c>
+      <c r="T78">
+        <v>28.76062662</v>
+      </c>
+      <c r="U78">
+        <v>77.091411449999995</v>
+      </c>
+      <c r="X78">
+        <v>28.640650430000001</v>
+      </c>
+      <c r="Y78">
+        <v>77.269545550000004</v>
+      </c>
+      <c r="AA78">
+        <v>28.683897569999999</v>
+      </c>
+      <c r="AB78">
+        <v>77.051384709999994</v>
+      </c>
+      <c r="AD78">
+        <v>28.850105880000001</v>
+      </c>
+      <c r="AE78">
+        <v>77.118894539999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>28.5189767</v>
+      </c>
+      <c r="B79">
+        <v>77.214934150000005</v>
+      </c>
+      <c r="E79">
+        <v>28.488634489999999</v>
+      </c>
+      <c r="F79">
+        <v>77.244742990000006</v>
+      </c>
+      <c r="I79">
+        <v>28.539627299999999</v>
+      </c>
+      <c r="J79">
+        <v>76.845120600000001</v>
+      </c>
       <c r="L79">
         <v>28.664356099999999</v>
       </c>
       <c r="M79">
         <v>77.207425880000002</v>
       </c>
-    </row>
-    <row r="80" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P79">
+        <v>28.699353859999999</v>
+      </c>
+      <c r="Q79">
+        <v>77.259384120000007</v>
+      </c>
+      <c r="T79">
+        <v>28.814297679999999</v>
+      </c>
+      <c r="U79">
+        <v>77.025410949999994</v>
+      </c>
+      <c r="X79">
+        <v>28.653079219999999</v>
+      </c>
+      <c r="Y79">
+        <v>77.27567166</v>
+      </c>
+      <c r="AA79">
+        <v>28.656735940000001</v>
+      </c>
+      <c r="AB79">
+        <v>77.088309199999998</v>
+      </c>
+      <c r="AD79">
+        <v>28.806356959999999</v>
+      </c>
+      <c r="AE79">
+        <v>77.069636990000006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>28.42608998</v>
+      </c>
+      <c r="B80">
+        <v>77.226984079999994</v>
+      </c>
+      <c r="E80">
+        <v>28.494534770000001</v>
+      </c>
+      <c r="F80">
+        <v>77.268512389999998</v>
+      </c>
+      <c r="I80">
+        <v>28.566696180000001</v>
+      </c>
+      <c r="J80">
+        <v>76.873756040000004</v>
+      </c>
       <c r="L80">
         <v>28.778062309999999</v>
       </c>
       <c r="M80">
         <v>77.224907200000004</v>
       </c>
-    </row>
-    <row r="81" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P80">
+        <v>28.756651980000001</v>
+      </c>
+      <c r="Q80">
+        <v>77.235935159999997</v>
+      </c>
+      <c r="T80">
+        <v>28.706103089999999</v>
+      </c>
+      <c r="U80">
+        <v>77.044405299999994</v>
+      </c>
+      <c r="X80">
+        <v>28.62000055</v>
+      </c>
+      <c r="Y80">
+        <v>77.290758080000003</v>
+      </c>
+      <c r="AA80">
+        <v>28.692836490000001</v>
+      </c>
+      <c r="AB80">
+        <v>77.111772909999999</v>
+      </c>
+      <c r="AD80">
+        <v>28.752982100000001</v>
+      </c>
+      <c r="AE80">
+        <v>77.114278470000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>28.475875120000001</v>
+      </c>
+      <c r="B81">
+        <v>77.162870769999998</v>
+      </c>
+      <c r="E81">
+        <v>28.606806850000002</v>
+      </c>
+      <c r="F81">
+        <v>77.271279890000002</v>
+      </c>
+      <c r="I81">
+        <v>28.5358941</v>
+      </c>
+      <c r="J81">
+        <v>76.856502329999998</v>
+      </c>
       <c r="L81">
         <v>28.688892599999999</v>
       </c>
       <c r="M81">
         <v>77.235561680000004</v>
       </c>
-    </row>
-    <row r="82" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P81">
+        <v>28.745263430000001</v>
+      </c>
+      <c r="Q81">
+        <v>77.24406596</v>
+      </c>
+      <c r="T81">
+        <v>28.68687864</v>
+      </c>
+      <c r="U81">
+        <v>77.087584699999994</v>
+      </c>
+      <c r="X81">
+        <v>28.66362792</v>
+      </c>
+      <c r="Y81">
+        <v>77.314655360000003</v>
+      </c>
+      <c r="AA81">
+        <v>28.68835803</v>
+      </c>
+      <c r="AB81">
+        <v>77.124790309999995</v>
+      </c>
+      <c r="AD81">
+        <v>28.757213669999999</v>
+      </c>
+      <c r="AE81">
+        <v>76.994545059999993</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>28.433635509999998</v>
+      </c>
+      <c r="B82">
+        <v>77.122464660000006</v>
+      </c>
+      <c r="E82">
+        <v>28.588303700000001</v>
+      </c>
+      <c r="F82">
+        <v>77.271767319999995</v>
+      </c>
+      <c r="I82">
+        <v>28.62379533</v>
+      </c>
+      <c r="J82">
+        <v>76.902733080000004</v>
+      </c>
       <c r="L82">
         <v>28.710260940000001</v>
       </c>
       <c r="M82">
         <v>77.199577340000005</v>
       </c>
-    </row>
-    <row r="83" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P82">
+        <v>28.704280099999998</v>
+      </c>
+      <c r="Q82">
+        <v>77.252894859999998</v>
+      </c>
+      <c r="T82">
+        <v>28.81804236</v>
+      </c>
+      <c r="U82">
+        <v>77.062439220000002</v>
+      </c>
+      <c r="X82">
+        <v>28.64822526</v>
+      </c>
+      <c r="Y82">
+        <v>77.314830740000005</v>
+      </c>
+      <c r="AA82">
+        <v>28.64578071</v>
+      </c>
+      <c r="AB82">
+        <v>77.029780639999998</v>
+      </c>
+      <c r="AD82">
+        <v>28.737201729999999</v>
+      </c>
+      <c r="AE82">
+        <v>77.057633620000004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>28.410200769999999</v>
+      </c>
+      <c r="B83">
+        <v>77.166249489999998</v>
+      </c>
+      <c r="E83">
+        <v>28.604390519999999</v>
+      </c>
+      <c r="F83">
+        <v>77.257767090000002</v>
+      </c>
+      <c r="I83">
+        <v>28.515641389999999</v>
+      </c>
+      <c r="J83">
+        <v>76.901825700000003</v>
+      </c>
       <c r="L83">
         <v>28.699792049999999</v>
       </c>
       <c r="M83">
         <v>77.208891449999996</v>
       </c>
-    </row>
-    <row r="84" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P83">
+        <v>28.77256307</v>
+      </c>
+      <c r="Q83">
+        <v>77.286708919999995</v>
+      </c>
+      <c r="T83">
+        <v>28.73767849</v>
+      </c>
+      <c r="U83">
+        <v>77.119585349999994</v>
+      </c>
+      <c r="X83">
+        <v>28.642444699999999</v>
+      </c>
+      <c r="Y83">
+        <v>77.300826290000003</v>
+      </c>
+      <c r="AA83">
+        <v>28.69049772</v>
+      </c>
+      <c r="AB83">
+        <v>77.166785000000004</v>
+      </c>
+      <c r="AD83">
+        <v>28.783826040000001</v>
+      </c>
+      <c r="AE83">
+        <v>77.212382169999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>28.532842639999998</v>
+      </c>
+      <c r="B84">
+        <v>77.143934909999999</v>
+      </c>
+      <c r="E84">
+        <v>28.5110904</v>
+      </c>
+      <c r="F84">
+        <v>77.244008480000005</v>
+      </c>
+      <c r="I84">
+        <v>28.608905960000001</v>
+      </c>
+      <c r="J84">
+        <v>76.944122730000004</v>
+      </c>
       <c r="L84">
         <v>28.771923650000002</v>
       </c>
       <c r="M84">
         <v>77.231567299999995</v>
       </c>
-    </row>
-    <row r="85" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P84">
+        <v>28.706123219999998</v>
+      </c>
+      <c r="Q84">
+        <v>77.238252430000003</v>
+      </c>
+      <c r="T84">
+        <v>28.674909629999998</v>
+      </c>
+      <c r="U84">
+        <v>77.122896800000007</v>
+      </c>
+      <c r="X84">
+        <v>28.635769280000002</v>
+      </c>
+      <c r="Y84">
+        <v>77.342646680000001</v>
+      </c>
+      <c r="AA84">
+        <v>28.663509139999999</v>
+      </c>
+      <c r="AB84">
+        <v>77.080477560000006</v>
+      </c>
+      <c r="AD84">
+        <v>28.80553827</v>
+      </c>
+      <c r="AE84">
+        <v>77.168567460000006</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>28.420955339999999</v>
+      </c>
+      <c r="B85">
+        <v>77.136590119999994</v>
+      </c>
+      <c r="E85">
+        <v>28.505159590000002</v>
+      </c>
+      <c r="F85">
+        <v>77.304287500000001</v>
+      </c>
+      <c r="I85">
+        <v>28.54372871</v>
+      </c>
+      <c r="J85">
+        <v>76.864091930000001</v>
+      </c>
       <c r="L85">
         <v>28.74286425</v>
       </c>
       <c r="M85">
         <v>77.185810869999997</v>
       </c>
-    </row>
-    <row r="86" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P85">
+        <v>28.73152438</v>
+      </c>
+      <c r="Q85">
+        <v>77.236545379999995</v>
+      </c>
+      <c r="T85">
+        <v>28.776831739999999</v>
+      </c>
+      <c r="U85">
+        <v>76.976463499999994</v>
+      </c>
+      <c r="X85">
+        <v>28.633919630000001</v>
+      </c>
+      <c r="Y85">
+        <v>77.287047329999993</v>
+      </c>
+      <c r="AA85">
+        <v>28.624409289999999</v>
+      </c>
+      <c r="AB85">
+        <v>77.128244370000004</v>
+      </c>
+      <c r="AD85">
+        <v>28.732570859999999</v>
+      </c>
+      <c r="AE85">
+        <v>77.004192360000005</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>28.451218130000001</v>
+      </c>
+      <c r="B86">
+        <v>77.246301130000006</v>
+      </c>
+      <c r="E86">
+        <v>28.490774420000001</v>
+      </c>
+      <c r="F86">
+        <v>77.222001989999995</v>
+      </c>
+      <c r="I86">
+        <v>28.59578492</v>
+      </c>
+      <c r="J86">
+        <v>77.031614110000007</v>
+      </c>
       <c r="L86">
         <v>28.631067399999999</v>
       </c>
       <c r="M86">
         <v>77.194003080000002</v>
       </c>
-    </row>
-    <row r="87" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P86">
+        <v>28.740225949999999</v>
+      </c>
+      <c r="Q86">
+        <v>77.247696239999996</v>
+      </c>
+      <c r="T86">
+        <v>28.715422050000001</v>
+      </c>
+      <c r="U86">
+        <v>77.131131960000005</v>
+      </c>
+      <c r="X86">
+        <v>28.65687003</v>
+      </c>
+      <c r="Y86">
+        <v>77.31070459</v>
+      </c>
+      <c r="AA86">
+        <v>28.693821150000002</v>
+      </c>
+      <c r="AB86">
+        <v>77.050208889999993</v>
+      </c>
+      <c r="AD86">
+        <v>28.76480506</v>
+      </c>
+      <c r="AE86">
+        <v>77.093971929999995</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>28.434846889999999</v>
+      </c>
+      <c r="B87">
+        <v>77.20743573</v>
+      </c>
+      <c r="E87">
+        <v>28.49938452</v>
+      </c>
+      <c r="F87">
+        <v>77.334626279999995</v>
+      </c>
+      <c r="I87">
+        <v>28.651937539999999</v>
+      </c>
+      <c r="J87">
+        <v>76.935457020000001</v>
+      </c>
       <c r="L87">
         <v>28.662177119999999</v>
       </c>
       <c r="M87">
         <v>77.206336339999993</v>
       </c>
-    </row>
-    <row r="88" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P87">
+        <v>28.734550710000001</v>
+      </c>
+      <c r="Q87">
+        <v>77.284048229999996</v>
+      </c>
+      <c r="T87">
+        <v>28.72821579</v>
+      </c>
+      <c r="U87">
+        <v>77.058613379999997</v>
+      </c>
+      <c r="X87">
+        <v>28.604940670000001</v>
+      </c>
+      <c r="Y87">
+        <v>77.278212190000005</v>
+      </c>
+      <c r="AA87">
+        <v>28.683022390000001</v>
+      </c>
+      <c r="AB87">
+        <v>77.05708765</v>
+      </c>
+      <c r="AD87">
+        <v>28.85753424</v>
+      </c>
+      <c r="AE87">
+        <v>77.197153170000007</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>28.470499019999998</v>
+      </c>
+      <c r="B88">
+        <v>77.19269371</v>
+      </c>
+      <c r="E88">
+        <v>28.493113449999999</v>
+      </c>
+      <c r="F88">
+        <v>77.21833599</v>
+      </c>
+      <c r="I88">
+        <v>28.609368109999998</v>
+      </c>
+      <c r="J88">
+        <v>76.934677710000003</v>
+      </c>
       <c r="L88">
         <v>28.760333710000001</v>
       </c>
       <c r="M88">
         <v>77.259795400000002</v>
       </c>
-    </row>
-    <row r="89" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P88">
+        <v>28.750903180000002</v>
+      </c>
+      <c r="Q88">
+        <v>77.242699880000004</v>
+      </c>
+      <c r="T88">
+        <v>28.81794914</v>
+      </c>
+      <c r="U88">
+        <v>76.977218329999999</v>
+      </c>
+      <c r="X88">
+        <v>28.636936200000001</v>
+      </c>
+      <c r="Y88">
+        <v>77.267094080000007</v>
+      </c>
+      <c r="AA88">
+        <v>28.653009480000001</v>
+      </c>
+      <c r="AB88">
+        <v>76.963880930000002</v>
+      </c>
+      <c r="AD88">
+        <v>28.85559684</v>
+      </c>
+      <c r="AE88">
+        <v>77.054410410000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>28.43524768</v>
+      </c>
+      <c r="B89">
+        <v>77.249892239999994</v>
+      </c>
+      <c r="E89">
+        <v>28.554623419999999</v>
+      </c>
+      <c r="F89">
+        <v>77.226928939999993</v>
+      </c>
+      <c r="I89">
+        <v>28.578598809999999</v>
+      </c>
+      <c r="J89">
+        <v>76.985396539999996</v>
+      </c>
       <c r="L89">
         <v>28.627596830000002</v>
       </c>
       <c r="M89">
         <v>77.229546330000005</v>
       </c>
-    </row>
-    <row r="90" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P89">
+        <v>28.69620007</v>
+      </c>
+      <c r="Q89">
+        <v>77.276576390000002</v>
+      </c>
+      <c r="T89">
+        <v>28.81741864</v>
+      </c>
+      <c r="U89">
+        <v>77.121728210000001</v>
+      </c>
+      <c r="X89">
+        <v>28.61444148</v>
+      </c>
+      <c r="Y89">
+        <v>77.271441440000004</v>
+      </c>
+      <c r="AA89">
+        <v>28.67992413</v>
+      </c>
+      <c r="AB89">
+        <v>76.986131580000006</v>
+      </c>
+      <c r="AD89">
+        <v>28.745340599999999</v>
+      </c>
+      <c r="AE89">
+        <v>77.165318150000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>28.527844940000001</v>
+      </c>
+      <c r="B90">
+        <v>77.186156240000003</v>
+      </c>
+      <c r="E90">
+        <v>28.54382055</v>
+      </c>
+      <c r="F90">
+        <v>77.339697200000003</v>
+      </c>
+      <c r="I90">
+        <v>28.54490994</v>
+      </c>
+      <c r="J90">
+        <v>76.973926700000007</v>
+      </c>
       <c r="L90">
         <v>28.656368799999999</v>
       </c>
       <c r="M90">
         <v>77.196748810000003</v>
       </c>
-    </row>
-    <row r="91" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P90">
+        <v>28.666598430000001</v>
+      </c>
+      <c r="Q90">
+        <v>77.270748449999999</v>
+      </c>
+      <c r="T90">
+        <v>28.73076897</v>
+      </c>
+      <c r="U90">
+        <v>77.087044590000005</v>
+      </c>
+      <c r="X90">
+        <v>28.595688819999999</v>
+      </c>
+      <c r="Y90">
+        <v>77.258651929999999</v>
+      </c>
+      <c r="AA90">
+        <v>28.67210085</v>
+      </c>
+      <c r="AB90">
+        <v>77.08942673</v>
+      </c>
+      <c r="AD90">
+        <v>28.790139839999998</v>
+      </c>
+      <c r="AE90">
+        <v>77.036879420000005</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>28.489319590000001</v>
+      </c>
+      <c r="B91">
+        <v>77.234530699999993</v>
+      </c>
+      <c r="E91">
+        <v>28.514162930000001</v>
+      </c>
+      <c r="F91">
+        <v>77.294737330000004</v>
+      </c>
+      <c r="I91">
+        <v>28.615379659999999</v>
+      </c>
+      <c r="J91">
+        <v>77.043443440000004</v>
+      </c>
       <c r="L91">
         <v>28.738558739999998</v>
       </c>
       <c r="M91">
         <v>77.212849669999997</v>
       </c>
-    </row>
-    <row r="92" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P91">
+        <v>28.704846870000001</v>
+      </c>
+      <c r="Q91">
+        <v>77.249511069999997</v>
+      </c>
+      <c r="T91">
+        <v>28.716894459999999</v>
+      </c>
+      <c r="U91">
+        <v>76.987594209999997</v>
+      </c>
+      <c r="X91">
+        <v>28.66017656</v>
+      </c>
+      <c r="Y91">
+        <v>77.268384089999998</v>
+      </c>
+      <c r="AA91">
+        <v>28.683601100000001</v>
+      </c>
+      <c r="AB91">
+        <v>77.129586040000007</v>
+      </c>
+      <c r="AD91">
+        <v>28.798754240000001</v>
+      </c>
+      <c r="AE91">
+        <v>77.070210889999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>28.466045470000001</v>
+      </c>
+      <c r="B92">
+        <v>77.128068729999995</v>
+      </c>
+      <c r="E92">
+        <v>28.49928851</v>
+      </c>
+      <c r="F92">
+        <v>77.272938699999997</v>
+      </c>
+      <c r="I92">
+        <v>28.653968890000002</v>
+      </c>
+      <c r="J92">
+        <v>76.983516859999995</v>
+      </c>
       <c r="L92">
         <v>28.62490201</v>
       </c>
       <c r="M92">
         <v>77.229519370000006</v>
       </c>
-    </row>
-    <row r="93" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P92">
+        <v>28.681550850000001</v>
+      </c>
+      <c r="Q92">
+        <v>77.270120009999999</v>
+      </c>
+      <c r="T92">
+        <v>28.66889609</v>
+      </c>
+      <c r="U92">
+        <v>76.980004269999995</v>
+      </c>
+      <c r="X92">
+        <v>28.613572550000001</v>
+      </c>
+      <c r="Y92">
+        <v>77.308619100000001</v>
+      </c>
+      <c r="AA92">
+        <v>28.677621640000002</v>
+      </c>
+      <c r="AB92">
+        <v>77.080925160000007</v>
+      </c>
+      <c r="AD92">
+        <v>28.839006059999999</v>
+      </c>
+      <c r="AE92">
+        <v>77.13450005</v>
+      </c>
+    </row>
+    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>28.475488720000001</v>
+      </c>
+      <c r="B93">
+        <v>77.203945180000005</v>
+      </c>
+      <c r="E93">
+        <v>28.589001669999998</v>
+      </c>
+      <c r="F93">
+        <v>77.330870439999998</v>
+      </c>
+      <c r="I93">
+        <v>28.541275779999999</v>
+      </c>
+      <c r="J93">
+        <v>76.858291899999998</v>
+      </c>
       <c r="L93">
         <v>28.64982736</v>
       </c>
       <c r="M93">
         <v>77.254872349999999</v>
       </c>
-    </row>
-    <row r="94" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P93">
+        <v>28.674319229999998</v>
+      </c>
+      <c r="Q93">
+        <v>77.260093220000002</v>
+      </c>
+      <c r="T93">
+        <v>28.748303159999999</v>
+      </c>
+      <c r="U93">
+        <v>77.07115469</v>
+      </c>
+      <c r="X93">
+        <v>28.60594158</v>
+      </c>
+      <c r="Y93">
+        <v>77.268597869999994</v>
+      </c>
+      <c r="AA93">
+        <v>28.687244339999999</v>
+      </c>
+      <c r="AB93">
+        <v>77.136617900000005</v>
+      </c>
+      <c r="AD93">
+        <v>28.75013088</v>
+      </c>
+      <c r="AE93">
+        <v>77.195422050000005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>28.421504850000002</v>
+      </c>
+      <c r="B94">
+        <v>77.188324600000001</v>
+      </c>
+      <c r="E94">
+        <v>28.559107879999999</v>
+      </c>
+      <c r="F94">
+        <v>77.335406340000006</v>
+      </c>
+      <c r="I94">
+        <v>28.545989720000001</v>
+      </c>
+      <c r="J94">
+        <v>77.086554469999996</v>
+      </c>
       <c r="L94">
         <v>28.721916870000001</v>
       </c>
       <c r="M94">
         <v>77.253409559999994</v>
       </c>
-    </row>
-    <row r="95" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P94">
+        <v>28.693822059999999</v>
+      </c>
+      <c r="Q94">
+        <v>77.275621200000003</v>
+      </c>
+      <c r="T94">
+        <v>28.776293320000001</v>
+      </c>
+      <c r="U94">
+        <v>77.043073930000006</v>
+      </c>
+      <c r="X94">
+        <v>28.617885640000001</v>
+      </c>
+      <c r="Y94">
+        <v>77.260980239999995</v>
+      </c>
+      <c r="AA94">
+        <v>28.657853630000002</v>
+      </c>
+      <c r="AB94">
+        <v>77.101656969999993</v>
+      </c>
+      <c r="AD94">
+        <v>28.72368608</v>
+      </c>
+      <c r="AE94">
+        <v>77.007162750000006</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>28.43667086</v>
+      </c>
+      <c r="B95">
+        <v>77.179063339999999</v>
+      </c>
+      <c r="E95">
+        <v>28.595532240000001</v>
+      </c>
+      <c r="F95">
+        <v>77.253689469999998</v>
+      </c>
+      <c r="I95">
+        <v>28.533077250000002</v>
+      </c>
+      <c r="J95">
+        <v>77.040295749999999</v>
+      </c>
       <c r="L95">
         <v>28.659797019999999</v>
       </c>
       <c r="M95">
         <v>77.233361410000001</v>
       </c>
-    </row>
-    <row r="96" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P95">
+        <v>28.778038890000001</v>
+      </c>
+      <c r="Q95">
+        <v>77.253293560000003</v>
+      </c>
+      <c r="T95">
+        <v>28.769003999999999</v>
+      </c>
+      <c r="U95">
+        <v>77.092721519999998</v>
+      </c>
+      <c r="X95">
+        <v>28.63021827</v>
+      </c>
+      <c r="Y95">
+        <v>77.31771827</v>
+      </c>
+      <c r="AA95">
+        <v>28.679227740000002</v>
+      </c>
+      <c r="AB95">
+        <v>77.141886040000003</v>
+      </c>
+      <c r="AD95">
+        <v>28.83610423</v>
+      </c>
+      <c r="AE95">
+        <v>77.076666340000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>28.504137499999999</v>
+      </c>
+      <c r="B96">
+        <v>77.23287139</v>
+      </c>
+      <c r="E96">
+        <v>28.507977950000001</v>
+      </c>
+      <c r="F96">
+        <v>77.329727570000003</v>
+      </c>
+      <c r="I96">
+        <v>28.670116660000001</v>
+      </c>
+      <c r="J96">
+        <v>76.991996439999994</v>
+      </c>
       <c r="L96">
         <v>28.675187019999999</v>
       </c>
       <c r="M96">
         <v>77.257737419999998</v>
       </c>
-    </row>
-    <row r="97" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P96">
+        <v>28.756915630000002</v>
+      </c>
+      <c r="Q96">
+        <v>77.279086019999994</v>
+      </c>
+      <c r="T96">
+        <v>28.713271689999999</v>
+      </c>
+      <c r="U96">
+        <v>77.079005069999994</v>
+      </c>
+      <c r="X96">
+        <v>28.597530240000001</v>
+      </c>
+      <c r="Y96">
+        <v>77.256803160000004</v>
+      </c>
+      <c r="AA96">
+        <v>28.649602789999999</v>
+      </c>
+      <c r="AB96">
+        <v>77.112501280000004</v>
+      </c>
+      <c r="AD96">
+        <v>28.794889149999999</v>
+      </c>
+      <c r="AE96">
+        <v>76.985618849999994</v>
+      </c>
+    </row>
+    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>28.410935309999999</v>
+      </c>
+      <c r="B97">
+        <v>77.24138438</v>
+      </c>
+      <c r="E97">
+        <v>28.513106690000001</v>
+      </c>
+      <c r="F97">
+        <v>77.265984169999996</v>
+      </c>
+      <c r="I97">
+        <v>28.544003589999999</v>
+      </c>
+      <c r="J97">
+        <v>77.007891740000005</v>
+      </c>
       <c r="L97">
         <v>28.701844139999999</v>
       </c>
       <c r="M97">
         <v>77.234310370000003</v>
       </c>
-    </row>
-    <row r="98" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P97">
+        <v>28.698384539999999</v>
+      </c>
+      <c r="Q97">
+        <v>77.271687529999994</v>
+      </c>
+      <c r="T97">
+        <v>28.769526240000001</v>
+      </c>
+      <c r="U97">
+        <v>77.076736490000002</v>
+      </c>
+      <c r="X97">
+        <v>28.583843680000001</v>
+      </c>
+      <c r="Y97">
+        <v>77.284501059999997</v>
+      </c>
+      <c r="AA97">
+        <v>28.657533860000001</v>
+      </c>
+      <c r="AB97">
+        <v>77.064869799999997</v>
+      </c>
+      <c r="AD97">
+        <v>28.821263470000002</v>
+      </c>
+      <c r="AE97">
+        <v>77.168577790000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>28.518583589999999</v>
+      </c>
+      <c r="B98">
+        <v>77.253510989999995</v>
+      </c>
+      <c r="E98">
+        <v>28.587610779999999</v>
+      </c>
+      <c r="F98">
+        <v>77.202940769999998</v>
+      </c>
+      <c r="I98">
+        <v>28.650749099999999</v>
+      </c>
+      <c r="J98">
+        <v>77.074661000000006</v>
+      </c>
       <c r="L98">
         <v>28.632784000000001</v>
       </c>
       <c r="M98">
         <v>77.203411970000005</v>
       </c>
-    </row>
-    <row r="99" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P98">
+        <v>28.779728460000001</v>
+      </c>
+      <c r="Q98">
+        <v>77.282576259999999</v>
+      </c>
+      <c r="T98">
+        <v>28.735816889999999</v>
+      </c>
+      <c r="U98">
+        <v>77.018430499999994</v>
+      </c>
+      <c r="X98">
+        <v>28.602829239999998</v>
+      </c>
+      <c r="Y98">
+        <v>77.278991509999997</v>
+      </c>
+      <c r="AA98">
+        <v>28.65455871</v>
+      </c>
+      <c r="AB98">
+        <v>77.10732376</v>
+      </c>
+      <c r="AD98">
+        <v>28.80631735</v>
+      </c>
+      <c r="AE98">
+        <v>77.082080480000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>28.544962720000001</v>
+      </c>
+      <c r="B99">
+        <v>77.127098860000004</v>
+      </c>
+      <c r="E99">
+        <v>28.602387289999999</v>
+      </c>
+      <c r="F99">
+        <v>77.216606709999994</v>
+      </c>
+      <c r="I99">
+        <v>28.525248059999999</v>
+      </c>
+      <c r="J99">
+        <v>77.049459279999994</v>
+      </c>
       <c r="L99">
         <v>28.631044580000001</v>
       </c>
       <c r="M99">
         <v>77.178585060000003</v>
       </c>
-    </row>
-    <row r="100" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P99">
+        <v>28.686814210000001</v>
+      </c>
+      <c r="Q99">
+        <v>77.260657600000002</v>
+      </c>
+      <c r="T99">
+        <v>28.712749469999999</v>
+      </c>
+      <c r="U99">
+        <v>77.050625449999998</v>
+      </c>
+      <c r="X99">
+        <v>28.589393749999999</v>
+      </c>
+      <c r="Y99">
+        <v>77.289346550000005</v>
+      </c>
+      <c r="AA99">
+        <v>28.667448010000001</v>
+      </c>
+      <c r="AB99">
+        <v>77.028459560000002</v>
+      </c>
+      <c r="AD99">
+        <v>28.858060380000001</v>
+      </c>
+      <c r="AE99">
+        <v>77.044838780000006</v>
+      </c>
+    </row>
+    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>28.482150470000001</v>
+      </c>
+      <c r="B100">
+        <v>77.191733889999995</v>
+      </c>
+      <c r="E100">
+        <v>28.537171359999999</v>
+      </c>
+      <c r="F100">
+        <v>77.328175009999995</v>
+      </c>
+      <c r="I100">
+        <v>28.564580159999998</v>
+      </c>
+      <c r="J100">
+        <v>76.845151540000003</v>
+      </c>
       <c r="L100">
         <v>28.770211230000001</v>
       </c>
       <c r="M100">
         <v>77.252705059999997</v>
       </c>
-    </row>
-    <row r="101" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P100">
+        <v>28.679289470000001</v>
+      </c>
+      <c r="Q100">
+        <v>77.250571629999996</v>
+      </c>
+      <c r="T100">
+        <v>28.76306537</v>
+      </c>
+      <c r="U100">
+        <v>76.989445439999997</v>
+      </c>
+      <c r="X100">
+        <v>28.657355450000001</v>
+      </c>
+      <c r="Y100">
+        <v>77.337167350000001</v>
+      </c>
+      <c r="AA100">
+        <v>28.640127889999999</v>
+      </c>
+      <c r="AB100">
+        <v>76.96726572</v>
+      </c>
+      <c r="AD100">
+        <v>28.797338119999999</v>
+      </c>
+      <c r="AE100">
+        <v>77.007541660000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>28.478037960000002</v>
+      </c>
+      <c r="B101">
+        <v>77.18403309</v>
+      </c>
+      <c r="E101">
+        <v>28.516132930000001</v>
+      </c>
+      <c r="F101">
+        <v>77.323150909999995</v>
+      </c>
+      <c r="I101">
+        <v>28.516950340000001</v>
+      </c>
+      <c r="J101">
+        <v>77.058448429999999</v>
+      </c>
       <c r="L101">
         <v>28.659490080000001</v>
       </c>
       <c r="M101">
         <v>77.176180450000004</v>
       </c>
-    </row>
-    <row r="102" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P101">
+        <v>28.66411094</v>
+      </c>
+      <c r="Q101">
+        <v>77.272997720000006</v>
+      </c>
+      <c r="T101">
+        <v>28.724668749999999</v>
+      </c>
+      <c r="U101">
+        <v>77.000893009999999</v>
+      </c>
+      <c r="X101">
+        <v>28.644682499999998</v>
+      </c>
+      <c r="Y101">
+        <v>77.309899599999994</v>
+      </c>
+      <c r="AA101">
+        <v>28.676091209999999</v>
+      </c>
+      <c r="AB101">
+        <v>77.034013060000007</v>
+      </c>
+      <c r="AD101">
+        <v>28.777931779999999</v>
+      </c>
+      <c r="AE101">
+        <v>77.14725301</v>
+      </c>
+    </row>
+    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>28.549504689999999</v>
+      </c>
+      <c r="B102">
+        <v>77.142765789999999</v>
+      </c>
+      <c r="E102">
+        <v>28.522995890000001</v>
+      </c>
+      <c r="F102">
+        <v>77.252081970000006</v>
+      </c>
+      <c r="I102">
+        <v>28.640603930000001</v>
+      </c>
+      <c r="J102">
+        <v>76.911051659999998</v>
+      </c>
       <c r="L102">
         <v>28.73226846</v>
       </c>
       <c r="M102">
         <v>77.201469470000006</v>
       </c>
-    </row>
-    <row r="103" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P102">
+        <v>28.696562350000001</v>
+      </c>
+      <c r="Q102">
+        <v>77.286223660000005</v>
+      </c>
+      <c r="T102">
+        <v>28.80894456</v>
+      </c>
+      <c r="U102">
+        <v>77.089944419999995</v>
+      </c>
+      <c r="X102">
+        <v>28.629893769999999</v>
+      </c>
+      <c r="Y102">
+        <v>77.339167099999997</v>
+      </c>
+      <c r="AA102">
+        <v>28.659787210000001</v>
+      </c>
+      <c r="AB102">
+        <v>77.148142030000002</v>
+      </c>
+      <c r="AD102">
+        <v>28.800611499999999</v>
+      </c>
+      <c r="AE102">
+        <v>77.092580920000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>28.490730119999998</v>
+      </c>
+      <c r="B103">
+        <v>77.23425752</v>
+      </c>
+      <c r="E103">
+        <v>28.538857960000001</v>
+      </c>
+      <c r="F103">
+        <v>77.302746040000002</v>
+      </c>
+      <c r="I103">
+        <v>28.513005700000001</v>
+      </c>
+      <c r="J103">
+        <v>76.864466500000006</v>
+      </c>
       <c r="L103">
         <v>28.73076163</v>
       </c>
       <c r="M103">
         <v>77.213318630000003</v>
       </c>
-    </row>
-    <row r="104" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="P103">
+        <v>28.707728240000002</v>
+      </c>
+      <c r="Q103">
+        <v>77.239374810000001</v>
+      </c>
+      <c r="T103">
+        <v>28.758862659999998</v>
+      </c>
+      <c r="U103">
+        <v>77.115358459999996</v>
+      </c>
+      <c r="X103">
+        <v>28.603720490000001</v>
+      </c>
+      <c r="Y103">
+        <v>77.30874944</v>
+      </c>
+      <c r="AA103">
+        <v>28.653003850000001</v>
+      </c>
+      <c r="AB103">
+        <v>77.024378810000002</v>
+      </c>
+      <c r="AD103">
+        <v>28.756249520000001</v>
+      </c>
+      <c r="AE103">
+        <v>77.136921729999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>28.51992413</v>
+      </c>
+      <c r="B104">
+        <v>77.220287850000005</v>
+      </c>
+      <c r="E104">
+        <v>28.601191029999999</v>
+      </c>
+      <c r="F104">
+        <v>77.306288350000003</v>
+      </c>
+      <c r="I104">
+        <v>28.5195908</v>
+      </c>
+      <c r="J104">
+        <v>77.000657070000003</v>
+      </c>
       <c r="L104">
         <v>28.65050969</v>
       </c>
       <c r="M104">
         <v>77.215509130000001</v>
+      </c>
+      <c r="P104">
+        <v>28.688164069999999</v>
+      </c>
+      <c r="Q104">
+        <v>77.284591219999996</v>
+      </c>
+      <c r="T104">
+        <v>28.693073689999999</v>
+      </c>
+      <c r="U104">
+        <v>77.163600900000006</v>
+      </c>
+      <c r="X104">
+        <v>28.625192670000001</v>
+      </c>
+      <c r="Y104">
+        <v>77.273704839999994</v>
+      </c>
+      <c r="AA104">
+        <v>28.666095720000001</v>
+      </c>
+      <c r="AB104">
+        <v>77.080786619999998</v>
+      </c>
+      <c r="AD104">
+        <v>28.837810999999999</v>
+      </c>
+      <c r="AE104">
+        <v>77.180344160000004</v>
       </c>
     </row>
   </sheetData>
